--- a/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
+++ b/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -1252,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,6 +1314,80 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1440,6 +1514,51 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,131 +1568,14 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A125" sqref="A5:A125"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1899,79 +1901,79 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44" t="s">
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2949,8 +2951,10 @@
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="117">
+        <v>40289</v>
+      </c>
       <c r="D49" s="14"/>
       <c r="E49" s="3"/>
       <c r="F49" s="14"/>
@@ -2971,7 +2975,9 @@
         <v>56</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="118">
+        <v>40289</v>
+      </c>
       <c r="D50" s="14"/>
       <c r="E50" s="3"/>
       <c r="F50" s="14"/>
@@ -2992,7 +2998,9 @@
         <v>57</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="118">
+        <v>40289</v>
+      </c>
       <c r="D51" s="14"/>
       <c r="E51" s="3"/>
       <c r="F51" s="14"/>
@@ -3013,7 +3021,9 @@
         <v>58</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="118">
+        <v>40289</v>
+      </c>
       <c r="D52" s="14"/>
       <c r="E52" s="3"/>
       <c r="F52" s="14"/>
@@ -3034,7 +3044,9 @@
         <v>59</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="118">
+        <v>40289</v>
+      </c>
       <c r="D53" s="14"/>
       <c r="E53" s="3"/>
       <c r="F53" s="14"/>
@@ -3055,7 +3067,9 @@
         <v>60</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="118">
+        <v>40289</v>
+      </c>
       <c r="D54" s="14"/>
       <c r="E54" s="3"/>
       <c r="F54" s="14"/>
@@ -3076,7 +3090,9 @@
         <v>61</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="118">
+        <v>40289</v>
+      </c>
       <c r="D55" s="14"/>
       <c r="E55" s="3"/>
       <c r="F55" s="14"/>
@@ -3096,8 +3112,10 @@
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="118">
+        <v>40289</v>
+      </c>
       <c r="D56" s="14"/>
       <c r="E56" s="3"/>
       <c r="F56" s="14"/>
@@ -3118,7 +3136,9 @@
         <v>63</v>
       </c>
       <c r="B57" s="10"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="118">
+        <v>40289</v>
+      </c>
       <c r="D57" s="14"/>
       <c r="E57" s="3"/>
       <c r="F57" s="14"/>
@@ -3139,7 +3159,9 @@
         <v>64</v>
       </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="118">
+        <v>40289</v>
+      </c>
       <c r="D58" s="14"/>
       <c r="E58" s="3"/>
       <c r="F58" s="14"/>
@@ -3160,7 +3182,9 @@
         <v>65</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="118">
+        <v>40289</v>
+      </c>
       <c r="D59" s="14"/>
       <c r="E59" s="3"/>
       <c r="F59" s="14"/>
@@ -3181,7 +3205,9 @@
         <v>66</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="118">
+        <v>40289</v>
+      </c>
       <c r="D60" s="14"/>
       <c r="E60" s="3"/>
       <c r="F60" s="14"/>
@@ -3202,7 +3228,9 @@
         <v>67</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="118">
+        <v>40289</v>
+      </c>
       <c r="D61" s="14"/>
       <c r="E61" s="3"/>
       <c r="F61" s="14"/>
@@ -3223,7 +3251,9 @@
         <v>68</v>
       </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="118">
+        <v>40289</v>
+      </c>
       <c r="D62" s="14"/>
       <c r="E62" s="3"/>
       <c r="F62" s="14"/>
@@ -3243,8 +3273,10 @@
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="3"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="118">
+        <v>40289</v>
+      </c>
       <c r="D63" s="14"/>
       <c r="E63" s="3"/>
       <c r="F63" s="14"/>
@@ -3264,8 +3296,10 @@
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="118">
+        <v>40289</v>
+      </c>
       <c r="D64" s="14"/>
       <c r="E64" s="3"/>
       <c r="F64" s="14"/>
@@ -3286,7 +3320,9 @@
         <v>71</v>
       </c>
       <c r="B65" s="10"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="118">
+        <v>40289</v>
+      </c>
       <c r="D65" s="14"/>
       <c r="E65" s="3"/>
       <c r="F65" s="14"/>
@@ -3307,7 +3343,9 @@
         <v>72</v>
       </c>
       <c r="B66" s="10"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="118">
+        <v>40289</v>
+      </c>
       <c r="D66" s="14"/>
       <c r="E66" s="3"/>
       <c r="F66" s="14"/>
@@ -3328,7 +3366,9 @@
         <v>73</v>
       </c>
       <c r="B67" s="10"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="118">
+        <v>40289</v>
+      </c>
       <c r="D67" s="14"/>
       <c r="E67" s="3"/>
       <c r="F67" s="14"/>
@@ -3349,7 +3389,9 @@
         <v>74</v>
       </c>
       <c r="B68" s="10"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="118">
+        <v>40289</v>
+      </c>
       <c r="D68" s="14"/>
       <c r="E68" s="3"/>
       <c r="F68" s="14"/>
@@ -3370,7 +3412,9 @@
         <v>75</v>
       </c>
       <c r="B69" s="10"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="118">
+        <v>40289</v>
+      </c>
       <c r="D69" s="14"/>
       <c r="E69" s="3"/>
       <c r="F69" s="14"/>
@@ -3391,7 +3435,9 @@
         <v>76</v>
       </c>
       <c r="B70" s="10"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="118">
+        <v>40289</v>
+      </c>
       <c r="D70" s="14"/>
       <c r="E70" s="3"/>
       <c r="F70" s="14"/>
@@ -3412,7 +3458,9 @@
         <v>77</v>
       </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="118">
+        <v>40289</v>
+      </c>
       <c r="D71" s="14"/>
       <c r="E71" s="3"/>
       <c r="F71" s="14"/>
@@ -4599,30 +4647,30 @@
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="1:21" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="28"/>
-      <c r="M126" s="28"/>
-      <c r="N126" s="28"/>
-      <c r="O126" s="28"/>
-      <c r="P126" s="28"/>
-      <c r="Q126" s="29"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="56"/>
+      <c r="H126" s="56"/>
+      <c r="I126" s="56"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="56"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="56"/>
+      <c r="N126" s="56"/>
+      <c r="O126" s="56"/>
+      <c r="P126" s="56"/>
+      <c r="Q126" s="57"/>
     </row>
     <row r="127" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="31"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="8" t="s">
         <v>3</v>
       </c>
@@ -5551,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU125"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5562,39 +5610,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="30" thickTop="1" thickBot="1">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
       <c r="AE1" s="16"/>
       <c r="AF1" s="16"/>
       <c r="AG1" s="16"/>
@@ -5614,41 +5662,41 @@
       <c r="AU1" s="16"/>
     </row>
     <row r="2" spans="1:47" ht="30" thickTop="1" thickBot="1">
-      <c r="B2" s="50"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="68"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
@@ -5668,7 +5716,7 @@
       <c r="AU2" s="16"/>
     </row>
     <row r="3" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B3" s="50"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="26" t="s">
         <v>174</v>
       </c>
@@ -5755,7 +5803,7 @@
       </c>
     </row>
     <row r="4" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="79" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -5791,7 +5839,7 @@
       <c r="AD4" s="3"/>
     </row>
     <row r="5" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -5825,7 +5873,7 @@
       <c r="AD5" s="3"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -5859,7 +5907,7 @@
       <c r="AD6" s="3"/>
     </row>
     <row r="7" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
@@ -5893,7 +5941,7 @@
       <c r="AD7" s="3"/>
     </row>
     <row r="8" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
@@ -5927,7 +5975,7 @@
       <c r="AD8" s="3"/>
     </row>
     <row r="9" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
@@ -5961,7 +6009,7 @@
       <c r="AD9" s="3"/>
     </row>
     <row r="10" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
@@ -5995,7 +6043,7 @@
       <c r="AD10" s="3"/>
     </row>
     <row r="11" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
@@ -6029,7 +6077,7 @@
       <c r="AD11" s="3"/>
     </row>
     <row r="12" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
@@ -6063,7 +6111,7 @@
       <c r="AD12" s="3"/>
     </row>
     <row r="13" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
@@ -6097,7 +6145,7 @@
       <c r="AD13" s="3"/>
     </row>
     <row r="14" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
@@ -6131,7 +6179,7 @@
       <c r="AD14" s="3"/>
     </row>
     <row r="15" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
@@ -6165,7 +6213,7 @@
       <c r="AD15" s="3"/>
     </row>
     <row r="16" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
@@ -6199,7 +6247,7 @@
       <c r="AD16" s="3"/>
     </row>
     <row r="17" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
@@ -6233,7 +6281,7 @@
       <c r="AD17" s="3"/>
     </row>
     <row r="18" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
@@ -6267,7 +6315,7 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
@@ -6301,7 +6349,7 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -6335,7 +6383,7 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
@@ -6369,7 +6417,7 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
@@ -6403,7 +6451,7 @@
       <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="52"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
@@ -6437,7 +6485,7 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="52"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
@@ -6471,7 +6519,7 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="52"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
@@ -6505,7 +6553,7 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
@@ -6539,7 +6587,7 @@
       <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
@@ -6573,7 +6621,7 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
@@ -6607,7 +6655,7 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="52"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="18" t="s">
         <v>36</v>
       </c>
@@ -6641,7 +6689,7 @@
       <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
@@ -6675,7 +6723,7 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
@@ -6709,7 +6757,7 @@
       <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
@@ -6743,7 +6791,7 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
@@ -6777,7 +6825,7 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="52"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
@@ -6811,7 +6859,7 @@
       <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
@@ -6845,7 +6893,7 @@
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="52"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
@@ -6879,7 +6927,7 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="52"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="18" t="s">
         <v>44</v>
       </c>
@@ -6913,7 +6961,7 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="52"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
@@ -6947,7 +6995,7 @@
       <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="52"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
@@ -6981,7 +7029,7 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="52"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
@@ -7015,7 +7063,7 @@
       <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="52"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="18" t="s">
         <v>48</v>
       </c>
@@ -7049,7 +7097,7 @@
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="52"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="18" t="s">
         <v>49</v>
       </c>
@@ -7083,7 +7131,7 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="52"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
@@ -7117,7 +7165,7 @@
       <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="52"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="18" t="s">
         <v>51</v>
       </c>
@@ -7151,7 +7199,7 @@
       <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="52"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="18" t="s">
         <v>52</v>
       </c>
@@ -7185,7 +7233,7 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="52"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
@@ -7219,7 +7267,7 @@
       <c r="AD46" s="3"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="52"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="18" t="s">
         <v>54</v>
       </c>
@@ -7253,7 +7301,7 @@
       <c r="AD47" s="3"/>
     </row>
     <row r="48" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="52"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="18" t="s">
         <v>55</v>
       </c>
@@ -7287,7 +7335,7 @@
       <c r="AD48" s="3"/>
     </row>
     <row r="49" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="52"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="18" t="s">
         <v>56</v>
       </c>
@@ -7321,7 +7369,7 @@
       <c r="AD49" s="3"/>
     </row>
     <row r="50" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="52"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="18" t="s">
         <v>57</v>
       </c>
@@ -7355,7 +7403,7 @@
       <c r="AD50" s="3"/>
     </row>
     <row r="51" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="52"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
@@ -7389,7 +7437,7 @@
       <c r="AD51" s="3"/>
     </row>
     <row r="52" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="52"/>
+      <c r="A52" s="80"/>
       <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
@@ -7423,7 +7471,7 @@
       <c r="AD52" s="3"/>
     </row>
     <row r="53" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="52"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="18" t="s">
         <v>60</v>
       </c>
@@ -7457,7 +7505,7 @@
       <c r="AD53" s="3"/>
     </row>
     <row r="54" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="52"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
@@ -7491,7 +7539,7 @@
       <c r="AD54" s="3"/>
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="52"/>
+      <c r="A55" s="80"/>
       <c r="B55" s="18" t="s">
         <v>62</v>
       </c>
@@ -7525,7 +7573,7 @@
       <c r="AD55" s="3"/>
     </row>
     <row r="56" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="52"/>
+      <c r="A56" s="80"/>
       <c r="B56" s="18" t="s">
         <v>63</v>
       </c>
@@ -7559,7 +7607,7 @@
       <c r="AD56" s="3"/>
     </row>
     <row r="57" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="52"/>
+      <c r="A57" s="80"/>
       <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
@@ -7593,7 +7641,7 @@
       <c r="AD57" s="3"/>
     </row>
     <row r="58" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="52"/>
+      <c r="A58" s="80"/>
       <c r="B58" s="18" t="s">
         <v>65</v>
       </c>
@@ -7627,7 +7675,7 @@
       <c r="AD58" s="3"/>
     </row>
     <row r="59" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="52"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="18" t="s">
         <v>66</v>
       </c>
@@ -7661,7 +7709,7 @@
       <c r="AD59" s="3"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="52"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="18" t="s">
         <v>67</v>
       </c>
@@ -7695,7 +7743,7 @@
       <c r="AD60" s="3"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="52"/>
+      <c r="A61" s="80"/>
       <c r="B61" s="18" t="s">
         <v>68</v>
       </c>
@@ -7729,7 +7777,7 @@
       <c r="AD61" s="3"/>
     </row>
     <row r="62" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="52"/>
+      <c r="A62" s="80"/>
       <c r="B62" s="18" t="s">
         <v>69</v>
       </c>
@@ -7763,7 +7811,7 @@
       <c r="AD62" s="3"/>
     </row>
     <row r="63" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="52"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="18" t="s">
         <v>70</v>
       </c>
@@ -7797,7 +7845,7 @@
       <c r="AD63" s="3"/>
     </row>
     <row r="64" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="52"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="18" t="s">
         <v>71</v>
       </c>
@@ -7831,7 +7879,7 @@
       <c r="AD64" s="3"/>
     </row>
     <row r="65" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="52"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="18" t="s">
         <v>72</v>
       </c>
@@ -7865,7 +7913,7 @@
       <c r="AD65" s="3"/>
     </row>
     <row r="66" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="52"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="18" t="s">
         <v>73</v>
       </c>
@@ -7899,7 +7947,7 @@
       <c r="AD66" s="3"/>
     </row>
     <row r="67" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="52"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="18" t="s">
         <v>74</v>
       </c>
@@ -7933,7 +7981,7 @@
       <c r="AD67" s="3"/>
     </row>
     <row r="68" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="52"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="18" t="s">
         <v>75</v>
       </c>
@@ -7967,7 +8015,7 @@
       <c r="AD68" s="3"/>
     </row>
     <row r="69" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="52"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="19" t="s">
         <v>76</v>
       </c>
@@ -8001,7 +8049,7 @@
       <c r="AD69" s="3"/>
     </row>
     <row r="70" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="52"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="19" t="s">
         <v>77</v>
       </c>
@@ -8035,7 +8083,7 @@
       <c r="AD70" s="3"/>
     </row>
     <row r="71" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="52"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="19" t="s">
         <v>78</v>
       </c>
@@ -8069,7 +8117,7 @@
       <c r="AD71" s="3"/>
     </row>
     <row r="72" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="52"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="19" t="s">
         <v>79</v>
       </c>
@@ -8103,7 +8151,7 @@
       <c r="AD72" s="3"/>
     </row>
     <row r="73" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="52"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="19" t="s">
         <v>80</v>
       </c>
@@ -8137,7 +8185,7 @@
       <c r="AD73" s="3"/>
     </row>
     <row r="74" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="52"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="19" t="s">
         <v>81</v>
       </c>
@@ -8171,7 +8219,7 @@
       <c r="AD74" s="3"/>
     </row>
     <row r="75" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="52"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="19" t="s">
         <v>82</v>
       </c>
@@ -8205,7 +8253,7 @@
       <c r="AD75" s="3"/>
     </row>
     <row r="76" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="52"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="19" t="s">
         <v>83</v>
       </c>
@@ -8239,7 +8287,7 @@
       <c r="AD76" s="3"/>
     </row>
     <row r="77" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="52"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="19" t="s">
         <v>84</v>
       </c>
@@ -8273,7 +8321,7 @@
       <c r="AD77" s="3"/>
     </row>
     <row r="78" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="52"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="19" t="s">
         <v>85</v>
       </c>
@@ -8307,7 +8355,7 @@
       <c r="AD78" s="3"/>
     </row>
     <row r="79" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="52"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="19" t="s">
         <v>86</v>
       </c>
@@ -8341,7 +8389,7 @@
       <c r="AD79" s="3"/>
     </row>
     <row r="80" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="52"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="19" t="s">
         <v>87</v>
       </c>
@@ -8375,7 +8423,7 @@
       <c r="AD80" s="3"/>
     </row>
     <row r="81" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="52"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="19" t="s">
         <v>88</v>
       </c>
@@ -8409,7 +8457,7 @@
       <c r="AD81" s="3"/>
     </row>
     <row r="82" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="52"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="19" t="s">
         <v>89</v>
       </c>
@@ -8443,7 +8491,7 @@
       <c r="AD82" s="3"/>
     </row>
     <row r="83" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="52"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="19" t="s">
         <v>90</v>
       </c>
@@ -8477,7 +8525,7 @@
       <c r="AD83" s="3"/>
     </row>
     <row r="84" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="52"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="19" t="s">
         <v>91</v>
       </c>
@@ -8511,7 +8559,7 @@
       <c r="AD84" s="3"/>
     </row>
     <row r="85" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="52"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="19" t="s">
         <v>92</v>
       </c>
@@ -8545,7 +8593,7 @@
       <c r="AD85" s="3"/>
     </row>
     <row r="86" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="52"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="19" t="s">
         <v>93</v>
       </c>
@@ -8579,7 +8627,7 @@
       <c r="AD86" s="3"/>
     </row>
     <row r="87" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="52"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="19" t="s">
         <v>94</v>
       </c>
@@ -8613,7 +8661,7 @@
       <c r="AD87" s="3"/>
     </row>
     <row r="88" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="52"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="19" t="s">
         <v>95</v>
       </c>
@@ -8647,7 +8695,7 @@
       <c r="AD88" s="3"/>
     </row>
     <row r="89" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="52"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="19" t="s">
         <v>96</v>
       </c>
@@ -8681,7 +8729,7 @@
       <c r="AD89" s="3"/>
     </row>
     <row r="90" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="52"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="19" t="s">
         <v>97</v>
       </c>
@@ -8715,7 +8763,7 @@
       <c r="AD90" s="3"/>
     </row>
     <row r="91" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="52"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="19" t="s">
         <v>98</v>
       </c>
@@ -8749,7 +8797,7 @@
       <c r="AD91" s="3"/>
     </row>
     <row r="92" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="52"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="19" t="s">
         <v>99</v>
       </c>
@@ -8783,7 +8831,7 @@
       <c r="AD92" s="3"/>
     </row>
     <row r="93" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="52"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="19" t="s">
         <v>100</v>
       </c>
@@ -8817,7 +8865,7 @@
       <c r="AD93" s="3"/>
     </row>
     <row r="94" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="52"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="19" t="s">
         <v>101</v>
       </c>
@@ -8851,7 +8899,7 @@
       <c r="AD94" s="3"/>
     </row>
     <row r="95" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="52"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="19" t="s">
         <v>102</v>
       </c>
@@ -8885,7 +8933,7 @@
       <c r="AD95" s="3"/>
     </row>
     <row r="96" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="52"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="19" t="s">
         <v>103</v>
       </c>
@@ -8919,7 +8967,7 @@
       <c r="AD96" s="3"/>
     </row>
     <row r="97" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="52"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="19" t="s">
         <v>104</v>
       </c>
@@ -8953,7 +9001,7 @@
       <c r="AD97" s="3"/>
     </row>
     <row r="98" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="52"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="19" t="s">
         <v>105</v>
       </c>
@@ -8987,7 +9035,7 @@
       <c r="AD98" s="3"/>
     </row>
     <row r="99" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="52"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="19" t="s">
         <v>106</v>
       </c>
@@ -9021,7 +9069,7 @@
       <c r="AD99" s="3"/>
     </row>
     <row r="100" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="52"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="19" t="s">
         <v>107</v>
       </c>
@@ -9055,7 +9103,7 @@
       <c r="AD100" s="3"/>
     </row>
     <row r="101" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="52"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="19" t="s">
         <v>108</v>
       </c>
@@ -9089,7 +9137,7 @@
       <c r="AD101" s="3"/>
     </row>
     <row r="102" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="52"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="19" t="s">
         <v>109</v>
       </c>
@@ -9123,7 +9171,7 @@
       <c r="AD102" s="3"/>
     </row>
     <row r="103" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="52"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="19" t="s">
         <v>110</v>
       </c>
@@ -9157,7 +9205,7 @@
       <c r="AD103" s="3"/>
     </row>
     <row r="104" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="52"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="19" t="s">
         <v>111</v>
       </c>
@@ -9191,7 +9239,7 @@
       <c r="AD104" s="3"/>
     </row>
     <row r="105" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="52"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="19" t="s">
         <v>112</v>
       </c>
@@ -9225,7 +9273,7 @@
       <c r="AD105" s="3"/>
     </row>
     <row r="106" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="52"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="19" t="s">
         <v>113</v>
       </c>
@@ -9259,7 +9307,7 @@
       <c r="AD106" s="3"/>
     </row>
     <row r="107" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="52"/>
+      <c r="A107" s="80"/>
       <c r="B107" s="19" t="s">
         <v>114</v>
       </c>
@@ -9293,7 +9341,7 @@
       <c r="AD107" s="14"/>
     </row>
     <row r="108" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="52"/>
+      <c r="A108" s="80"/>
       <c r="B108" s="19" t="s">
         <v>115</v>
       </c>
@@ -9327,7 +9375,7 @@
       <c r="AD108" s="14"/>
     </row>
     <row r="109" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="52"/>
+      <c r="A109" s="80"/>
       <c r="B109" s="19" t="s">
         <v>116</v>
       </c>
@@ -9361,7 +9409,7 @@
       <c r="AD109" s="14"/>
     </row>
     <row r="110" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="52"/>
+      <c r="A110" s="80"/>
       <c r="B110" s="19" t="s">
         <v>117</v>
       </c>
@@ -9395,7 +9443,7 @@
       <c r="AD110" s="14"/>
     </row>
     <row r="111" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="52"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="19" t="s">
         <v>118</v>
       </c>
@@ -9429,7 +9477,7 @@
       <c r="AD111" s="14"/>
     </row>
     <row r="112" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="52"/>
+      <c r="A112" s="80"/>
       <c r="B112" s="19" t="s">
         <v>119</v>
       </c>
@@ -9463,7 +9511,7 @@
       <c r="AD112" s="14"/>
     </row>
     <row r="113" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="52"/>
+      <c r="A113" s="80"/>
       <c r="B113" s="19" t="s">
         <v>120</v>
       </c>
@@ -9497,7 +9545,7 @@
       <c r="AD113" s="14"/>
     </row>
     <row r="114" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="52"/>
+      <c r="A114" s="80"/>
       <c r="B114" s="19" t="s">
         <v>121</v>
       </c>
@@ -9531,7 +9579,7 @@
       <c r="AD114" s="14"/>
     </row>
     <row r="115" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="52"/>
+      <c r="A115" s="80"/>
       <c r="B115" s="19" t="s">
         <v>122</v>
       </c>
@@ -9565,7 +9613,7 @@
       <c r="AD115" s="14"/>
     </row>
     <row r="116" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="52"/>
+      <c r="A116" s="80"/>
       <c r="B116" s="19" t="s">
         <v>123</v>
       </c>
@@ -9599,7 +9647,7 @@
       <c r="AD116" s="14"/>
     </row>
     <row r="117" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="52"/>
+      <c r="A117" s="80"/>
       <c r="B117" s="19" t="s">
         <v>124</v>
       </c>
@@ -9633,7 +9681,7 @@
       <c r="AD117" s="14"/>
     </row>
     <row r="118" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="52"/>
+      <c r="A118" s="80"/>
       <c r="B118" s="19" t="s">
         <v>125</v>
       </c>
@@ -9667,7 +9715,7 @@
       <c r="AD118" s="3"/>
     </row>
     <row r="119" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="52"/>
+      <c r="A119" s="80"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
@@ -9701,7 +9749,7 @@
       <c r="AD119" s="14"/>
     </row>
     <row r="120" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="52"/>
+      <c r="A120" s="80"/>
       <c r="B120" s="19" t="s">
         <v>127</v>
       </c>
@@ -9735,7 +9783,7 @@
       <c r="AD120" s="3"/>
     </row>
     <row r="121" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="52"/>
+      <c r="A121" s="80"/>
       <c r="B121" s="19" t="s">
         <v>128</v>
       </c>
@@ -9769,7 +9817,7 @@
       <c r="AD121" s="14"/>
     </row>
     <row r="122" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="52"/>
+      <c r="A122" s="80"/>
       <c r="B122" s="19" t="s">
         <v>129</v>
       </c>
@@ -9803,7 +9851,7 @@
       <c r="AD122" s="14"/>
     </row>
     <row r="123" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="52"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="21" t="s">
         <v>130</v>
       </c>
@@ -9837,7 +9885,7 @@
       <c r="AD123" s="3"/>
     </row>
     <row r="124" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="53"/>
+      <c r="A124" s="81"/>
       <c r="B124" s="19" t="s">
         <v>131</v>
       </c>
@@ -9891,13 +9939,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DR142"/>
   <sheetViews>
-    <sheetView topLeftCell="CH1" workbookViewId="0">
-      <selection activeCell="DN3" sqref="DN3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="4.7109375" style="93"/>
+    <col min="3" max="4" width="4.7109375" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:122" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
@@ -9918,489 +9966,489 @@
       <c r="O1" s="97"/>
       <c r="P1" s="97"/>
       <c r="Q1" s="97"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="115" t="s">
+      <c r="R1" s="98"/>
+      <c r="S1" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="111" t="s">
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="112" t="s">
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="106"/>
-      <c r="BC1" s="106"/>
-      <c r="BD1" s="106"/>
-      <c r="BE1" s="106"/>
-      <c r="BF1" s="106"/>
-      <c r="BG1" s="106"/>
-      <c r="BH1" s="106"/>
-      <c r="BI1" s="106"/>
-      <c r="BJ1" s="106"/>
-      <c r="BK1" s="106"/>
-      <c r="BL1" s="106"/>
-      <c r="BM1" s="106"/>
-      <c r="BN1" s="106"/>
-      <c r="BO1" s="106"/>
-      <c r="BP1" s="106"/>
-      <c r="BQ1" s="106"/>
-      <c r="BR1" s="106"/>
-      <c r="BS1" s="106"/>
-      <c r="BT1" s="106"/>
-      <c r="BU1" s="106"/>
-      <c r="BV1" s="106"/>
-      <c r="BW1" s="106"/>
-      <c r="BX1" s="106"/>
-      <c r="BY1" s="106"/>
-      <c r="BZ1" s="106"/>
-      <c r="CA1" s="106"/>
-      <c r="CB1" s="106"/>
-      <c r="CC1" s="106"/>
-      <c r="CD1" s="106"/>
-      <c r="CE1" s="106"/>
-      <c r="CF1" s="106"/>
-      <c r="CG1" s="106"/>
-      <c r="CH1" s="106"/>
-      <c r="CI1" s="106"/>
-      <c r="CJ1" s="106"/>
-      <c r="CK1" s="106"/>
-      <c r="CL1" s="106"/>
-      <c r="CM1" s="106"/>
-      <c r="CN1" s="106"/>
-      <c r="CO1" s="106"/>
-      <c r="CP1" s="106"/>
-      <c r="CQ1" s="106"/>
-      <c r="CR1" s="106"/>
-      <c r="CS1" s="106"/>
-      <c r="CT1" s="106"/>
-      <c r="CU1" s="106"/>
-      <c r="CV1" s="106"/>
-      <c r="CW1" s="106"/>
-      <c r="CX1" s="106"/>
-      <c r="CY1" s="106"/>
-      <c r="CZ1" s="106"/>
-      <c r="DA1" s="106"/>
-      <c r="DB1" s="106"/>
-      <c r="DC1" s="106"/>
-      <c r="DD1" s="106"/>
-      <c r="DE1" s="106"/>
-      <c r="DF1" s="106"/>
-      <c r="DG1" s="106"/>
-      <c r="DH1" s="106"/>
-      <c r="DI1" s="106"/>
-      <c r="DJ1" s="106"/>
-      <c r="DK1" s="106"/>
-      <c r="DL1" s="106"/>
-      <c r="DM1" s="106"/>
-      <c r="DN1" s="106"/>
-      <c r="DO1" s="106"/>
-      <c r="DP1" s="106"/>
-      <c r="DQ1" s="106"/>
-      <c r="DR1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
+      <c r="BJ1" s="53"/>
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="53"/>
+      <c r="BX1" s="53"/>
+      <c r="BY1" s="53"/>
+      <c r="BZ1" s="53"/>
+      <c r="CA1" s="53"/>
+      <c r="CB1" s="53"/>
+      <c r="CC1" s="53"/>
+      <c r="CD1" s="53"/>
+      <c r="CE1" s="53"/>
+      <c r="CF1" s="53"/>
+      <c r="CG1" s="53"/>
+      <c r="CH1" s="53"/>
+      <c r="CI1" s="53"/>
+      <c r="CJ1" s="53"/>
+      <c r="CK1" s="53"/>
+      <c r="CL1" s="53"/>
+      <c r="CM1" s="53"/>
+      <c r="CN1" s="53"/>
+      <c r="CO1" s="53"/>
+      <c r="CP1" s="53"/>
+      <c r="CQ1" s="53"/>
+      <c r="CR1" s="53"/>
+      <c r="CS1" s="53"/>
+      <c r="CT1" s="53"/>
+      <c r="CU1" s="53"/>
+      <c r="CV1" s="53"/>
+      <c r="CW1" s="53"/>
+      <c r="CX1" s="53"/>
+      <c r="CY1" s="53"/>
+      <c r="CZ1" s="53"/>
+      <c r="DA1" s="53"/>
+      <c r="DB1" s="53"/>
+      <c r="DC1" s="53"/>
+      <c r="DD1" s="53"/>
+      <c r="DE1" s="53"/>
+      <c r="DF1" s="53"/>
+      <c r="DG1" s="53"/>
+      <c r="DH1" s="53"/>
+      <c r="DI1" s="53"/>
+      <c r="DJ1" s="53"/>
+      <c r="DK1" s="53"/>
+      <c r="DL1" s="53"/>
+      <c r="DM1" s="53"/>
+      <c r="DN1" s="53"/>
+      <c r="DO1" s="53"/>
+      <c r="DP1" s="53"/>
+      <c r="DQ1" s="53"/>
+      <c r="DR1" s="54"/>
     </row>
     <row r="2" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="102" t="s">
+      <c r="M2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="102" t="s">
+      <c r="N2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="102" t="s">
+      <c r="O2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="102" t="s">
+      <c r="P2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="102" t="s">
+      <c r="Q2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="102" t="s">
+      <c r="R2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="102" t="s">
+      <c r="S2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="102" t="s">
+      <c r="V2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="102" t="s">
+      <c r="W2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="102" t="s">
+      <c r="X2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="102" t="s">
+      <c r="Y2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="102" t="s">
+      <c r="Z2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="102" t="s">
+      <c r="AA2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="102" t="s">
+      <c r="AB2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="102" t="s">
+      <c r="AC2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="102" t="s">
+      <c r="AD2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="102" t="s">
+      <c r="AE2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="102" t="s">
+      <c r="AF2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="102" t="s">
+      <c r="AG2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="102" t="s">
+      <c r="AH2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="102" t="s">
+      <c r="AI2" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="102" t="s">
+      <c r="AJ2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="102" t="s">
+      <c r="AK2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="102" t="s">
+      <c r="AL2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="102" t="s">
+      <c r="AM2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="102" t="s">
+      <c r="AN2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="102" t="s">
+      <c r="AO2" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="102" t="s">
+      <c r="AP2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="102" t="s">
+      <c r="AQ2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="102" t="s">
+      <c r="AR2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="102" t="s">
+      <c r="AS2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="102" t="s">
+      <c r="AT2" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="102" t="s">
+      <c r="AU2" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="102" t="s">
+      <c r="AV2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="102" t="s">
+      <c r="AW2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="102" t="s">
+      <c r="AX2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="AY2" s="102" t="s">
+      <c r="AY2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AZ2" s="102" t="s">
+      <c r="AZ2" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="102" t="s">
+      <c r="BA2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="BB2" s="102" t="s">
+      <c r="BB2" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="BC2" s="102" t="s">
+      <c r="BC2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="BD2" s="102" t="s">
+      <c r="BD2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="BE2" s="102" t="s">
+      <c r="BE2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="BF2" s="102" t="s">
+      <c r="BF2" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="BG2" s="102" t="s">
+      <c r="BG2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" s="102" t="s">
+      <c r="BH2" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="BI2" s="102" t="s">
+      <c r="BI2" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="BJ2" s="102" t="s">
+      <c r="BJ2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="BK2" s="102" t="s">
+      <c r="BK2" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="BL2" s="102" t="s">
+      <c r="BL2" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="BM2" s="102" t="s">
+      <c r="BM2" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="BN2" s="102" t="s">
+      <c r="BN2" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="BO2" s="102" t="s">
+      <c r="BO2" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="BP2" s="102" t="s">
+      <c r="BP2" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="BQ2" s="102" t="s">
+      <c r="BQ2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="BR2" s="102" t="s">
+      <c r="BR2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="BS2" s="102" t="s">
+      <c r="BS2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="BT2" s="102" t="s">
+      <c r="BT2" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="BU2" s="102" t="s">
+      <c r="BU2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="BV2" s="102" t="s">
+      <c r="BV2" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="BW2" s="102" t="s">
+      <c r="BW2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="BX2" s="102" t="s">
+      <c r="BX2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="BY2" s="102" t="s">
+      <c r="BY2" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="BZ2" s="102" t="s">
+      <c r="BZ2" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="CA2" s="102" t="s">
+      <c r="CA2" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="CB2" s="102" t="s">
+      <c r="CB2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="CC2" s="102" t="s">
+      <c r="CC2" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="CD2" s="102" t="s">
+      <c r="CD2" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="CE2" s="102" t="s">
+      <c r="CE2" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="CF2" s="102" t="s">
+      <c r="CF2" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="CG2" s="102" t="s">
+      <c r="CG2" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="CH2" s="102" t="s">
+      <c r="CH2" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="CI2" s="102" t="s">
+      <c r="CI2" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="CJ2" s="102" t="s">
+      <c r="CJ2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="CK2" s="103" t="s">
+      <c r="CK2" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="CL2" s="102" t="s">
+      <c r="CL2" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="CM2" s="102" t="s">
+      <c r="CM2" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="CN2" s="102" t="s">
+      <c r="CN2" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="CO2" s="102" t="s">
+      <c r="CO2" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="CP2" s="102" t="s">
+      <c r="CP2" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="CQ2" s="102" t="s">
+      <c r="CQ2" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="CR2" s="102" t="s">
+      <c r="CR2" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="CS2" s="102" t="s">
+      <c r="CS2" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="CT2" s="102" t="s">
+      <c r="CT2" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="CU2" s="102" t="s">
+      <c r="CU2" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="CV2" s="102" t="s">
+      <c r="CV2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="CW2" s="102" t="s">
+      <c r="CW2" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="CX2" s="102" t="s">
+      <c r="CX2" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="CY2" s="102" t="s">
+      <c r="CY2" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="CZ2" s="102" t="s">
+      <c r="CZ2" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="DA2" s="102" t="s">
+      <c r="DA2" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="DB2" s="102" t="s">
+      <c r="DB2" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="DC2" s="102" t="s">
+      <c r="DC2" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="DD2" s="102" t="s">
+      <c r="DD2" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="DE2" s="102" t="s">
+      <c r="DE2" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="DF2" s="102" t="s">
+      <c r="DF2" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="DG2" s="102" t="s">
+      <c r="DG2" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="DH2" s="102" t="s">
+      <c r="DH2" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="DI2" s="102" t="s">
+      <c r="DI2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="DJ2" s="102" t="s">
+      <c r="DJ2" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="DK2" s="102" t="s">
+      <c r="DK2" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="DL2" s="102" t="s">
+      <c r="DL2" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="DM2" s="102" t="s">
+      <c r="DM2" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="DN2" s="102" t="s">
+      <c r="DN2" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="DO2" s="102" t="s">
+      <c r="DO2" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="DP2" s="102" t="s">
+      <c r="DP2" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="DQ2" s="102" t="s">
+      <c r="DQ2" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="DR2" s="102" t="s">
+      <c r="DR2" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:122" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10521,12 +10569,12 @@
       <c r="DR3" s="3"/>
     </row>
     <row r="4" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -10647,12 +10695,12 @@
       <c r="DR4" s="3"/>
     </row>
     <row r="5" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -10773,12 +10821,12 @@
       <c r="DR5" s="3"/>
     </row>
     <row r="6" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="104" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10899,12 +10947,12 @@
       <c r="DR6" s="3"/>
     </row>
     <row r="7" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="104" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -11025,12 +11073,12 @@
       <c r="DR7" s="3"/>
     </row>
     <row r="8" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="104" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -11151,12 +11199,12 @@
       <c r="DR8" s="3"/>
     </row>
     <row r="9" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -11277,12 +11325,12 @@
       <c r="DR9" s="3"/>
     </row>
     <row r="10" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="104" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -11403,12 +11451,12 @@
       <c r="DR10" s="3"/>
     </row>
     <row r="11" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -11529,12 +11577,12 @@
       <c r="DR11" s="3"/>
     </row>
     <row r="12" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="104" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -11655,12 +11703,12 @@
       <c r="DR12" s="3"/>
     </row>
     <row r="13" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="104" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -11781,12 +11829,12 @@
       <c r="DR13" s="3"/>
     </row>
     <row r="14" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="101"/>
-      <c r="B14" s="104" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -11907,12 +11955,12 @@
       <c r="DR14" s="3"/>
     </row>
     <row r="15" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="101"/>
-      <c r="B15" s="104" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -12033,12 +12081,12 @@
       <c r="DR15" s="3"/>
     </row>
     <row r="16" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="104" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -12159,12 +12207,12 @@
       <c r="DR16" s="3"/>
     </row>
     <row r="17" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="104" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -12285,12 +12333,12 @@
       <c r="DR17" s="3"/>
     </row>
     <row r="18" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="104" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -12411,12 +12459,12 @@
       <c r="DR18" s="3"/>
     </row>
     <row r="19" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="104" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -12537,12 +12585,12 @@
       <c r="DR19" s="3"/>
     </row>
     <row r="20" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="104" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12663,12 +12711,12 @@
       <c r="DR20" s="3"/>
     </row>
     <row r="21" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="104" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -12789,12 +12837,12 @@
       <c r="DR21" s="3"/>
     </row>
     <row r="22" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="104" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -12915,12 +12963,12 @@
       <c r="DR22" s="3"/>
     </row>
     <row r="23" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="101"/>
-      <c r="B23" s="104" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -13041,12 +13089,12 @@
       <c r="DR23" s="3"/>
     </row>
     <row r="24" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="104" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -13167,12 +13215,12 @@
       <c r="DR24" s="3"/>
     </row>
     <row r="25" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="104" t="s">
+      <c r="A25" s="100"/>
+      <c r="B25" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -13293,12 +13341,12 @@
       <c r="DR25" s="3"/>
     </row>
     <row r="26" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="101"/>
-      <c r="B26" s="104" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -13419,12 +13467,12 @@
       <c r="DR26" s="3"/>
     </row>
     <row r="27" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="101"/>
-      <c r="B27" s="104" t="s">
+      <c r="A27" s="100"/>
+      <c r="B27" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -13545,12 +13593,12 @@
       <c r="DR27" s="3"/>
     </row>
     <row r="28" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="101"/>
-      <c r="B28" s="104" t="s">
+      <c r="A28" s="100"/>
+      <c r="B28" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -13671,12 +13719,12 @@
       <c r="DR28" s="3"/>
     </row>
     <row r="29" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="101"/>
-      <c r="B29" s="104" t="s">
+      <c r="A29" s="100"/>
+      <c r="B29" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -13797,12 +13845,12 @@
       <c r="DR29" s="3"/>
     </row>
     <row r="30" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="101"/>
-      <c r="B30" s="104" t="s">
+      <c r="A30" s="100"/>
+      <c r="B30" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -13923,12 +13971,12 @@
       <c r="DR30" s="3"/>
     </row>
     <row r="31" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="101"/>
-      <c r="B31" s="104" t="s">
+      <c r="A31" s="100"/>
+      <c r="B31" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -14049,12 +14097,12 @@
       <c r="DR31" s="3"/>
     </row>
     <row r="32" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="101"/>
-      <c r="B32" s="105" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="96"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -14175,12 +14223,12 @@
       <c r="DR32" s="3"/>
     </row>
     <row r="33" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="101"/>
-      <c r="B33" s="105" t="s">
+      <c r="A33" s="100"/>
+      <c r="B33" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="96"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -14301,12 +14349,12 @@
       <c r="DR33" s="3"/>
     </row>
     <row r="34" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="101"/>
-      <c r="B34" s="105" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -14427,12 +14475,12 @@
       <c r="DR34" s="3"/>
     </row>
     <row r="35" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="101"/>
-      <c r="B35" s="105" t="s">
+      <c r="A35" s="100"/>
+      <c r="B35" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="96"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -14553,325 +14601,325 @@
       <c r="DR35" s="3"/>
     </row>
     <row r="36" spans="1:122" ht="15.75" thickTop="1">
-      <c r="A36" s="98"/>
+      <c r="A36" s="47"/>
     </row>
     <row r="37" spans="1:122">
-      <c r="A37" s="98"/>
+      <c r="A37" s="47"/>
     </row>
     <row r="38" spans="1:122">
-      <c r="A38" s="98"/>
+      <c r="A38" s="47"/>
     </row>
     <row r="39" spans="1:122">
-      <c r="A39" s="98"/>
+      <c r="A39" s="47"/>
     </row>
     <row r="40" spans="1:122">
-      <c r="A40" s="98"/>
+      <c r="A40" s="47"/>
     </row>
     <row r="41" spans="1:122">
-      <c r="A41" s="98"/>
+      <c r="A41" s="47"/>
     </row>
     <row r="42" spans="1:122">
-      <c r="A42" s="98"/>
+      <c r="A42" s="47"/>
     </row>
     <row r="43" spans="1:122">
-      <c r="A43" s="98"/>
+      <c r="A43" s="47"/>
     </row>
     <row r="44" spans="1:122">
-      <c r="A44" s="98"/>
+      <c r="A44" s="47"/>
     </row>
     <row r="45" spans="1:122">
-      <c r="A45" s="98"/>
+      <c r="A45" s="47"/>
     </row>
     <row r="46" spans="1:122">
-      <c r="A46" s="98"/>
+      <c r="A46" s="47"/>
     </row>
     <row r="47" spans="1:122">
-      <c r="A47" s="98"/>
+      <c r="A47" s="47"/>
     </row>
     <row r="48" spans="1:122">
-      <c r="A48" s="98"/>
+      <c r="A48" s="47"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="98"/>
+      <c r="A49" s="47"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="98"/>
+      <c r="A50" s="47"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="98"/>
+      <c r="A51" s="47"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="98"/>
+      <c r="A52" s="47"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="98"/>
+      <c r="A53" s="47"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="98"/>
+      <c r="A54" s="47"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="98"/>
+      <c r="A55" s="47"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="98"/>
+      <c r="A56" s="47"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="98"/>
+      <c r="A57" s="47"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="98"/>
+      <c r="A58" s="47"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="98"/>
+      <c r="A59" s="47"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="98"/>
+      <c r="A60" s="47"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="98"/>
+      <c r="A61" s="47"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="98"/>
+      <c r="A62" s="47"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="98"/>
+      <c r="A63" s="47"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="98"/>
+      <c r="A64" s="47"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="98"/>
+      <c r="A65" s="47"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="98"/>
+      <c r="A66" s="47"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="98"/>
+      <c r="A67" s="47"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="98"/>
+      <c r="A68" s="47"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="98"/>
+      <c r="A69" s="47"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="98"/>
+      <c r="A70" s="47"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="98"/>
+      <c r="A71" s="47"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="98"/>
+      <c r="A72" s="47"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="98"/>
+      <c r="A73" s="47"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="98"/>
+      <c r="A74" s="47"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="98"/>
+      <c r="A75" s="47"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="98"/>
+      <c r="A76" s="47"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="98"/>
+      <c r="A77" s="47"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="98"/>
+      <c r="A78" s="47"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="98"/>
+      <c r="A79" s="47"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="98"/>
+      <c r="A80" s="47"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="98"/>
+      <c r="A81" s="47"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="98"/>
+      <c r="A82" s="47"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="98"/>
+      <c r="A83" s="47"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="98"/>
+      <c r="A84" s="47"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="98"/>
+      <c r="A85" s="47"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="98"/>
+      <c r="A86" s="47"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="98"/>
+      <c r="A87" s="47"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="98"/>
+      <c r="A88" s="47"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="98"/>
+      <c r="A89" s="47"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="98"/>
+      <c r="A90" s="47"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="98"/>
+      <c r="A91" s="47"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="98"/>
+      <c r="A92" s="47"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="98"/>
+      <c r="A93" s="47"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="98"/>
+      <c r="A94" s="47"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="98"/>
+      <c r="A95" s="47"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="98"/>
+      <c r="A96" s="47"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="98"/>
+      <c r="A97" s="47"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="98"/>
+      <c r="A98" s="47"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="98"/>
+      <c r="A99" s="47"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="98"/>
+      <c r="A100" s="47"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="98"/>
+      <c r="A101" s="47"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="98"/>
+      <c r="A102" s="47"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="98"/>
+      <c r="A103" s="47"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="98"/>
+      <c r="A104" s="47"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="98"/>
+      <c r="A105" s="47"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="98"/>
+      <c r="A106" s="47"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="98"/>
+      <c r="A107" s="47"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="98"/>
+      <c r="A108" s="47"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="98"/>
+      <c r="A109" s="47"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="98"/>
+      <c r="A110" s="47"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="98"/>
+      <c r="A111" s="47"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="98"/>
+      <c r="A112" s="47"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="98"/>
+      <c r="A113" s="47"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="98"/>
+      <c r="A114" s="47"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="98"/>
+      <c r="A115" s="47"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="98"/>
+      <c r="A116" s="47"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="98"/>
+      <c r="A117" s="47"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="98"/>
+      <c r="A118" s="47"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="98"/>
+      <c r="A119" s="47"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="98"/>
+      <c r="A120" s="47"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="98"/>
+      <c r="A121" s="47"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="98"/>
+      <c r="A122" s="47"/>
     </row>
     <row r="123" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A123" s="99"/>
+      <c r="A123" s="48"/>
     </row>
     <row r="124" spans="1:1" ht="15.75" thickTop="1">
-      <c r="A124" s="93"/>
+      <c r="A124" s="43"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="93"/>
+      <c r="A125" s="43"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="93"/>
+      <c r="A126" s="43"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="93"/>
+      <c r="A127" s="43"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="93"/>
+      <c r="A128" s="43"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="93"/>
+      <c r="A129" s="43"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="93"/>
+      <c r="A130" s="43"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="93"/>
+      <c r="A131" s="43"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="93"/>
+      <c r="A132" s="43"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="93"/>
+      <c r="A133" s="43"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="93"/>
+      <c r="A134" s="43"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="93"/>
+      <c r="A135" s="43"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="93"/>
+      <c r="A136" s="43"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="93"/>
+      <c r="A137" s="43"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="93"/>
+      <c r="A138" s="43"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="93"/>
+      <c r="A139" s="43"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="93"/>
+      <c r="A140" s="43"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="93"/>
+      <c r="A141" s="43"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="93"/>
+      <c r="A142" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14890,7 +14938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B122" sqref="B122:F123"/>
     </sheetView>
   </sheetViews>
@@ -14904,75 +14952,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="78"/>
-      <c r="B1" s="69" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="90" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="41" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="31" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3"/>
@@ -14982,7 +15030,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3"/>
@@ -14992,7 +15040,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3"/>
@@ -15002,7 +15050,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3"/>
@@ -15012,7 +15060,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3"/>
@@ -15022,7 +15070,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3"/>
@@ -15032,7 +15080,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3"/>
@@ -15042,7 +15090,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3"/>
@@ -15052,7 +15100,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3"/>
@@ -15062,7 +15110,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3"/>
@@ -15072,7 +15120,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3"/>
@@ -15082,7 +15130,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3"/>
@@ -15092,7 +15140,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="3"/>
@@ -15102,7 +15150,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3"/>
@@ -15112,7 +15160,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3"/>
@@ -15122,7 +15170,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="3"/>
@@ -15132,7 +15180,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3"/>
@@ -15142,7 +15190,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="3"/>
@@ -15152,7 +15200,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="3"/>
@@ -15162,7 +15210,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="3"/>
@@ -15172,7 +15220,7 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="3"/>
@@ -15182,7 +15230,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3"/>
@@ -15192,7 +15240,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3"/>
@@ -15202,7 +15250,7 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="3"/>
@@ -15212,7 +15260,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3"/>
@@ -15222,7 +15270,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3"/>
@@ -15232,7 +15280,7 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="3"/>
@@ -15242,7 +15290,7 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="3"/>
@@ -15252,7 +15300,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="3"/>
@@ -15262,7 +15310,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="3"/>
@@ -15272,7 +15320,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="3"/>
@@ -15282,7 +15330,7 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="3"/>
@@ -15292,7 +15340,7 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="3"/>
@@ -15302,7 +15350,7 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="3"/>
@@ -15312,7 +15360,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="27" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="3"/>
@@ -15322,7 +15370,7 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="3"/>
@@ -15332,7 +15380,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="3"/>
@@ -15342,7 +15390,7 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="3"/>
@@ -15352,7 +15400,7 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="27" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="3"/>
@@ -15362,7 +15410,7 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="3"/>
@@ -15372,7 +15420,7 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="3"/>
@@ -15382,7 +15430,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="3"/>
@@ -15392,7 +15440,7 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="3"/>
@@ -15402,7 +15450,7 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="3"/>
@@ -15412,7 +15460,7 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="3"/>
@@ -15422,7 +15470,7 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="3"/>
@@ -15432,7 +15480,7 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="72" t="s">
+      <c r="A52" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="3"/>
@@ -15442,7 +15490,7 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="72" t="s">
+      <c r="A53" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="3"/>
@@ -15452,7 +15500,7 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="27" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="3"/>
@@ -15462,7 +15510,7 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="3"/>
@@ -15472,7 +15520,7 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="3"/>
@@ -15482,7 +15530,7 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="3"/>
@@ -15492,7 +15540,7 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="72" t="s">
+      <c r="A58" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="3"/>
@@ -15502,7 +15550,7 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="3"/>
@@ -15512,7 +15560,7 @@
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="3"/>
@@ -15522,7 +15570,7 @@
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="3"/>
@@ -15532,7 +15580,7 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="3"/>
@@ -15542,7 +15590,7 @@
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B63" s="3"/>
@@ -15552,7 +15600,7 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="3"/>
@@ -15562,7 +15610,7 @@
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="27" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="3"/>
@@ -15572,7 +15620,7 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="27" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="3"/>
@@ -15582,7 +15630,7 @@
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="3"/>
@@ -15592,7 +15640,7 @@
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="3"/>
@@ -15602,7 +15650,7 @@
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B69" s="3"/>
@@ -15612,7 +15660,7 @@
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="3"/>
@@ -15622,7 +15670,7 @@
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="3"/>
@@ -15632,7 +15680,7 @@
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="28" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="3"/>
@@ -15642,7 +15690,7 @@
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="28" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="3"/>
@@ -15652,7 +15700,7 @@
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="3"/>
@@ -15662,7 +15710,7 @@
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="3"/>
@@ -15672,7 +15720,7 @@
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="28" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="3"/>
@@ -15682,7 +15730,7 @@
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="3"/>
@@ -15692,7 +15740,7 @@
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="3"/>
@@ -15702,7 +15750,7 @@
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="3"/>
@@ -15712,7 +15760,7 @@
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="3"/>
@@ -15722,7 +15770,7 @@
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="28" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="3"/>
@@ -15732,7 +15780,7 @@
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="73" t="s">
+      <c r="A82" s="28" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="3"/>
@@ -15742,7 +15790,7 @@
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="3"/>
@@ -15752,7 +15800,7 @@
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="73" t="s">
+      <c r="A84" s="28" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="3"/>
@@ -15762,7 +15810,7 @@
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B85" s="3"/>
@@ -15772,7 +15820,7 @@
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="73" t="s">
+      <c r="A86" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B86" s="3"/>
@@ -15782,7 +15830,7 @@
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="28" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="3"/>
@@ -15792,7 +15840,7 @@
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="73" t="s">
+      <c r="A88" s="28" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="3"/>
@@ -15802,7 +15850,7 @@
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B89" s="3"/>
@@ -15812,7 +15860,7 @@
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="73" t="s">
+      <c r="A90" s="28" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="3"/>
@@ -15822,7 +15870,7 @@
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="73" t="s">
+      <c r="A91" s="28" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="3"/>
@@ -15832,7 +15880,7 @@
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="28" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="3"/>
@@ -15842,7 +15890,7 @@
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="73" t="s">
+      <c r="A93" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="3"/>
@@ -15852,7 +15900,7 @@
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="73" t="s">
+      <c r="A94" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B94" s="3"/>
@@ -15862,7 +15910,7 @@
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="73" t="s">
+      <c r="A95" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B95" s="3"/>
@@ -15872,7 +15920,7 @@
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="73" t="s">
+      <c r="A96" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="3"/>
@@ -15882,7 +15930,7 @@
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="73" t="s">
+      <c r="A97" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B97" s="3"/>
@@ -15892,7 +15940,7 @@
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="73" t="s">
+      <c r="A98" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B98" s="3"/>
@@ -15902,7 +15950,7 @@
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B99" s="3"/>
@@ -15912,7 +15960,7 @@
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="73" t="s">
+      <c r="A100" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B100" s="3"/>
@@ -15922,7 +15970,7 @@
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="73" t="s">
+      <c r="A101" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B101" s="3"/>
@@ -15932,7 +15980,7 @@
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="73" t="s">
+      <c r="A102" s="28" t="s">
         <v>108</v>
       </c>
       <c r="B102" s="3"/>
@@ -15942,7 +15990,7 @@
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="73" t="s">
+      <c r="A103" s="28" t="s">
         <v>109</v>
       </c>
       <c r="B103" s="3"/>
@@ -15952,7 +16000,7 @@
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="73" t="s">
+      <c r="A104" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="3"/>
@@ -15962,7 +16010,7 @@
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="73" t="s">
+      <c r="A105" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B105" s="3"/>
@@ -15972,7 +16020,7 @@
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="73" t="s">
+      <c r="A106" s="28" t="s">
         <v>112</v>
       </c>
       <c r="B106" s="3"/>
@@ -15982,7 +16030,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="73" t="s">
+      <c r="A107" s="28" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="3"/>
@@ -15992,7 +16040,7 @@
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="73" t="s">
+      <c r="A108" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B108" s="14"/>
@@ -16002,7 +16050,7 @@
       <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="73" t="s">
+      <c r="A109" s="28" t="s">
         <v>115</v>
       </c>
       <c r="B109" s="14"/>
@@ -16012,7 +16060,7 @@
       <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="73" t="s">
+      <c r="A110" s="28" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="14"/>
@@ -16022,7 +16070,7 @@
       <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="73" t="s">
+      <c r="A111" s="28" t="s">
         <v>117</v>
       </c>
       <c r="B111" s="14"/>
@@ -16032,7 +16080,7 @@
       <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="73" t="s">
+      <c r="A112" s="28" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="14"/>
@@ -16042,7 +16090,7 @@
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="73" t="s">
+      <c r="A113" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="14"/>
@@ -16052,7 +16100,7 @@
       <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="73" t="s">
+      <c r="A114" s="28" t="s">
         <v>120</v>
       </c>
       <c r="B114" s="14"/>
@@ -16062,7 +16110,7 @@
       <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="73" t="s">
+      <c r="A115" s="28" t="s">
         <v>121</v>
       </c>
       <c r="B115" s="14"/>
@@ -16072,7 +16120,7 @@
       <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="73" t="s">
+      <c r="A116" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B116" s="14"/>
@@ -16082,7 +16130,7 @@
       <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="73" t="s">
+      <c r="A117" s="28" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="14"/>
@@ -16092,7 +16140,7 @@
       <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="73" t="s">
+      <c r="A118" s="28" t="s">
         <v>124</v>
       </c>
       <c r="B118" s="14"/>
@@ -16102,7 +16150,7 @@
       <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="73" t="s">
+      <c r="A119" s="28" t="s">
         <v>125</v>
       </c>
       <c r="B119" s="3"/>
@@ -16112,7 +16160,7 @@
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="74" t="s">
+      <c r="A120" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B120" s="14"/>
@@ -16122,7 +16170,7 @@
       <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="73" t="s">
+      <c r="A121" s="28" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="3"/>
@@ -16132,7 +16180,7 @@
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="73" t="s">
+      <c r="A122" s="28" t="s">
         <v>128</v>
       </c>
       <c r="B122" s="14"/>
@@ -16142,7 +16190,7 @@
       <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="73" t="s">
+      <c r="A123" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B123" s="14"/>
@@ -16152,7 +16200,7 @@
       <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="75" t="s">
+      <c r="A124" s="30" t="s">
         <v>130</v>
       </c>
       <c r="B124" s="3"/>
@@ -16162,7 +16210,7 @@
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A125" s="73" t="s">
+      <c r="A125" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B125" s="3"/>
@@ -16172,37 +16220,37 @@
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A126" s="81"/>
-      <c r="B126" s="91" t="s">
+      <c r="A126" s="33"/>
+      <c r="B126" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="92"/>
-      <c r="F126" s="80"/>
+      <c r="C126" s="110"/>
+      <c r="D126" s="110"/>
+      <c r="E126" s="110"/>
+      <c r="F126" s="111"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="77" t="s">
+      <c r="A127" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="76" t="s">
+      <c r="B127" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C127" s="76" t="s">
+      <c r="C127" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D127" s="76" t="s">
+      <c r="D127" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E127" s="76" t="s">
+      <c r="E127" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="F127" s="76" t="s">
+      <c r="F127" s="31" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="82" t="s">
+      <c r="A128" s="34" t="s">
         <v>139</v>
       </c>
       <c r="B128" s="3"/>
@@ -16212,7 +16260,7 @@
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="82" t="s">
+      <c r="A129" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B129" s="3"/>
@@ -16222,7 +16270,7 @@
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="82" t="s">
+      <c r="A130" s="34" t="s">
         <v>141</v>
       </c>
       <c r="B130" s="3"/>
@@ -16232,7 +16280,7 @@
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="82" t="s">
+      <c r="A131" s="34" t="s">
         <v>142</v>
       </c>
       <c r="B131" s="3"/>
@@ -16242,7 +16290,7 @@
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="82" t="s">
+      <c r="A132" s="34" t="s">
         <v>143</v>
       </c>
       <c r="B132" s="3"/>
@@ -16252,7 +16300,7 @@
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="82" t="s">
+      <c r="A133" s="34" t="s">
         <v>144</v>
       </c>
       <c r="B133" s="3"/>
@@ -16262,7 +16310,7 @@
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="82" t="s">
+      <c r="A134" s="34" t="s">
         <v>145</v>
       </c>
       <c r="B134" s="3"/>
@@ -16272,7 +16320,7 @@
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="82" t="s">
+      <c r="A135" s="34" t="s">
         <v>146</v>
       </c>
       <c r="B135" s="3"/>
@@ -16282,7 +16330,7 @@
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="82" t="s">
+      <c r="A136" s="34" t="s">
         <v>147</v>
       </c>
       <c r="B136" s="3"/>
@@ -16292,7 +16340,7 @@
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="82" t="s">
+      <c r="A137" s="34" t="s">
         <v>148</v>
       </c>
       <c r="B137" s="3"/>
@@ -16302,7 +16350,7 @@
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="82" t="s">
+      <c r="A138" s="34" t="s">
         <v>149</v>
       </c>
       <c r="B138" s="3"/>
@@ -16312,7 +16360,7 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="82" t="s">
+      <c r="A139" s="34" t="s">
         <v>150</v>
       </c>
       <c r="B139" s="3"/>
@@ -16322,7 +16370,7 @@
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="82" t="s">
+      <c r="A140" s="34" t="s">
         <v>151</v>
       </c>
       <c r="B140" s="3"/>
@@ -16332,7 +16380,7 @@
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="82" t="s">
+      <c r="A141" s="34" t="s">
         <v>152</v>
       </c>
       <c r="B141" s="3"/>
@@ -16342,7 +16390,7 @@
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="82" t="s">
+      <c r="A142" s="34" t="s">
         <v>153</v>
       </c>
       <c r="B142" s="3"/>
@@ -16352,7 +16400,7 @@
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="82" t="s">
+      <c r="A143" s="34" t="s">
         <v>154</v>
       </c>
       <c r="B143" s="3"/>
@@ -16362,7 +16410,7 @@
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="82" t="s">
+      <c r="A144" s="34" t="s">
         <v>155</v>
       </c>
       <c r="B144" s="3"/>
@@ -16372,7 +16420,7 @@
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="82" t="s">
+      <c r="A145" s="34" t="s">
         <v>156</v>
       </c>
       <c r="B145" s="3"/>
@@ -16382,7 +16430,7 @@
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="82" t="s">
+      <c r="A146" s="34" t="s">
         <v>157</v>
       </c>
       <c r="B146" s="3"/>
@@ -16392,7 +16440,7 @@
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="82" t="s">
+      <c r="A147" s="34" t="s">
         <v>158</v>
       </c>
       <c r="B147" s="3"/>
@@ -16402,7 +16450,7 @@
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="82" t="s">
+      <c r="A148" s="34" t="s">
         <v>159</v>
       </c>
       <c r="B148" s="3"/>
@@ -16412,7 +16460,7 @@
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="82" t="s">
+      <c r="A149" s="34" t="s">
         <v>160</v>
       </c>
       <c r="B149" s="3"/>
@@ -16422,7 +16470,7 @@
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="82" t="s">
+      <c r="A150" s="34" t="s">
         <v>161</v>
       </c>
       <c r="B150" s="3"/>
@@ -16432,7 +16480,7 @@
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="82" t="s">
+      <c r="A151" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B151" s="3"/>
@@ -16442,7 +16490,7 @@
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="82" t="s">
+      <c r="A152" s="34" t="s">
         <v>163</v>
       </c>
       <c r="B152" s="3"/>
@@ -16452,7 +16500,7 @@
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="82" t="s">
+      <c r="A153" s="34" t="s">
         <v>164</v>
       </c>
       <c r="B153" s="3"/>
@@ -16462,7 +16510,7 @@
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="82" t="s">
+      <c r="A154" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B154" s="3"/>
@@ -16472,7 +16520,7 @@
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="82" t="s">
+      <c r="A155" s="34" t="s">
         <v>166</v>
       </c>
       <c r="B155" s="3"/>
@@ -16482,7 +16530,7 @@
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="82" t="s">
+      <c r="A156" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B156" s="3"/>
@@ -16492,7 +16540,7 @@
       <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="83" t="s">
+      <c r="A157" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B157" s="3"/>
@@ -16502,7 +16550,7 @@
       <c r="F157" s="3"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="83" t="s">
+      <c r="A158" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B158" s="3"/>
@@ -16512,7 +16560,7 @@
       <c r="F158" s="3"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="83" t="s">
+      <c r="A159" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B159" s="3"/>
@@ -16522,7 +16570,7 @@
       <c r="F159" s="3"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A160" s="83" t="s">
+      <c r="A160" s="35" t="s">
         <v>171</v>
       </c>
       <c r="B160" s="3"/>

--- a/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
+++ b/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="ORIGEN NO FUNCIONALES" sheetId="3" r:id="rId3"/>
     <sheet name="CICLO DE VIDA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -587,51 +587,6 @@
   </si>
   <si>
     <t>CU13</t>
-  </si>
-  <si>
-    <t>CU14</t>
-  </si>
-  <si>
-    <t>CU15</t>
-  </si>
-  <si>
-    <t>CU16</t>
-  </si>
-  <si>
-    <t>CU17</t>
-  </si>
-  <si>
-    <t>CU18</t>
-  </si>
-  <si>
-    <t>CU19</t>
-  </si>
-  <si>
-    <t>CU20</t>
-  </si>
-  <si>
-    <t>CU21</t>
-  </si>
-  <si>
-    <t>CU22</t>
-  </si>
-  <si>
-    <t>CU23</t>
-  </si>
-  <si>
-    <t>CU24</t>
-  </si>
-  <si>
-    <t>CU25</t>
-  </si>
-  <si>
-    <t>CU26</t>
-  </si>
-  <si>
-    <t>CU27</t>
-  </si>
-  <si>
-    <t>CU28</t>
   </si>
   <si>
     <t>LEVANTAMIENTO</t>
@@ -668,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,14 +680,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1252,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1283,7 +1230,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1299,19 +1246,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,10 +1295,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,10 +1312,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,22 +1404,28 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,31 +1437,13 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,52 +1452,52 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,8 +1506,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1885,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1901,83 +1835,83 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="112" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2049,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="14"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -2070,7 +2004,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="14"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
@@ -2091,7 +2025,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="14"/>
       <c r="E8" s="3"/>
       <c r="F8" s="14"/>
@@ -2112,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="14"/>
       <c r="E9" s="3"/>
       <c r="F9" s="14"/>
@@ -2133,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="14"/>
       <c r="E10" s="3"/>
       <c r="F10" s="14"/>
@@ -2154,7 +2088,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="14"/>
       <c r="E11" s="3"/>
       <c r="F11" s="14"/>
@@ -2175,7 +2109,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="14"/>
       <c r="E12" s="3"/>
       <c r="F12" s="14"/>
@@ -2196,7 +2130,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="14"/>
       <c r="E13" s="3"/>
       <c r="F13" s="14"/>
@@ -2217,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="14"/>
       <c r="E14" s="3"/>
       <c r="F14" s="14"/>
@@ -2238,7 +2172,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="14"/>
       <c r="E15" s="3"/>
       <c r="F15" s="14"/>
@@ -2259,7 +2193,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="14"/>
       <c r="E16" s="3"/>
       <c r="F16" s="14"/>
@@ -2280,7 +2214,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="14"/>
       <c r="E17" s="3"/>
       <c r="F17" s="14"/>
@@ -2301,7 +2235,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="14"/>
       <c r="E18" s="3"/>
       <c r="F18" s="14"/>
@@ -2322,7 +2256,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="14"/>
       <c r="E19" s="3"/>
       <c r="F19" s="14"/>
@@ -2343,7 +2277,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="14"/>
       <c r="E20" s="3"/>
       <c r="F20" s="14"/>
@@ -2364,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="14"/>
       <c r="E21" s="3"/>
       <c r="F21" s="14"/>
@@ -2385,7 +2319,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="14"/>
       <c r="E22" s="3"/>
       <c r="F22" s="14"/>
@@ -2406,7 +2340,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="14"/>
       <c r="E23" s="3"/>
       <c r="F23" s="14"/>
@@ -2427,7 +2361,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="14"/>
       <c r="E24" s="3"/>
       <c r="F24" s="14"/>
@@ -2448,7 +2382,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="14"/>
       <c r="E25" s="3"/>
       <c r="F25" s="14"/>
@@ -2469,7 +2403,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="14"/>
       <c r="E26" s="3"/>
       <c r="F26" s="14"/>
@@ -2490,7 +2424,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
       <c r="F27" s="14"/>
@@ -2511,7 +2445,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="14"/>
       <c r="E28" s="3"/>
       <c r="F28" s="14"/>
@@ -2532,7 +2466,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="14"/>
       <c r="E29" s="3"/>
       <c r="F29" s="14"/>
@@ -2553,7 +2487,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="14"/>
       <c r="E30" s="3"/>
       <c r="F30" s="14"/>
@@ -2574,7 +2508,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="14"/>
       <c r="E31" s="3"/>
       <c r="F31" s="14"/>
@@ -2595,7 +2529,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="14"/>
       <c r="E32" s="3"/>
       <c r="F32" s="14"/>
@@ -2616,7 +2550,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="14"/>
       <c r="E33" s="3"/>
       <c r="F33" s="14"/>
@@ -2637,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="14"/>
       <c r="E34" s="3"/>
       <c r="F34" s="14"/>
@@ -2658,7 +2592,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="14"/>
       <c r="E35" s="3"/>
       <c r="F35" s="14"/>
@@ -2679,7 +2613,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="14"/>
       <c r="E36" s="3"/>
       <c r="F36" s="14"/>
@@ -2700,7 +2634,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="14"/>
       <c r="E37" s="3"/>
       <c r="F37" s="14"/>
@@ -2721,7 +2655,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
       <c r="F38" s="14"/>
@@ -2742,7 +2676,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
       <c r="F39" s="14"/>
@@ -2763,7 +2697,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
       <c r="F40" s="14"/>
@@ -2784,7 +2718,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="14"/>
       <c r="E41" s="3"/>
       <c r="F41" s="14"/>
@@ -2805,7 +2739,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="14"/>
       <c r="E42" s="3"/>
       <c r="F42" s="14"/>
@@ -2826,7 +2760,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="14"/>
       <c r="E43" s="3"/>
       <c r="F43" s="14"/>
@@ -2847,7 +2781,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="14"/>
       <c r="E44" s="3"/>
       <c r="F44" s="14"/>
@@ -2868,7 +2802,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="14"/>
       <c r="E45" s="3"/>
       <c r="F45" s="14"/>
@@ -2889,7 +2823,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="14"/>
       <c r="E46" s="3"/>
       <c r="F46" s="14"/>
@@ -2910,7 +2844,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="14"/>
       <c r="E47" s="3"/>
       <c r="F47" s="14"/>
@@ -2931,7 +2865,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="14"/>
       <c r="E48" s="3"/>
       <c r="F48" s="14"/>
@@ -2952,31 +2886,31 @@
         <v>55</v>
       </c>
       <c r="B49" s="12"/>
-      <c r="C49" s="117">
-        <v>40289</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="3"/>
+      <c r="C49" s="113">
+        <v>40258</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
     </row>
     <row r="50" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="118">
-        <v>40289</v>
+      <c r="C50" s="11">
+        <v>40258</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="3"/>
@@ -2998,8 +2932,8 @@
         <v>57</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="118">
-        <v>40289</v>
+      <c r="C51" s="11">
+        <v>40258</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="3"/>
@@ -3021,8 +2955,8 @@
         <v>58</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="118">
-        <v>40289</v>
+      <c r="C52" s="11">
+        <v>40258</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="3"/>
@@ -3044,8 +2978,8 @@
         <v>59</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="118">
-        <v>40289</v>
+      <c r="C53" s="11">
+        <v>40258</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="3"/>
@@ -3067,8 +3001,8 @@
         <v>60</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="118">
-        <v>40289</v>
+      <c r="C54" s="11">
+        <v>40258</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="3"/>
@@ -3090,8 +3024,8 @@
         <v>61</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="118">
-        <v>40289</v>
+      <c r="C55" s="11">
+        <v>40258</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="3"/>
@@ -3113,31 +3047,31 @@
         <v>62</v>
       </c>
       <c r="B56" s="12"/>
-      <c r="C56" s="118">
-        <v>40289</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="3"/>
+      <c r="C56" s="11">
+        <v>40258</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="10"/>
-      <c r="C57" s="118">
-        <v>40289</v>
+      <c r="C57" s="11">
+        <v>40258</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="3"/>
@@ -3159,8 +3093,8 @@
         <v>64</v>
       </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="118">
-        <v>40289</v>
+      <c r="C58" s="11">
+        <v>40258</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="3"/>
@@ -3182,8 +3116,8 @@
         <v>65</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="118">
-        <v>40289</v>
+      <c r="C59" s="11">
+        <v>40258</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="3"/>
@@ -3205,8 +3139,8 @@
         <v>66</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="118">
-        <v>40289</v>
+      <c r="C60" s="11">
+        <v>40258</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="3"/>
@@ -3228,8 +3162,8 @@
         <v>67</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="118">
-        <v>40289</v>
+      <c r="C61" s="11">
+        <v>40258</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="3"/>
@@ -3251,8 +3185,8 @@
         <v>68</v>
       </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="118">
-        <v>40289</v>
+      <c r="C62" s="11">
+        <v>40258</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="3"/>
@@ -3274,54 +3208,54 @@
         <v>69</v>
       </c>
       <c r="B63" s="12"/>
-      <c r="C63" s="118">
-        <v>40289</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="3"/>
+      <c r="C63" s="11">
+        <v>40258</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="12"/>
-      <c r="C64" s="118">
-        <v>40289</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="3"/>
+      <c r="C64" s="11">
+        <v>40258</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="10"/>
-      <c r="C65" s="118">
-        <v>40289</v>
+      <c r="C65" s="11">
+        <v>40258</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="3"/>
@@ -3343,8 +3277,8 @@
         <v>72</v>
       </c>
       <c r="B66" s="10"/>
-      <c r="C66" s="118">
-        <v>40289</v>
+      <c r="C66" s="11">
+        <v>40258</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="3"/>
@@ -3366,8 +3300,8 @@
         <v>73</v>
       </c>
       <c r="B67" s="10"/>
-      <c r="C67" s="118">
-        <v>40289</v>
+      <c r="C67" s="11">
+        <v>40258</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="3"/>
@@ -3389,8 +3323,8 @@
         <v>74</v>
       </c>
       <c r="B68" s="10"/>
-      <c r="C68" s="118">
-        <v>40289</v>
+      <c r="C68" s="11">
+        <v>40258</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="3"/>
@@ -3412,8 +3346,8 @@
         <v>75</v>
       </c>
       <c r="B69" s="10"/>
-      <c r="C69" s="118">
-        <v>40289</v>
+      <c r="C69" s="11">
+        <v>40258</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="3"/>
@@ -3435,8 +3369,8 @@
         <v>76</v>
       </c>
       <c r="B70" s="10"/>
-      <c r="C70" s="118">
-        <v>40289</v>
+      <c r="C70" s="11">
+        <v>40258</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="3"/>
@@ -3458,8 +3392,8 @@
         <v>77</v>
       </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="118">
-        <v>40289</v>
+      <c r="C71" s="11">
+        <v>40258</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="3"/>
@@ -3481,7 +3415,9 @@
         <v>78</v>
       </c>
       <c r="B72" s="10"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="11">
+        <v>40262</v>
+      </c>
       <c r="D72" s="14"/>
       <c r="E72" s="3"/>
       <c r="F72" s="14"/>
@@ -3502,7 +3438,9 @@
         <v>79</v>
       </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="3"/>
+      <c r="C73" s="11">
+        <v>40262</v>
+      </c>
       <c r="D73" s="14"/>
       <c r="E73" s="3"/>
       <c r="F73" s="14"/>
@@ -3523,7 +3461,9 @@
         <v>80</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="11">
+        <v>40262</v>
+      </c>
       <c r="D74" s="14"/>
       <c r="E74" s="3"/>
       <c r="F74" s="14"/>
@@ -3544,7 +3484,9 @@
         <v>81</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="11">
+        <v>40262</v>
+      </c>
       <c r="D75" s="14"/>
       <c r="E75" s="3"/>
       <c r="F75" s="14"/>
@@ -3564,113 +3506,125 @@
       <c r="A76" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="3"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11">
+        <v>40262</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
     </row>
     <row r="77" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="3"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11">
+        <v>40262</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="3"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11">
+        <v>40262</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
     </row>
     <row r="79" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="3"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="11">
+        <v>40262</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
     </row>
     <row r="80" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="3"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="11">
+        <v>40262</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
     </row>
     <row r="81" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="11">
+        <v>40262</v>
+      </c>
       <c r="D81" s="14"/>
       <c r="E81" s="3"/>
       <c r="F81" s="14"/>
@@ -3691,7 +3645,9 @@
         <v>88</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="3"/>
+      <c r="C82" s="11">
+        <v>40262</v>
+      </c>
       <c r="D82" s="14"/>
       <c r="E82" s="3"/>
       <c r="F82" s="14"/>
@@ -3712,7 +3668,9 @@
         <v>89</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="11">
+        <v>40262</v>
+      </c>
       <c r="D83" s="14"/>
       <c r="E83" s="3"/>
       <c r="F83" s="14"/>
@@ -3733,7 +3691,9 @@
         <v>90</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="C84" s="3"/>
+      <c r="C84" s="11">
+        <v>40262</v>
+      </c>
       <c r="D84" s="14"/>
       <c r="E84" s="3"/>
       <c r="F84" s="14"/>
@@ -3754,7 +3714,9 @@
         <v>91</v>
       </c>
       <c r="B85" s="10"/>
-      <c r="C85" s="3"/>
+      <c r="C85" s="11">
+        <v>40262</v>
+      </c>
       <c r="D85" s="14"/>
       <c r="E85" s="3"/>
       <c r="F85" s="14"/>
@@ -3775,7 +3737,9 @@
         <v>92</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="3"/>
+      <c r="C86" s="11">
+        <v>40262</v>
+      </c>
       <c r="D86" s="14"/>
       <c r="E86" s="3"/>
       <c r="F86" s="14"/>
@@ -3795,29 +3759,33 @@
       <c r="A87" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="3"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="11">
+        <v>40262</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
     </row>
     <row r="88" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="10"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="11">
+        <v>40262</v>
+      </c>
       <c r="D88" s="14"/>
       <c r="E88" s="3"/>
       <c r="F88" s="14"/>
@@ -3838,7 +3806,9 @@
         <v>95</v>
       </c>
       <c r="B89" s="10"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="11">
+        <v>40262</v>
+      </c>
       <c r="D89" s="14"/>
       <c r="E89" s="3"/>
       <c r="F89" s="14"/>
@@ -3859,7 +3829,9 @@
         <v>96</v>
       </c>
       <c r="B90" s="10"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="11">
+        <v>40262</v>
+      </c>
       <c r="D90" s="14"/>
       <c r="E90" s="3"/>
       <c r="F90" s="14"/>
@@ -3879,29 +3851,31 @@
       <c r="A91" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="3"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="11">
+        <v>40262</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
     </row>
     <row r="92" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A92" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="10"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="14"/>
       <c r="E92" s="3"/>
       <c r="F92" s="14"/>
@@ -3922,7 +3896,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="10"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="14"/>
       <c r="E93" s="3"/>
       <c r="F93" s="14"/>
@@ -3943,7 +3917,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="10"/>
-      <c r="C94" s="3"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="14"/>
       <c r="E94" s="3"/>
       <c r="F94" s="14"/>
@@ -3964,7 +3938,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="10"/>
-      <c r="C95" s="3"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="14"/>
       <c r="E95" s="3"/>
       <c r="F95" s="14"/>
@@ -3985,7 +3959,7 @@
         <v>102</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="C96" s="3"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="14"/>
       <c r="E96" s="3"/>
       <c r="F96" s="14"/>
@@ -4006,7 +3980,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="C97" s="3"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="14"/>
       <c r="E97" s="3"/>
       <c r="F97" s="14"/>
@@ -4027,7 +4001,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="10"/>
-      <c r="C98" s="3"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="14"/>
       <c r="E98" s="3"/>
       <c r="F98" s="14"/>
@@ -4048,7 +4022,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="14"/>
       <c r="E99" s="3"/>
       <c r="F99" s="14"/>
@@ -4069,7 +4043,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="10"/>
-      <c r="C100" s="3"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="14"/>
       <c r="E100" s="3"/>
       <c r="F100" s="14"/>
@@ -4090,7 +4064,7 @@
         <v>107</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="14"/>
       <c r="E101" s="3"/>
       <c r="F101" s="14"/>
@@ -4111,7 +4085,7 @@
         <v>108</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="14"/>
       <c r="E102" s="3"/>
       <c r="F102" s="14"/>
@@ -4132,7 +4106,7 @@
         <v>109</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="14"/>
       <c r="E103" s="3"/>
       <c r="F103" s="14"/>
@@ -4153,7 +4127,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="11"/>
       <c r="D104" s="14"/>
       <c r="E104" s="3"/>
       <c r="F104" s="14"/>
@@ -4174,7 +4148,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="11"/>
       <c r="D105" s="14"/>
       <c r="E105" s="3"/>
       <c r="F105" s="14"/>
@@ -4195,7 +4169,7 @@
         <v>112</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="11"/>
       <c r="D106" s="14"/>
       <c r="E106" s="3"/>
       <c r="F106" s="14"/>
@@ -4216,7 +4190,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="C107" s="3"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="14"/>
       <c r="E107" s="3"/>
       <c r="F107" s="14"/>
@@ -4647,30 +4621,30 @@
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="1:21" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A126" s="58" t="s">
+      <c r="A126" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="55" t="s">
+      <c r="B126" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="56"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="56"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="56"/>
-      <c r="L126" s="56"/>
-      <c r="M126" s="56"/>
-      <c r="N126" s="56"/>
-      <c r="O126" s="56"/>
-      <c r="P126" s="56"/>
-      <c r="Q126" s="57"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
+      <c r="L126" s="55"/>
+      <c r="M126" s="55"/>
+      <c r="N126" s="55"/>
+      <c r="O126" s="55"/>
+      <c r="P126" s="55"/>
+      <c r="Q126" s="56"/>
     </row>
     <row r="127" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="59"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="8" t="s">
         <v>3</v>
       </c>
@@ -4834,19 +4808,19 @@
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
+      <c r="D132" s="14"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+      <c r="H132" s="14"/>
       <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="J132" s="14"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
+      <c r="L132" s="14"/>
       <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
+      <c r="N132" s="14"/>
       <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
+      <c r="P132" s="14"/>
       <c r="Q132" s="3"/>
       <c r="R132" s="9"/>
       <c r="S132" s="9"/>
@@ -4859,19 +4833,19 @@
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
+      <c r="D133" s="14"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+      <c r="H133" s="14"/>
       <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="J133" s="14"/>
       <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
+      <c r="L133" s="14"/>
       <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
+      <c r="N133" s="14"/>
       <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
+      <c r="P133" s="14"/>
       <c r="Q133" s="3"/>
       <c r="R133" s="9"/>
       <c r="S133" s="9"/>
@@ -4884,19 +4858,19 @@
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
+      <c r="D134" s="14"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
+      <c r="H134" s="14"/>
       <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="J134" s="14"/>
       <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
+      <c r="L134" s="14"/>
       <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
+      <c r="N134" s="14"/>
       <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
+      <c r="P134" s="14"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="9"/>
       <c r="S134" s="9"/>
@@ -4909,19 +4883,19 @@
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="D135" s="14"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="14"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
+      <c r="H135" s="14"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="J135" s="14"/>
       <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
+      <c r="L135" s="14"/>
       <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
+      <c r="N135" s="14"/>
       <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
+      <c r="P135" s="14"/>
       <c r="Q135" s="3"/>
       <c r="R135" s="9"/>
       <c r="S135" s="9"/>
@@ -4934,19 +4908,19 @@
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
+      <c r="D136" s="14"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="14"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
+      <c r="H136" s="14"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="J136" s="14"/>
       <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
+      <c r="L136" s="14"/>
       <c r="M136" s="3"/>
-      <c r="N136" s="3"/>
+      <c r="N136" s="14"/>
       <c r="O136" s="3"/>
-      <c r="P136" s="3"/>
+      <c r="P136" s="14"/>
       <c r="Q136" s="3"/>
       <c r="R136" s="9"/>
       <c r="S136" s="9"/>
@@ -4959,19 +4933,19 @@
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="14"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="14"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
+      <c r="H137" s="14"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="J137" s="14"/>
       <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
+      <c r="L137" s="14"/>
       <c r="M137" s="3"/>
-      <c r="N137" s="3"/>
+      <c r="N137" s="14"/>
       <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
+      <c r="P137" s="14"/>
       <c r="Q137" s="3"/>
       <c r="R137" s="9"/>
       <c r="S137" s="9"/>
@@ -4984,19 +4958,19 @@
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
+      <c r="D138" s="14"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="14"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
+      <c r="H138" s="14"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="J138" s="14"/>
       <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
+      <c r="L138" s="14"/>
       <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
+      <c r="N138" s="14"/>
       <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
+      <c r="P138" s="14"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="9"/>
       <c r="S138" s="9"/>
@@ -5009,19 +4983,19 @@
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
+      <c r="D139" s="14"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="14"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
+      <c r="H139" s="14"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="J139" s="14"/>
       <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
+      <c r="L139" s="14"/>
       <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
+      <c r="N139" s="14"/>
       <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
+      <c r="P139" s="14"/>
       <c r="Q139" s="3"/>
       <c r="R139" s="9"/>
       <c r="S139" s="9"/>
@@ -5032,21 +5006,23 @@
       <c r="A140" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="11">
+        <v>40259</v>
+      </c>
+      <c r="D140" s="14"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="14"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
+      <c r="H140" s="14"/>
       <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="J140" s="14"/>
       <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
+      <c r="L140" s="14"/>
       <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
+      <c r="N140" s="14"/>
       <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
+      <c r="P140" s="14"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="9"/>
       <c r="S140" s="9"/>
@@ -5057,21 +5033,23 @@
       <c r="A141" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="11">
+        <v>40259</v>
+      </c>
+      <c r="D141" s="14"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="14"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
+      <c r="H141" s="14"/>
       <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="J141" s="14"/>
       <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
+      <c r="L141" s="14"/>
       <c r="M141" s="3"/>
-      <c r="N141" s="3"/>
+      <c r="N141" s="14"/>
       <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
+      <c r="P141" s="14"/>
       <c r="Q141" s="3"/>
       <c r="R141" s="9"/>
       <c r="S141" s="9"/>
@@ -5082,21 +5060,23 @@
       <c r="A142" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="11">
+        <v>40259</v>
+      </c>
+      <c r="D142" s="14"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="14"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
+      <c r="H142" s="14"/>
       <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="J142" s="14"/>
       <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
+      <c r="L142" s="14"/>
       <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
+      <c r="N142" s="14"/>
       <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
+      <c r="P142" s="14"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="9"/>
       <c r="S142" s="9"/>
@@ -5109,19 +5089,19 @@
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="14"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="14"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
+      <c r="H143" s="14"/>
       <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
+      <c r="J143" s="14"/>
       <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
+      <c r="L143" s="14"/>
       <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
+      <c r="N143" s="14"/>
       <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
+      <c r="P143" s="14"/>
       <c r="Q143" s="3"/>
       <c r="R143" s="9"/>
       <c r="S143" s="9"/>
@@ -5134,19 +5114,19 @@
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="14"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
+      <c r="F144" s="14"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+      <c r="H144" s="14"/>
       <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="J144" s="14"/>
       <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
+      <c r="L144" s="14"/>
       <c r="M144" s="3"/>
-      <c r="N144" s="3"/>
+      <c r="N144" s="14"/>
       <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
+      <c r="P144" s="14"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="9"/>
       <c r="S144" s="9"/>
@@ -5159,19 +5139,19 @@
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="14"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+      <c r="F145" s="14"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+      <c r="H145" s="14"/>
       <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="J145" s="14"/>
       <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
+      <c r="L145" s="14"/>
       <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
+      <c r="N145" s="14"/>
       <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
+      <c r="P145" s="14"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="9"/>
       <c r="S145" s="9"/>
@@ -5184,19 +5164,19 @@
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
+      <c r="D146" s="14"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="F146" s="14"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
+      <c r="H146" s="14"/>
       <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="J146" s="14"/>
       <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
+      <c r="L146" s="14"/>
       <c r="M146" s="3"/>
-      <c r="N146" s="3"/>
+      <c r="N146" s="14"/>
       <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
+      <c r="P146" s="14"/>
       <c r="Q146" s="3"/>
       <c r="R146" s="9"/>
       <c r="S146" s="9"/>
@@ -5209,19 +5189,19 @@
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="D147" s="14"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+      <c r="F147" s="14"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
+      <c r="H147" s="14"/>
       <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="J147" s="14"/>
       <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
+      <c r="L147" s="14"/>
       <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
+      <c r="N147" s="14"/>
       <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
+      <c r="P147" s="14"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="9"/>
       <c r="S147" s="9"/>
@@ -5396,19 +5376,19 @@
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
+      <c r="D154" s="14"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
+      <c r="F154" s="14"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
+      <c r="H154" s="14"/>
       <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="J154" s="14"/>
       <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
+      <c r="L154" s="14"/>
       <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
+      <c r="N154" s="14"/>
       <c r="O154" s="3"/>
-      <c r="P154" s="3"/>
+      <c r="P154" s="14"/>
       <c r="Q154" s="3"/>
       <c r="R154" s="9"/>
       <c r="S154" s="9"/>
@@ -5421,19 +5401,19 @@
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="D155" s="14"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
+      <c r="F155" s="14"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
+      <c r="H155" s="14"/>
       <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
+      <c r="J155" s="14"/>
       <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
+      <c r="L155" s="14"/>
       <c r="M155" s="3"/>
-      <c r="N155" s="3"/>
+      <c r="N155" s="14"/>
       <c r="O155" s="3"/>
-      <c r="P155" s="3"/>
+      <c r="P155" s="14"/>
       <c r="Q155" s="3"/>
       <c r="R155" s="9"/>
       <c r="S155" s="9"/>
@@ -5597,216 +5577,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU125"/>
+  <dimension ref="A1:AF125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="Q85" sqref="Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="30" width="4.7109375" customWidth="1"/>
+    <col min="3" max="15" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="30" thickTop="1" thickBot="1">
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
+      <c r="B1" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
       <c r="AE1" s="16"/>
       <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-    </row>
-    <row r="2" spans="1:47" ht="30" thickTop="1" thickBot="1">
-      <c r="B2" s="78"/>
-      <c r="C2" s="85" t="s">
+    </row>
+    <row r="2" spans="1:32" ht="30" thickTop="1" thickBot="1">
+      <c r="B2" s="77"/>
+      <c r="C2" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91" t="s">
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="96"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-    </row>
-    <row r="3" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B3" s="78"/>
-      <c r="C3" s="26" t="s">
+    </row>
+    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B3" s="77"/>
+      <c r="C3" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="P3" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB3" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC3" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD3" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="79" t="s">
+    </row>
+    <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3"/>
@@ -5822,24 +5727,9 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="80"/>
+    </row>
+    <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="79"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -5856,24 +5746,9 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="80"/>
+    </row>
+    <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="79"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -5890,24 +5765,9 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-    </row>
-    <row r="7" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="80"/>
+    </row>
+    <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="79"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
@@ -5924,24 +5784,9 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-    </row>
-    <row r="8" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="80"/>
+    </row>
+    <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="79"/>
       <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
@@ -5958,24 +5803,9 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="80"/>
+    </row>
+    <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="79"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
@@ -5992,24 +5822,9 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="80"/>
+    </row>
+    <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="79"/>
       <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
@@ -6026,24 +5841,9 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-    </row>
-    <row r="11" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="80"/>
+    </row>
+    <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="79"/>
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
@@ -6060,24 +5860,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="80"/>
+    </row>
+    <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="79"/>
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
@@ -6094,24 +5879,9 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="80"/>
+    </row>
+    <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="79"/>
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
@@ -6128,24 +5898,9 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="80"/>
+    </row>
+    <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="79"/>
       <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
@@ -6162,24 +5917,9 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="80"/>
+    </row>
+    <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="79"/>
       <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
@@ -6196,24 +5936,9 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:47" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="80"/>
+    </row>
+    <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="79"/>
       <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
@@ -6230,24 +5955,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="80"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="79"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
@@ -6264,24 +5974,9 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="80"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="79"/>
       <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
@@ -6298,24 +5993,9 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="80"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="79"/>
       <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
@@ -6332,24 +6012,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="80"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="79"/>
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -6366,24 +6031,9 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="80"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="79"/>
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
@@ -6400,24 +6050,9 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="80"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="79"/>
       <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
@@ -6434,24 +6069,9 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="80"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="79"/>
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
@@ -6468,24 +6088,9 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="80"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="79"/>
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
@@ -6502,24 +6107,9 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="80"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="79"/>
       <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
@@ -6536,24 +6126,9 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="80"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="79"/>
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
@@ -6570,24 +6145,9 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="80"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="79"/>
       <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
@@ -6604,24 +6164,9 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="80"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="79"/>
       <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
@@ -6638,24 +6183,9 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="80"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="79"/>
       <c r="B29" s="18" t="s">
         <v>36</v>
       </c>
@@ -6672,24 +6202,9 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="80"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="79"/>
       <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
@@ -6706,24 +6221,9 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="80"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="79"/>
       <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
@@ -6740,24 +6240,9 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-    </row>
-    <row r="32" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="80"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="79"/>
       <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
@@ -6774,24 +6259,9 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-    </row>
-    <row r="33" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="80"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="79"/>
       <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
@@ -6808,24 +6278,9 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="80"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="79"/>
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
@@ -6842,24 +6297,9 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="80"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="79"/>
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
@@ -6876,24 +6316,9 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="80"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="79"/>
       <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
@@ -6910,24 +6335,9 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="80"/>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="79"/>
       <c r="B37" s="18" t="s">
         <v>44</v>
       </c>
@@ -6944,24 +6354,9 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="80"/>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="79"/>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
@@ -6978,24 +6373,9 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="80"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="79"/>
       <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
@@ -7012,24 +6392,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="80"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="79"/>
       <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
@@ -7046,24 +6411,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="80"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="79"/>
       <c r="B41" s="18" t="s">
         <v>48</v>
       </c>
@@ -7080,24 +6430,9 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="80"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="79"/>
       <c r="B42" s="18" t="s">
         <v>49</v>
       </c>
@@ -7114,24 +6449,9 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="80"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="79"/>
       <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
@@ -7148,24 +6468,9 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="80"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="79"/>
       <c r="B44" s="18" t="s">
         <v>51</v>
       </c>
@@ -7182,24 +6487,9 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-    </row>
-    <row r="45" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="80"/>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="79"/>
       <c r="B45" s="18" t="s">
         <v>52</v>
       </c>
@@ -7216,24 +6506,9 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="80"/>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="79"/>
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
@@ -7250,24 +6525,9 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-    </row>
-    <row r="47" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="80"/>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="79"/>
       <c r="B47" s="18" t="s">
         <v>54</v>
       </c>
@@ -7284,24 +6544,9 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-    </row>
-    <row r="48" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="80"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="79"/>
       <c r="B48" s="18" t="s">
         <v>55</v>
       </c>
@@ -7318,24 +6563,9 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-    </row>
-    <row r="49" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="80"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49" s="79"/>
       <c r="B49" s="18" t="s">
         <v>56</v>
       </c>
@@ -7352,24 +6582,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-    </row>
-    <row r="50" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="80"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A50" s="79"/>
       <c r="B50" s="18" t="s">
         <v>57</v>
       </c>
@@ -7386,24 +6601,9 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-    </row>
-    <row r="51" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="80"/>
+    </row>
+    <row r="51" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="79"/>
       <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
@@ -7420,24 +6620,9 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-    </row>
-    <row r="52" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="80"/>
+    </row>
+    <row r="52" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="79"/>
       <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
@@ -7454,24 +6639,9 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-    </row>
-    <row r="53" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="80"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="79"/>
       <c r="B53" s="18" t="s">
         <v>60</v>
       </c>
@@ -7488,24 +6658,9 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-    </row>
-    <row r="54" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="80"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A54" s="79"/>
       <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
@@ -7522,24 +6677,9 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-    </row>
-    <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="80"/>
+    </row>
+    <row r="55" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A55" s="79"/>
       <c r="B55" s="18" t="s">
         <v>62</v>
       </c>
@@ -7556,24 +6696,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="80"/>
+    </row>
+    <row r="56" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="79"/>
       <c r="B56" s="18" t="s">
         <v>63</v>
       </c>
@@ -7590,24 +6715,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="80"/>
+    </row>
+    <row r="57" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A57" s="79"/>
       <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
@@ -7624,24 +6734,9 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-    </row>
-    <row r="58" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="80"/>
+    </row>
+    <row r="58" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A58" s="79"/>
       <c r="B58" s="18" t="s">
         <v>65</v>
       </c>
@@ -7658,24 +6753,9 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-    </row>
-    <row r="59" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="80"/>
+    </row>
+    <row r="59" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A59" s="79"/>
       <c r="B59" s="18" t="s">
         <v>66</v>
       </c>
@@ -7692,24 +6772,9 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-    </row>
-    <row r="60" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="80"/>
+    </row>
+    <row r="60" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A60" s="79"/>
       <c r="B60" s="18" t="s">
         <v>67</v>
       </c>
@@ -7726,24 +6791,9 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-    </row>
-    <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="80"/>
+    </row>
+    <row r="61" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A61" s="79"/>
       <c r="B61" s="18" t="s">
         <v>68</v>
       </c>
@@ -7760,24 +6810,9 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-    </row>
-    <row r="62" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="80"/>
+    </row>
+    <row r="62" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A62" s="79"/>
       <c r="B62" s="18" t="s">
         <v>69</v>
       </c>
@@ -7794,24 +6829,9 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-    </row>
-    <row r="63" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="80"/>
+    </row>
+    <row r="63" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A63" s="79"/>
       <c r="B63" s="18" t="s">
         <v>70</v>
       </c>
@@ -7828,24 +6848,9 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-    </row>
-    <row r="64" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="80"/>
+    </row>
+    <row r="64" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A64" s="79"/>
       <c r="B64" s="18" t="s">
         <v>71</v>
       </c>
@@ -7862,24 +6867,9 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-    </row>
-    <row r="65" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="80"/>
+    </row>
+    <row r="65" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A65" s="79"/>
       <c r="B65" s="18" t="s">
         <v>72</v>
       </c>
@@ -7896,24 +6886,9 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-    </row>
-    <row r="66" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="80"/>
+    </row>
+    <row r="66" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A66" s="79"/>
       <c r="B66" s="18" t="s">
         <v>73</v>
       </c>
@@ -7930,24 +6905,9 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-    </row>
-    <row r="67" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="80"/>
+    </row>
+    <row r="67" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A67" s="79"/>
       <c r="B67" s="18" t="s">
         <v>74</v>
       </c>
@@ -7964,24 +6924,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="80"/>
+    </row>
+    <row r="68" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A68" s="79"/>
       <c r="B68" s="18" t="s">
         <v>75</v>
       </c>
@@ -7998,24 +6943,9 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-    </row>
-    <row r="69" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="80"/>
+    </row>
+    <row r="69" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A69" s="79"/>
       <c r="B69" s="19" t="s">
         <v>76</v>
       </c>
@@ -8032,24 +6962,9 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-    </row>
-    <row r="70" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="80"/>
+    </row>
+    <row r="70" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A70" s="79"/>
       <c r="B70" s="19" t="s">
         <v>77</v>
       </c>
@@ -8066,24 +6981,9 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-    </row>
-    <row r="71" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="80"/>
+    </row>
+    <row r="71" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A71" s="79"/>
       <c r="B71" s="19" t="s">
         <v>78</v>
       </c>
@@ -8100,24 +7000,9 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-    </row>
-    <row r="72" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="80"/>
+    </row>
+    <row r="72" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A72" s="79"/>
       <c r="B72" s="19" t="s">
         <v>79</v>
       </c>
@@ -8134,24 +7019,9 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-    </row>
-    <row r="73" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="80"/>
+    </row>
+    <row r="73" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A73" s="79"/>
       <c r="B73" s="19" t="s">
         <v>80</v>
       </c>
@@ -8168,24 +7038,9 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-    </row>
-    <row r="74" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="80"/>
+    </row>
+    <row r="74" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A74" s="79"/>
       <c r="B74" s="19" t="s">
         <v>81</v>
       </c>
@@ -8202,194 +7057,104 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-    </row>
-    <row r="75" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="80"/>
+    </row>
+    <row r="75" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A75" s="79"/>
       <c r="B75" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-    </row>
-    <row r="76" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="80"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+    </row>
+    <row r="76" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A76" s="79"/>
       <c r="B76" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-    </row>
-    <row r="77" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="80"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+    </row>
+    <row r="77" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A77" s="79"/>
       <c r="B77" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-    </row>
-    <row r="78" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="80"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+    </row>
+    <row r="78" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A78" s="79"/>
       <c r="B78" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-    </row>
-    <row r="79" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="80"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A79" s="79"/>
       <c r="B79" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-    </row>
-    <row r="80" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="80"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A80" s="79"/>
       <c r="B80" s="19" t="s">
         <v>87</v>
       </c>
@@ -8406,24 +7171,9 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-    </row>
-    <row r="81" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="80"/>
+    </row>
+    <row r="81" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A81" s="79"/>
       <c r="B81" s="19" t="s">
         <v>88</v>
       </c>
@@ -8440,24 +7190,9 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-    </row>
-    <row r="82" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="80"/>
+    </row>
+    <row r="82" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A82" s="79"/>
       <c r="B82" s="19" t="s">
         <v>89</v>
       </c>
@@ -8474,24 +7209,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="80"/>
+    </row>
+    <row r="83" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A83" s="79"/>
       <c r="B83" s="19" t="s">
         <v>90</v>
       </c>
@@ -8508,24 +7228,9 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-    </row>
-    <row r="84" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="80"/>
+    </row>
+    <row r="84" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A84" s="79"/>
       <c r="B84" s="19" t="s">
         <v>91</v>
       </c>
@@ -8542,24 +7247,9 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-    </row>
-    <row r="85" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="80"/>
+    </row>
+    <row r="85" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A85" s="79"/>
       <c r="B85" s="19" t="s">
         <v>92</v>
       </c>
@@ -8576,58 +7266,28 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-      <c r="AA85" s="3"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
-    </row>
-    <row r="86" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="80"/>
+    </row>
+    <row r="86" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A86" s="79"/>
       <c r="B86" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
-      <c r="W86" s="3"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-    </row>
-    <row r="87" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="80"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+    </row>
+    <row r="87" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A87" s="79"/>
       <c r="B87" s="19" t="s">
         <v>94</v>
       </c>
@@ -8644,24 +7304,9 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-    </row>
-    <row r="88" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="80"/>
+    </row>
+    <row r="88" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A88" s="79"/>
       <c r="B88" s="19" t="s">
         <v>95</v>
       </c>
@@ -8678,24 +7323,9 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-    </row>
-    <row r="89" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="80"/>
+    </row>
+    <row r="89" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A89" s="79"/>
       <c r="B89" s="19" t="s">
         <v>96</v>
       </c>
@@ -8712,58 +7342,28 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="3"/>
-      <c r="AD89" s="3"/>
-    </row>
-    <row r="90" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="80"/>
+    </row>
+    <row r="90" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A90" s="79"/>
       <c r="B90" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
-      <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="80"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+    </row>
+    <row r="91" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A91" s="79"/>
       <c r="B91" s="19" t="s">
         <v>98</v>
       </c>
@@ -8780,24 +7380,9 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
-    </row>
-    <row r="92" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="80"/>
+    </row>
+    <row r="92" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A92" s="79"/>
       <c r="B92" s="19" t="s">
         <v>99</v>
       </c>
@@ -8814,24 +7399,9 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
-    </row>
-    <row r="93" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="80"/>
+    </row>
+    <row r="93" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A93" s="79"/>
       <c r="B93" s="19" t="s">
         <v>100</v>
       </c>
@@ -8848,24 +7418,9 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="3"/>
-      <c r="AD93" s="3"/>
-    </row>
-    <row r="94" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="80"/>
+    </row>
+    <row r="94" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A94" s="79"/>
       <c r="B94" s="19" t="s">
         <v>101</v>
       </c>
@@ -8882,24 +7437,9 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="3"/>
-      <c r="AD94" s="3"/>
-    </row>
-    <row r="95" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="80"/>
+    </row>
+    <row r="95" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A95" s="79"/>
       <c r="B95" s="19" t="s">
         <v>102</v>
       </c>
@@ -8916,24 +7456,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="80"/>
+    </row>
+    <row r="96" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A96" s="79"/>
       <c r="B96" s="19" t="s">
         <v>103</v>
       </c>
@@ -8950,24 +7475,9 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-    </row>
-    <row r="97" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="80"/>
+    </row>
+    <row r="97" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A97" s="79"/>
       <c r="B97" s="19" t="s">
         <v>104</v>
       </c>
@@ -8984,24 +7494,9 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-    </row>
-    <row r="98" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="80"/>
+    </row>
+    <row r="98" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A98" s="79"/>
       <c r="B98" s="19" t="s">
         <v>105</v>
       </c>
@@ -9018,24 +7513,9 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-    </row>
-    <row r="99" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="80"/>
+    </row>
+    <row r="99" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A99" s="79"/>
       <c r="B99" s="19" t="s">
         <v>106</v>
       </c>
@@ -9052,24 +7532,9 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-    </row>
-    <row r="100" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="80"/>
+    </row>
+    <row r="100" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A100" s="79"/>
       <c r="B100" s="19" t="s">
         <v>107</v>
       </c>
@@ -9086,24 +7551,9 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-    </row>
-    <row r="101" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="80"/>
+    </row>
+    <row r="101" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A101" s="79"/>
       <c r="B101" s="19" t="s">
         <v>108</v>
       </c>
@@ -9120,24 +7570,9 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-    </row>
-    <row r="102" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="80"/>
+    </row>
+    <row r="102" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A102" s="79"/>
       <c r="B102" s="19" t="s">
         <v>109</v>
       </c>
@@ -9154,24 +7589,9 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-    </row>
-    <row r="103" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="80"/>
+    </row>
+    <row r="103" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A103" s="79"/>
       <c r="B103" s="19" t="s">
         <v>110</v>
       </c>
@@ -9188,24 +7608,9 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
-      <c r="W103" s="3"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-    </row>
-    <row r="104" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="80"/>
+    </row>
+    <row r="104" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A104" s="79"/>
       <c r="B104" s="19" t="s">
         <v>111</v>
       </c>
@@ -9222,24 +7627,9 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
-      <c r="U104" s="3"/>
-      <c r="V104" s="3"/>
-      <c r="W104" s="3"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-      <c r="AA104" s="3"/>
-      <c r="AB104" s="3"/>
-      <c r="AC104" s="3"/>
-      <c r="AD104" s="3"/>
-    </row>
-    <row r="105" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="80"/>
+    </row>
+    <row r="105" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A105" s="79"/>
       <c r="B105" s="19" t="s">
         <v>112</v>
       </c>
@@ -9256,24 +7646,9 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
-      <c r="U105" s="3"/>
-      <c r="V105" s="3"/>
-      <c r="W105" s="3"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-      <c r="AA105" s="3"/>
-      <c r="AB105" s="3"/>
-      <c r="AC105" s="3"/>
-      <c r="AD105" s="3"/>
-    </row>
-    <row r="106" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="80"/>
+    </row>
+    <row r="106" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A106" s="79"/>
       <c r="B106" s="19" t="s">
         <v>113</v>
       </c>
@@ -9290,24 +7665,9 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
-      <c r="U106" s="3"/>
-      <c r="V106" s="3"/>
-      <c r="W106" s="3"/>
-      <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-      <c r="AA106" s="3"/>
-      <c r="AB106" s="3"/>
-      <c r="AC106" s="3"/>
-      <c r="AD106" s="3"/>
-    </row>
-    <row r="107" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="80"/>
+    </row>
+    <row r="107" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A107" s="79"/>
       <c r="B107" s="19" t="s">
         <v>114</v>
       </c>
@@ -9324,24 +7684,9 @@
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
       <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
-      <c r="R107" s="14"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="14"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="14"/>
-      <c r="W107" s="14"/>
-      <c r="X107" s="14"/>
-      <c r="Y107" s="14"/>
-      <c r="Z107" s="14"/>
-      <c r="AA107" s="14"/>
-      <c r="AB107" s="14"/>
-      <c r="AC107" s="14"/>
-      <c r="AD107" s="14"/>
-    </row>
-    <row r="108" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="80"/>
+    </row>
+    <row r="108" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A108" s="79"/>
       <c r="B108" s="19" t="s">
         <v>115</v>
       </c>
@@ -9358,24 +7703,9 @@
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
       <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="14"/>
-      <c r="U108" s="14"/>
-      <c r="V108" s="14"/>
-      <c r="W108" s="14"/>
-      <c r="X108" s="14"/>
-      <c r="Y108" s="14"/>
-      <c r="Z108" s="14"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="14"/>
-      <c r="AC108" s="14"/>
-      <c r="AD108" s="14"/>
-    </row>
-    <row r="109" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="80"/>
+    </row>
+    <row r="109" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A109" s="79"/>
       <c r="B109" s="19" t="s">
         <v>116</v>
       </c>
@@ -9392,24 +7722,9 @@
       <c r="M109" s="14"/>
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="14"/>
-      <c r="U109" s="14"/>
-      <c r="V109" s="14"/>
-      <c r="W109" s="14"/>
-      <c r="X109" s="14"/>
-      <c r="Y109" s="14"/>
-      <c r="Z109" s="14"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="14"/>
-      <c r="AC109" s="14"/>
-      <c r="AD109" s="14"/>
-    </row>
-    <row r="110" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="80"/>
+    </row>
+    <row r="110" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A110" s="79"/>
       <c r="B110" s="19" t="s">
         <v>117</v>
       </c>
@@ -9426,24 +7741,9 @@
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
-      <c r="R110" s="14"/>
-      <c r="S110" s="14"/>
-      <c r="T110" s="14"/>
-      <c r="U110" s="14"/>
-      <c r="V110" s="14"/>
-      <c r="W110" s="14"/>
-      <c r="X110" s="14"/>
-      <c r="Y110" s="14"/>
-      <c r="Z110" s="14"/>
-      <c r="AA110" s="14"/>
-      <c r="AB110" s="14"/>
-      <c r="AC110" s="14"/>
-      <c r="AD110" s="14"/>
-    </row>
-    <row r="111" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="80"/>
+    </row>
+    <row r="111" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A111" s="79"/>
       <c r="B111" s="19" t="s">
         <v>118</v>
       </c>
@@ -9460,24 +7760,9 @@
       <c r="M111" s="14"/>
       <c r="N111" s="14"/>
       <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14"/>
-      <c r="T111" s="14"/>
-      <c r="U111" s="14"/>
-      <c r="V111" s="14"/>
-      <c r="W111" s="14"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="14"/>
-      <c r="Z111" s="14"/>
-      <c r="AA111" s="14"/>
-      <c r="AB111" s="14"/>
-      <c r="AC111" s="14"/>
-      <c r="AD111" s="14"/>
-    </row>
-    <row r="112" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="80"/>
+    </row>
+    <row r="112" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A112" s="79"/>
       <c r="B112" s="19" t="s">
         <v>119</v>
       </c>
@@ -9494,24 +7779,9 @@
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
       <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
-      <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
-      <c r="T112" s="14"/>
-      <c r="U112" s="14"/>
-      <c r="V112" s="14"/>
-      <c r="W112" s="14"/>
-      <c r="X112" s="14"/>
-      <c r="Y112" s="14"/>
-      <c r="Z112" s="14"/>
-      <c r="AA112" s="14"/>
-      <c r="AB112" s="14"/>
-      <c r="AC112" s="14"/>
-      <c r="AD112" s="14"/>
-    </row>
-    <row r="113" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="80"/>
+    </row>
+    <row r="113" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A113" s="79"/>
       <c r="B113" s="19" t="s">
         <v>120</v>
       </c>
@@ -9528,24 +7798,9 @@
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
-      <c r="R113" s="14"/>
-      <c r="S113" s="14"/>
-      <c r="T113" s="14"/>
-      <c r="U113" s="14"/>
-      <c r="V113" s="14"/>
-      <c r="W113" s="14"/>
-      <c r="X113" s="14"/>
-      <c r="Y113" s="14"/>
-      <c r="Z113" s="14"/>
-      <c r="AA113" s="14"/>
-      <c r="AB113" s="14"/>
-      <c r="AC113" s="14"/>
-      <c r="AD113" s="14"/>
-    </row>
-    <row r="114" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="80"/>
+    </row>
+    <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A114" s="79"/>
       <c r="B114" s="19" t="s">
         <v>121</v>
       </c>
@@ -9562,24 +7817,9 @@
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
       <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
-      <c r="R114" s="14"/>
-      <c r="S114" s="14"/>
-      <c r="T114" s="14"/>
-      <c r="U114" s="14"/>
-      <c r="V114" s="14"/>
-      <c r="W114" s="14"/>
-      <c r="X114" s="14"/>
-      <c r="Y114" s="14"/>
-      <c r="Z114" s="14"/>
-      <c r="AA114" s="14"/>
-      <c r="AB114" s="14"/>
-      <c r="AC114" s="14"/>
-      <c r="AD114" s="14"/>
-    </row>
-    <row r="115" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="80"/>
+    </row>
+    <row r="115" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A115" s="79"/>
       <c r="B115" s="19" t="s">
         <v>122</v>
       </c>
@@ -9596,24 +7836,9 @@
       <c r="M115" s="14"/>
       <c r="N115" s="14"/>
       <c r="O115" s="14"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14"/>
-      <c r="R115" s="14"/>
-      <c r="S115" s="14"/>
-      <c r="T115" s="14"/>
-      <c r="U115" s="14"/>
-      <c r="V115" s="14"/>
-      <c r="W115" s="14"/>
-      <c r="X115" s="14"/>
-      <c r="Y115" s="14"/>
-      <c r="Z115" s="14"/>
-      <c r="AA115" s="14"/>
-      <c r="AB115" s="14"/>
-      <c r="AC115" s="14"/>
-      <c r="AD115" s="14"/>
-    </row>
-    <row r="116" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="80"/>
+    </row>
+    <row r="116" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A116" s="79"/>
       <c r="B116" s="19" t="s">
         <v>123</v>
       </c>
@@ -9630,24 +7855,9 @@
       <c r="M116" s="14"/>
       <c r="N116" s="14"/>
       <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
-      <c r="R116" s="14"/>
-      <c r="S116" s="14"/>
-      <c r="T116" s="14"/>
-      <c r="U116" s="14"/>
-      <c r="V116" s="14"/>
-      <c r="W116" s="14"/>
-      <c r="X116" s="14"/>
-      <c r="Y116" s="14"/>
-      <c r="Z116" s="14"/>
-      <c r="AA116" s="14"/>
-      <c r="AB116" s="14"/>
-      <c r="AC116" s="14"/>
-      <c r="AD116" s="14"/>
-    </row>
-    <row r="117" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="80"/>
+    </row>
+    <row r="117" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A117" s="79"/>
       <c r="B117" s="19" t="s">
         <v>124</v>
       </c>
@@ -9664,24 +7874,9 @@
       <c r="M117" s="14"/>
       <c r="N117" s="14"/>
       <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
-      <c r="R117" s="14"/>
-      <c r="S117" s="14"/>
-      <c r="T117" s="14"/>
-      <c r="U117" s="14"/>
-      <c r="V117" s="14"/>
-      <c r="W117" s="14"/>
-      <c r="X117" s="14"/>
-      <c r="Y117" s="14"/>
-      <c r="Z117" s="14"/>
-      <c r="AA117" s="14"/>
-      <c r="AB117" s="14"/>
-      <c r="AC117" s="14"/>
-      <c r="AD117" s="14"/>
-    </row>
-    <row r="118" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="80"/>
+    </row>
+    <row r="118" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A118" s="79"/>
       <c r="B118" s="19" t="s">
         <v>125</v>
       </c>
@@ -9698,24 +7893,9 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
-      <c r="U118" s="3"/>
-      <c r="V118" s="3"/>
-      <c r="W118" s="3"/>
-      <c r="X118" s="3"/>
-      <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-      <c r="AA118" s="3"/>
-      <c r="AB118" s="3"/>
-      <c r="AC118" s="3"/>
-      <c r="AD118" s="3"/>
-    </row>
-    <row r="119" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="80"/>
+    </row>
+    <row r="119" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A119" s="79"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
@@ -9732,24 +7912,9 @@
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
       <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="14"/>
-      <c r="T119" s="14"/>
-      <c r="U119" s="14"/>
-      <c r="V119" s="14"/>
-      <c r="W119" s="14"/>
-      <c r="X119" s="14"/>
-      <c r="Y119" s="14"/>
-      <c r="Z119" s="14"/>
-      <c r="AA119" s="14"/>
-      <c r="AB119" s="14"/>
-      <c r="AC119" s="14"/>
-      <c r="AD119" s="14"/>
-    </row>
-    <row r="120" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="80"/>
+    </row>
+    <row r="120" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A120" s="79"/>
       <c r="B120" s="19" t="s">
         <v>127</v>
       </c>
@@ -9766,24 +7931,9 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-    </row>
-    <row r="121" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="80"/>
+    </row>
+    <row r="121" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A121" s="79"/>
       <c r="B121" s="19" t="s">
         <v>128</v>
       </c>
@@ -9800,24 +7950,9 @@
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>
       <c r="O121" s="14"/>
-      <c r="P121" s="14"/>
-      <c r="Q121" s="14"/>
-      <c r="R121" s="14"/>
-      <c r="S121" s="14"/>
-      <c r="T121" s="14"/>
-      <c r="U121" s="14"/>
-      <c r="V121" s="14"/>
-      <c r="W121" s="14"/>
-      <c r="X121" s="14"/>
-      <c r="Y121" s="14"/>
-      <c r="Z121" s="14"/>
-      <c r="AA121" s="14"/>
-      <c r="AB121" s="14"/>
-      <c r="AC121" s="14"/>
-      <c r="AD121" s="14"/>
-    </row>
-    <row r="122" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="80"/>
+    </row>
+    <row r="122" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A122" s="79"/>
       <c r="B122" s="19" t="s">
         <v>129</v>
       </c>
@@ -9834,24 +7969,9 @@
       <c r="M122" s="14"/>
       <c r="N122" s="14"/>
       <c r="O122" s="14"/>
-      <c r="P122" s="14"/>
-      <c r="Q122" s="14"/>
-      <c r="R122" s="14"/>
-      <c r="S122" s="14"/>
-      <c r="T122" s="14"/>
-      <c r="U122" s="14"/>
-      <c r="V122" s="14"/>
-      <c r="W122" s="14"/>
-      <c r="X122" s="14"/>
-      <c r="Y122" s="14"/>
-      <c r="Z122" s="14"/>
-      <c r="AA122" s="14"/>
-      <c r="AB122" s="14"/>
-      <c r="AC122" s="14"/>
-      <c r="AD122" s="14"/>
-    </row>
-    <row r="123" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="80"/>
+    </row>
+    <row r="123" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A123" s="79"/>
       <c r="B123" s="21" t="s">
         <v>130</v>
       </c>
@@ -9868,24 +7988,9 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
-      <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
-      <c r="U123" s="3"/>
-      <c r="V123" s="3"/>
-      <c r="W123" s="3"/>
-      <c r="X123" s="3"/>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-      <c r="AA123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-    </row>
-    <row r="124" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="81"/>
+    </row>
+    <row r="124" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A124" s="80"/>
       <c r="B124" s="19" t="s">
         <v>131</v>
       </c>
@@ -9902,34 +8007,18 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
-      <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-      <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
-      <c r="U124" s="3"/>
-      <c r="V124" s="3"/>
-      <c r="W124" s="3"/>
-      <c r="X124" s="3"/>
-      <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
-      <c r="AC124" s="3"/>
-      <c r="AD124" s="3"/>
-    </row>
-    <row r="125" spans="1:30" ht="19.5" thickTop="1">
+    </row>
+    <row r="125" spans="1:15" ht="19.5" thickTop="1">
       <c r="A125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A4:A124"/>
-    <mergeCell ref="C1:AD1"/>
+    <mergeCell ref="C1:O1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9939,516 +8028,516 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DR142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="4.7109375" style="43"/>
+    <col min="3" max="4" width="4.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:122" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="101" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="104" t="s">
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="53"/>
-      <c r="BJ1" s="53"/>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="53"/>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="53"/>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="53"/>
-      <c r="BW1" s="53"/>
-      <c r="BX1" s="53"/>
-      <c r="BY1" s="53"/>
-      <c r="BZ1" s="53"/>
-      <c r="CA1" s="53"/>
-      <c r="CB1" s="53"/>
-      <c r="CC1" s="53"/>
-      <c r="CD1" s="53"/>
-      <c r="CE1" s="53"/>
-      <c r="CF1" s="53"/>
-      <c r="CG1" s="53"/>
-      <c r="CH1" s="53"/>
-      <c r="CI1" s="53"/>
-      <c r="CJ1" s="53"/>
-      <c r="CK1" s="53"/>
-      <c r="CL1" s="53"/>
-      <c r="CM1" s="53"/>
-      <c r="CN1" s="53"/>
-      <c r="CO1" s="53"/>
-      <c r="CP1" s="53"/>
-      <c r="CQ1" s="53"/>
-      <c r="CR1" s="53"/>
-      <c r="CS1" s="53"/>
-      <c r="CT1" s="53"/>
-      <c r="CU1" s="53"/>
-      <c r="CV1" s="53"/>
-      <c r="CW1" s="53"/>
-      <c r="CX1" s="53"/>
-      <c r="CY1" s="53"/>
-      <c r="CZ1" s="53"/>
-      <c r="DA1" s="53"/>
-      <c r="DB1" s="53"/>
-      <c r="DC1" s="53"/>
-      <c r="DD1" s="53"/>
-      <c r="DE1" s="53"/>
-      <c r="DF1" s="53"/>
-      <c r="DG1" s="53"/>
-      <c r="DH1" s="53"/>
-      <c r="DI1" s="53"/>
-      <c r="DJ1" s="53"/>
-      <c r="DK1" s="53"/>
-      <c r="DL1" s="53"/>
-      <c r="DM1" s="53"/>
-      <c r="DN1" s="53"/>
-      <c r="DO1" s="53"/>
-      <c r="DP1" s="53"/>
-      <c r="DQ1" s="53"/>
-      <c r="DR1" s="54"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="52"/>
+      <c r="BS1" s="52"/>
+      <c r="BT1" s="52"/>
+      <c r="BU1" s="52"/>
+      <c r="BV1" s="52"/>
+      <c r="BW1" s="52"/>
+      <c r="BX1" s="52"/>
+      <c r="BY1" s="52"/>
+      <c r="BZ1" s="52"/>
+      <c r="CA1" s="52"/>
+      <c r="CB1" s="52"/>
+      <c r="CC1" s="52"/>
+      <c r="CD1" s="52"/>
+      <c r="CE1" s="52"/>
+      <c r="CF1" s="52"/>
+      <c r="CG1" s="52"/>
+      <c r="CH1" s="52"/>
+      <c r="CI1" s="52"/>
+      <c r="CJ1" s="52"/>
+      <c r="CK1" s="52"/>
+      <c r="CL1" s="52"/>
+      <c r="CM1" s="52"/>
+      <c r="CN1" s="52"/>
+      <c r="CO1" s="52"/>
+      <c r="CP1" s="52"/>
+      <c r="CQ1" s="52"/>
+      <c r="CR1" s="52"/>
+      <c r="CS1" s="52"/>
+      <c r="CT1" s="52"/>
+      <c r="CU1" s="52"/>
+      <c r="CV1" s="52"/>
+      <c r="CW1" s="52"/>
+      <c r="CX1" s="52"/>
+      <c r="CY1" s="52"/>
+      <c r="CZ1" s="52"/>
+      <c r="DA1" s="52"/>
+      <c r="DB1" s="52"/>
+      <c r="DC1" s="52"/>
+      <c r="DD1" s="52"/>
+      <c r="DE1" s="52"/>
+      <c r="DF1" s="52"/>
+      <c r="DG1" s="52"/>
+      <c r="DH1" s="52"/>
+      <c r="DI1" s="52"/>
+      <c r="DJ1" s="52"/>
+      <c r="DK1" s="52"/>
+      <c r="DL1" s="52"/>
+      <c r="DM1" s="52"/>
+      <c r="DN1" s="52"/>
+      <c r="DO1" s="52"/>
+      <c r="DP1" s="52"/>
+      <c r="DQ1" s="52"/>
+      <c r="DR1" s="53"/>
     </row>
     <row r="2" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="49" t="s">
+      <c r="AC2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AD2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="AJ2" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="49" t="s">
+      <c r="AK2" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="49" t="s">
+      <c r="AL2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="49" t="s">
+      <c r="AM2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="49" t="s">
+      <c r="AN2" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="49" t="s">
+      <c r="AO2" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="49" t="s">
+      <c r="AP2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="49" t="s">
+      <c r="AQ2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="49" t="s">
+      <c r="AR2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="49" t="s">
+      <c r="AS2" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="49" t="s">
+      <c r="AT2" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="49" t="s">
+      <c r="AU2" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="49" t="s">
+      <c r="AV2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="49" t="s">
+      <c r="AW2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="49" t="s">
+      <c r="AX2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="AY2" s="49" t="s">
+      <c r="AY2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AZ2" s="49" t="s">
+      <c r="AZ2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="49" t="s">
+      <c r="BA2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="BB2" s="49" t="s">
+      <c r="BB2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BC2" s="49" t="s">
+      <c r="BC2" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="BD2" s="49" t="s">
+      <c r="BD2" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="BE2" s="49" t="s">
+      <c r="BE2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="BF2" s="49" t="s">
+      <c r="BF2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="BG2" s="49" t="s">
+      <c r="BG2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" s="49" t="s">
+      <c r="BH2" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="BI2" s="49" t="s">
+      <c r="BI2" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="BJ2" s="49" t="s">
+      <c r="BJ2" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="BK2" s="49" t="s">
+      <c r="BK2" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="BL2" s="49" t="s">
+      <c r="BL2" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="BM2" s="49" t="s">
+      <c r="BM2" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="BN2" s="49" t="s">
+      <c r="BN2" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="BO2" s="49" t="s">
+      <c r="BO2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="BP2" s="49" t="s">
+      <c r="BP2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="BQ2" s="49" t="s">
+      <c r="BQ2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="BR2" s="49" t="s">
+      <c r="BR2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="BS2" s="49" t="s">
+      <c r="BS2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="BT2" s="49" t="s">
+      <c r="BT2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="BU2" s="49" t="s">
+      <c r="BU2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="BV2" s="49" t="s">
+      <c r="BV2" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="BW2" s="49" t="s">
+      <c r="BW2" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="BX2" s="49" t="s">
+      <c r="BX2" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="BY2" s="49" t="s">
+      <c r="BY2" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="BZ2" s="49" t="s">
+      <c r="BZ2" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="CA2" s="49" t="s">
+      <c r="CA2" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="CB2" s="49" t="s">
+      <c r="CB2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="CC2" s="49" t="s">
+      <c r="CC2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="CD2" s="49" t="s">
+      <c r="CD2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="CE2" s="49" t="s">
+      <c r="CE2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="CF2" s="49" t="s">
+      <c r="CF2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="CG2" s="49" t="s">
+      <c r="CG2" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="CH2" s="49" t="s">
+      <c r="CH2" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="CI2" s="49" t="s">
+      <c r="CI2" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="CJ2" s="49" t="s">
+      <c r="CJ2" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="CK2" s="50" t="s">
+      <c r="CK2" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="CL2" s="49" t="s">
+      <c r="CL2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="CM2" s="49" t="s">
+      <c r="CM2" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="CN2" s="49" t="s">
+      <c r="CN2" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="CO2" s="49" t="s">
+      <c r="CO2" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="CP2" s="49" t="s">
+      <c r="CP2" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="CQ2" s="49" t="s">
+      <c r="CQ2" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="CR2" s="49" t="s">
+      <c r="CR2" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="CS2" s="49" t="s">
+      <c r="CS2" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="CT2" s="49" t="s">
+      <c r="CT2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="CU2" s="49" t="s">
+      <c r="CU2" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="CV2" s="49" t="s">
+      <c r="CV2" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="CW2" s="49" t="s">
+      <c r="CW2" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="CX2" s="49" t="s">
+      <c r="CX2" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="CY2" s="49" t="s">
+      <c r="CY2" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="CZ2" s="49" t="s">
+      <c r="CZ2" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="DA2" s="49" t="s">
+      <c r="DA2" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="DB2" s="49" t="s">
+      <c r="DB2" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="DC2" s="49" t="s">
+      <c r="DC2" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="DD2" s="49" t="s">
+      <c r="DD2" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="DE2" s="49" t="s">
+      <c r="DE2" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="DF2" s="49" t="s">
+      <c r="DF2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="DG2" s="49" t="s">
+      <c r="DG2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="DH2" s="49" t="s">
+      <c r="DH2" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="DI2" s="49" t="s">
+      <c r="DI2" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="DJ2" s="49" t="s">
+      <c r="DJ2" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="DK2" s="49" t="s">
+      <c r="DK2" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="DL2" s="49" t="s">
+      <c r="DL2" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="DM2" s="49" t="s">
+      <c r="DM2" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="DN2" s="49" t="s">
+      <c r="DN2" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="DO2" s="49" t="s">
+      <c r="DO2" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="DP2" s="49" t="s">
+      <c r="DP2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="DQ2" s="49" t="s">
+      <c r="DQ2" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="DR2" s="49" t="s">
+      <c r="DR2" s="48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:122" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="99" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10569,12 +8658,12 @@
       <c r="DR3" s="3"/>
     </row>
     <row r="4" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -10695,12 +8784,12 @@
       <c r="DR4" s="3"/>
     </row>
     <row r="5" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -10821,12 +8910,12 @@
       <c r="DR5" s="3"/>
     </row>
     <row r="6" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="95"/>
+      <c r="B6" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10947,12 +9036,12 @@
       <c r="DR6" s="3"/>
     </row>
     <row r="7" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="95"/>
+      <c r="B7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -11073,12 +9162,12 @@
       <c r="DR7" s="3"/>
     </row>
     <row r="8" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -11199,12 +9288,12 @@
       <c r="DR8" s="3"/>
     </row>
     <row r="9" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="95"/>
+      <c r="B9" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -11325,12 +9414,12 @@
       <c r="DR9" s="3"/>
     </row>
     <row r="10" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="100"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="95"/>
+      <c r="B10" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -11451,12 +9540,12 @@
       <c r="DR10" s="3"/>
     </row>
     <row r="11" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -11577,12 +9666,12 @@
       <c r="DR11" s="3"/>
     </row>
     <row r="12" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="95"/>
+      <c r="B12" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -11703,12 +9792,12 @@
       <c r="DR12" s="3"/>
     </row>
     <row r="13" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="100"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -11829,12 +9918,12 @@
       <c r="DR13" s="3"/>
     </row>
     <row r="14" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="100"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="95"/>
+      <c r="B14" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -11955,12 +10044,12 @@
       <c r="DR14" s="3"/>
     </row>
     <row r="15" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="95"/>
+      <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -12081,12 +10170,12 @@
       <c r="DR15" s="3"/>
     </row>
     <row r="16" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="100"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="95"/>
+      <c r="B16" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -12207,12 +10296,12 @@
       <c r="DR16" s="3"/>
     </row>
     <row r="17" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="95"/>
+      <c r="B17" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -12333,12 +10422,12 @@
       <c r="DR17" s="3"/>
     </row>
     <row r="18" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="100"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="95"/>
+      <c r="B18" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -12459,12 +10548,12 @@
       <c r="DR18" s="3"/>
     </row>
     <row r="19" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="95"/>
+      <c r="B19" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -12585,12 +10674,12 @@
       <c r="DR19" s="3"/>
     </row>
     <row r="20" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="95"/>
+      <c r="B20" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12711,12 +10800,12 @@
       <c r="DR20" s="3"/>
     </row>
     <row r="21" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="95"/>
+      <c r="B21" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -12837,12 +10926,12 @@
       <c r="DR21" s="3"/>
     </row>
     <row r="22" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="100"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="95"/>
+      <c r="B22" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -12963,12 +11052,12 @@
       <c r="DR22" s="3"/>
     </row>
     <row r="23" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="100"/>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="95"/>
+      <c r="B23" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -13089,12 +11178,12 @@
       <c r="DR23" s="3"/>
     </row>
     <row r="24" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="100"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="95"/>
+      <c r="B24" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -13215,12 +11304,12 @@
       <c r="DR24" s="3"/>
     </row>
     <row r="25" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="100"/>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -13341,12 +11430,12 @@
       <c r="DR25" s="3"/>
     </row>
     <row r="26" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="100"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -13467,12 +11556,12 @@
       <c r="DR26" s="3"/>
     </row>
     <row r="27" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="100"/>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="95"/>
+      <c r="B27" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -13593,12 +11682,12 @@
       <c r="DR27" s="3"/>
     </row>
     <row r="28" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="100"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="95"/>
+      <c r="B28" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -13719,12 +11808,12 @@
       <c r="DR28" s="3"/>
     </row>
     <row r="29" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="100"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="95"/>
+      <c r="B29" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -13845,12 +11934,12 @@
       <c r="DR29" s="3"/>
     </row>
     <row r="30" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="100"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="95"/>
+      <c r="B30" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -13971,12 +12060,12 @@
       <c r="DR30" s="3"/>
     </row>
     <row r="31" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="95"/>
+      <c r="B31" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -14097,12 +12186,12 @@
       <c r="DR31" s="3"/>
     </row>
     <row r="32" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="100"/>
-      <c r="B32" s="52" t="s">
+      <c r="A32" s="95"/>
+      <c r="B32" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -14223,12 +12312,12 @@
       <c r="DR32" s="3"/>
     </row>
     <row r="33" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="100"/>
-      <c r="B33" s="52" t="s">
+      <c r="A33" s="95"/>
+      <c r="B33" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -14349,12 +12438,12 @@
       <c r="DR33" s="3"/>
     </row>
     <row r="34" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="100"/>
-      <c r="B34" s="52" t="s">
+      <c r="A34" s="95"/>
+      <c r="B34" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -14475,12 +12564,12 @@
       <c r="DR34" s="3"/>
     </row>
     <row r="35" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="100"/>
-      <c r="B35" s="52" t="s">
+      <c r="A35" s="95"/>
+      <c r="B35" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -14601,325 +12690,325 @@
       <c r="DR35" s="3"/>
     </row>
     <row r="36" spans="1:122" ht="15.75" thickTop="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="46"/>
     </row>
     <row r="37" spans="1:122">
-      <c r="A37" s="47"/>
+      <c r="A37" s="46"/>
     </row>
     <row r="38" spans="1:122">
-      <c r="A38" s="47"/>
+      <c r="A38" s="46"/>
     </row>
     <row r="39" spans="1:122">
-      <c r="A39" s="47"/>
+      <c r="A39" s="46"/>
     </row>
     <row r="40" spans="1:122">
-      <c r="A40" s="47"/>
+      <c r="A40" s="46"/>
     </row>
     <row r="41" spans="1:122">
-      <c r="A41" s="47"/>
+      <c r="A41" s="46"/>
     </row>
     <row r="42" spans="1:122">
-      <c r="A42" s="47"/>
+      <c r="A42" s="46"/>
     </row>
     <row r="43" spans="1:122">
-      <c r="A43" s="47"/>
+      <c r="A43" s="46"/>
     </row>
     <row r="44" spans="1:122">
-      <c r="A44" s="47"/>
+      <c r="A44" s="46"/>
     </row>
     <row r="45" spans="1:122">
-      <c r="A45" s="47"/>
+      <c r="A45" s="46"/>
     </row>
     <row r="46" spans="1:122">
-      <c r="A46" s="47"/>
+      <c r="A46" s="46"/>
     </row>
     <row r="47" spans="1:122">
-      <c r="A47" s="47"/>
+      <c r="A47" s="46"/>
     </row>
     <row r="48" spans="1:122">
-      <c r="A48" s="47"/>
+      <c r="A48" s="46"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="47"/>
+      <c r="A49" s="46"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="47"/>
+      <c r="A50" s="46"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="47"/>
+      <c r="A51" s="46"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="47"/>
+      <c r="A52" s="46"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="47"/>
+      <c r="A53" s="46"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="47"/>
+      <c r="A54" s="46"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="47"/>
+      <c r="A55" s="46"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="47"/>
+      <c r="A56" s="46"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="47"/>
+      <c r="A57" s="46"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="47"/>
+      <c r="A58" s="46"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="47"/>
+      <c r="A59" s="46"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="47"/>
+      <c r="A60" s="46"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="47"/>
+      <c r="A61" s="46"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="47"/>
+      <c r="A62" s="46"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="47"/>
+      <c r="A63" s="46"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="47"/>
+      <c r="A64" s="46"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="47"/>
+      <c r="A65" s="46"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="47"/>
+      <c r="A66" s="46"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="47"/>
+      <c r="A67" s="46"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="47"/>
+      <c r="A68" s="46"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="47"/>
+      <c r="A69" s="46"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="47"/>
+      <c r="A70" s="46"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="47"/>
+      <c r="A71" s="46"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="47"/>
+      <c r="A72" s="46"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="47"/>
+      <c r="A73" s="46"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="47"/>
+      <c r="A74" s="46"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="47"/>
+      <c r="A75" s="46"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="47"/>
+      <c r="A76" s="46"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="47"/>
+      <c r="A77" s="46"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="47"/>
+      <c r="A78" s="46"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="47"/>
+      <c r="A79" s="46"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="47"/>
+      <c r="A80" s="46"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="47"/>
+      <c r="A81" s="46"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="47"/>
+      <c r="A82" s="46"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="47"/>
+      <c r="A83" s="46"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="47"/>
+      <c r="A84" s="46"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="47"/>
+      <c r="A85" s="46"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="47"/>
+      <c r="A86" s="46"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="47"/>
+      <c r="A87" s="46"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="47"/>
+      <c r="A88" s="46"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="47"/>
+      <c r="A89" s="46"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="47"/>
+      <c r="A90" s="46"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="47"/>
+      <c r="A91" s="46"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="47"/>
+      <c r="A92" s="46"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="47"/>
+      <c r="A93" s="46"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="47"/>
+      <c r="A94" s="46"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="47"/>
+      <c r="A95" s="46"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="47"/>
+      <c r="A96" s="46"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="47"/>
+      <c r="A97" s="46"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="47"/>
+      <c r="A98" s="46"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="47"/>
+      <c r="A99" s="46"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="47"/>
+      <c r="A100" s="46"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="47"/>
+      <c r="A101" s="46"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="47"/>
+      <c r="A102" s="46"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="47"/>
+      <c r="A103" s="46"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="47"/>
+      <c r="A104" s="46"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="47"/>
+      <c r="A105" s="46"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="47"/>
+      <c r="A106" s="46"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="47"/>
+      <c r="A107" s="46"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="47"/>
+      <c r="A108" s="46"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="47"/>
+      <c r="A109" s="46"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="47"/>
+      <c r="A110" s="46"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="47"/>
+      <c r="A111" s="46"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="47"/>
+      <c r="A112" s="46"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="47"/>
+      <c r="A113" s="46"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="47"/>
+      <c r="A114" s="46"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="47"/>
+      <c r="A115" s="46"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="47"/>
+      <c r="A116" s="46"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="47"/>
+      <c r="A117" s="46"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="47"/>
+      <c r="A118" s="46"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="47"/>
+      <c r="A119" s="46"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="47"/>
+      <c r="A120" s="46"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="47"/>
+      <c r="A121" s="46"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="47"/>
+      <c r="A122" s="46"/>
     </row>
     <row r="123" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A123" s="48"/>
+      <c r="A123" s="47"/>
     </row>
     <row r="124" spans="1:1" ht="15.75" thickTop="1">
-      <c r="A124" s="43"/>
+      <c r="A124" s="42"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="43"/>
+      <c r="A125" s="42"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="43"/>
+      <c r="A126" s="42"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="43"/>
+      <c r="A127" s="42"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="43"/>
+      <c r="A128" s="42"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="43"/>
+      <c r="A129" s="42"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="43"/>
+      <c r="A130" s="42"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="43"/>
+      <c r="A131" s="42"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="43"/>
+      <c r="A132" s="42"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="43"/>
+      <c r="A133" s="42"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="43"/>
+      <c r="A134" s="42"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="43"/>
+      <c r="A135" s="42"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="43"/>
+      <c r="A136" s="42"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="43"/>
+      <c r="A137" s="42"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="43"/>
+      <c r="A138" s="42"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="43"/>
+      <c r="A139" s="42"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="43"/>
+      <c r="A140" s="42"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="43"/>
+      <c r="A141" s="42"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="43"/>
+      <c r="A142" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14952,75 +13041,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="115"/>
-      <c r="B1" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="114" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>209</v>
+      <c r="A4" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3"/>
@@ -15030,7 +13119,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3"/>
@@ -15040,7 +13129,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3"/>
@@ -15050,7 +13139,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3"/>
@@ -15060,7 +13149,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3"/>
@@ -15070,7 +13159,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3"/>
@@ -15080,7 +13169,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3"/>
@@ -15090,7 +13179,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3"/>
@@ -15100,7 +13189,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3"/>
@@ -15110,7 +13199,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3"/>
@@ -15120,7 +13209,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3"/>
@@ -15130,7 +13219,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3"/>
@@ -15140,7 +13229,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="3"/>
@@ -15150,7 +13239,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3"/>
@@ -15160,7 +13249,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3"/>
@@ -15170,7 +13259,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="3"/>
@@ -15180,7 +13269,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3"/>
@@ -15190,7 +13279,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="3"/>
@@ -15200,7 +13289,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="3"/>
@@ -15210,7 +13299,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="3"/>
@@ -15220,7 +13309,7 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="3"/>
@@ -15230,7 +13319,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3"/>
@@ -15240,7 +13329,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3"/>
@@ -15250,7 +13339,7 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="3"/>
@@ -15260,7 +13349,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3"/>
@@ -15270,7 +13359,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3"/>
@@ -15280,7 +13369,7 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="3"/>
@@ -15290,7 +13379,7 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="3"/>
@@ -15300,7 +13389,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="3"/>
@@ -15310,7 +13399,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="3"/>
@@ -15320,7 +13409,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="3"/>
@@ -15330,7 +13419,7 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="3"/>
@@ -15340,7 +13429,7 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="3"/>
@@ -15350,7 +13439,7 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="3"/>
@@ -15360,7 +13449,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="3"/>
@@ -15370,7 +13459,7 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="3"/>
@@ -15380,7 +13469,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="3"/>
@@ -15390,7 +13479,7 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="3"/>
@@ -15400,7 +13489,7 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="3"/>
@@ -15410,7 +13499,7 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="3"/>
@@ -15420,7 +13509,7 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="3"/>
@@ -15430,7 +13519,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="26" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="3"/>
@@ -15440,7 +13529,7 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="3"/>
@@ -15450,7 +13539,7 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="3"/>
@@ -15460,7 +13549,7 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="3"/>
@@ -15470,7 +13559,7 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="3"/>
@@ -15480,7 +13569,7 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="3"/>
@@ -15490,7 +13579,7 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="3"/>
@@ -15500,7 +13589,7 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="3"/>
@@ -15510,7 +13599,7 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="3"/>
@@ -15520,7 +13609,7 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="3"/>
@@ -15530,7 +13619,7 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="26" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="3"/>
@@ -15540,7 +13629,7 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="3"/>
@@ -15550,7 +13639,7 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="3"/>
@@ -15560,7 +13649,7 @@
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="3"/>
@@ -15570,7 +13659,7 @@
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="3"/>
@@ -15580,7 +13669,7 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="3"/>
@@ -15590,7 +13679,7 @@
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B63" s="3"/>
@@ -15600,7 +13689,7 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="3"/>
@@ -15610,7 +13699,7 @@
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="3"/>
@@ -15620,7 +13709,7 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="3"/>
@@ -15630,7 +13719,7 @@
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="3"/>
@@ -15640,7 +13729,7 @@
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="3"/>
@@ -15650,7 +13739,7 @@
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B69" s="3"/>
@@ -15660,7 +13749,7 @@
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="3"/>
@@ -15670,7 +13759,7 @@
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="3"/>
@@ -15680,7 +13769,7 @@
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="3"/>
@@ -15690,7 +13779,7 @@
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="3"/>
@@ -15700,7 +13789,7 @@
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="3"/>
@@ -15710,7 +13799,7 @@
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="3"/>
@@ -15720,7 +13809,7 @@
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="3"/>
@@ -15730,7 +13819,7 @@
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="3"/>
@@ -15740,7 +13829,7 @@
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="3"/>
@@ -15750,7 +13839,7 @@
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="3"/>
@@ -15760,7 +13849,7 @@
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="3"/>
@@ -15770,7 +13859,7 @@
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="3"/>
@@ -15780,7 +13869,7 @@
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="3"/>
@@ -15790,7 +13879,7 @@
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="3"/>
@@ -15800,7 +13889,7 @@
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="3"/>
@@ -15810,7 +13899,7 @@
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B85" s="3"/>
@@ -15820,7 +13909,7 @@
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B86" s="3"/>
@@ -15830,7 +13919,7 @@
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="3"/>
@@ -15840,7 +13929,7 @@
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="27" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="3"/>
@@ -15850,7 +13939,7 @@
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B89" s="3"/>
@@ -15860,7 +13949,7 @@
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="3"/>
@@ -15870,7 +13959,7 @@
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="27" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="3"/>
@@ -15880,7 +13969,7 @@
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="27" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="3"/>
@@ -15890,7 +13979,7 @@
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="3"/>
@@ -15900,7 +13989,7 @@
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B94" s="3"/>
@@ -15910,7 +13999,7 @@
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B95" s="3"/>
@@ -15920,7 +14009,7 @@
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="3"/>
@@ -15930,7 +14019,7 @@
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="27" t="s">
         <v>103</v>
       </c>
       <c r="B97" s="3"/>
@@ -15940,7 +14029,7 @@
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B98" s="3"/>
@@ -15950,7 +14039,7 @@
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B99" s="3"/>
@@ -15960,7 +14049,7 @@
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="27" t="s">
         <v>106</v>
       </c>
       <c r="B100" s="3"/>
@@ -15970,7 +14059,7 @@
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B101" s="3"/>
@@ -15980,7 +14069,7 @@
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B102" s="3"/>
@@ -15990,7 +14079,7 @@
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="27" t="s">
         <v>109</v>
       </c>
       <c r="B103" s="3"/>
@@ -16000,7 +14089,7 @@
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="3"/>
@@ -16010,7 +14099,7 @@
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="27" t="s">
         <v>111</v>
       </c>
       <c r="B105" s="3"/>
@@ -16020,7 +14109,7 @@
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B106" s="3"/>
@@ -16030,7 +14119,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="3"/>
@@ -16040,7 +14129,7 @@
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="27" t="s">
         <v>114</v>
       </c>
       <c r="B108" s="14"/>
@@ -16050,7 +14139,7 @@
       <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B109" s="14"/>
@@ -16060,7 +14149,7 @@
       <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="14"/>
@@ -16070,7 +14159,7 @@
       <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="28" t="s">
+      <c r="A111" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B111" s="14"/>
@@ -16080,7 +14169,7 @@
       <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="14"/>
@@ -16090,7 +14179,7 @@
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="14"/>
@@ -16100,7 +14189,7 @@
       <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="27" t="s">
         <v>120</v>
       </c>
       <c r="B114" s="14"/>
@@ -16110,7 +14199,7 @@
       <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="27" t="s">
         <v>121</v>
       </c>
       <c r="B115" s="14"/>
@@ -16120,7 +14209,7 @@
       <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B116" s="14"/>
@@ -16130,7 +14219,7 @@
       <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="27" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="14"/>
@@ -16140,7 +14229,7 @@
       <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="27" t="s">
         <v>124</v>
       </c>
       <c r="B118" s="14"/>
@@ -16150,7 +14239,7 @@
       <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B119" s="3"/>
@@ -16160,7 +14249,7 @@
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B120" s="14"/>
@@ -16170,7 +14259,7 @@
       <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="3"/>
@@ -16180,7 +14269,7 @@
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B122" s="14"/>
@@ -16190,7 +14279,7 @@
       <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B123" s="14"/>
@@ -16200,7 +14289,7 @@
       <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="29" t="s">
         <v>130</v>
       </c>
       <c r="B124" s="3"/>
@@ -16210,7 +14299,7 @@
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B125" s="3"/>
@@ -16220,37 +14309,37 @@
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A126" s="33"/>
-      <c r="B126" s="109" t="s">
+      <c r="A126" s="32"/>
+      <c r="B126" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="110"/>
-      <c r="D126" s="110"/>
-      <c r="E126" s="110"/>
-      <c r="F126" s="111"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="105"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="106"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C127" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E127" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F127" s="31" t="s">
-        <v>209</v>
+      <c r="A127" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F127" s="30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B128" s="3"/>
@@ -16260,7 +14349,7 @@
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="33" t="s">
         <v>140</v>
       </c>
       <c r="B129" s="3"/>
@@ -16270,7 +14359,7 @@
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="34" t="s">
+      <c r="A130" s="33" t="s">
         <v>141</v>
       </c>
       <c r="B130" s="3"/>
@@ -16280,7 +14369,7 @@
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="34" t="s">
+      <c r="A131" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B131" s="3"/>
@@ -16290,7 +14379,7 @@
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B132" s="3"/>
@@ -16300,7 +14389,7 @@
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B133" s="3"/>
@@ -16310,7 +14399,7 @@
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B134" s="3"/>
@@ -16320,7 +14409,7 @@
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B135" s="3"/>
@@ -16330,7 +14419,7 @@
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B136" s="3"/>
@@ -16340,7 +14429,7 @@
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="34" t="s">
+      <c r="A137" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B137" s="3"/>
@@ -16350,7 +14439,7 @@
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B138" s="3"/>
@@ -16360,7 +14449,7 @@
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="34" t="s">
+      <c r="A139" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B139" s="3"/>
@@ -16370,7 +14459,7 @@
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="34" t="s">
+      <c r="A140" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B140" s="3"/>
@@ -16380,7 +14469,7 @@
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="34" t="s">
+      <c r="A141" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B141" s="3"/>
@@ -16390,7 +14479,7 @@
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B142" s="3"/>
@@ -16400,7 +14489,7 @@
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="33" t="s">
         <v>154</v>
       </c>
       <c r="B143" s="3"/>
@@ -16410,7 +14499,7 @@
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B144" s="3"/>
@@ -16420,7 +14509,7 @@
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B145" s="3"/>
@@ -16430,7 +14519,7 @@
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="34" t="s">
+      <c r="A146" s="33" t="s">
         <v>157</v>
       </c>
       <c r="B146" s="3"/>
@@ -16440,7 +14529,7 @@
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="33" t="s">
         <v>158</v>
       </c>
       <c r="B147" s="3"/>
@@ -16450,7 +14539,7 @@
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="33" t="s">
         <v>159</v>
       </c>
       <c r="B148" s="3"/>
@@ -16460,7 +14549,7 @@
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B149" s="3"/>
@@ -16470,7 +14559,7 @@
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B150" s="3"/>
@@ -16480,7 +14569,7 @@
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="34" t="s">
+      <c r="A151" s="33" t="s">
         <v>162</v>
       </c>
       <c r="B151" s="3"/>
@@ -16490,7 +14579,7 @@
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="34" t="s">
+      <c r="A152" s="33" t="s">
         <v>163</v>
       </c>
       <c r="B152" s="3"/>
@@ -16500,7 +14589,7 @@
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="33" t="s">
         <v>164</v>
       </c>
       <c r="B153" s="3"/>
@@ -16510,7 +14599,7 @@
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="33" t="s">
         <v>165</v>
       </c>
       <c r="B154" s="3"/>
@@ -16520,7 +14609,7 @@
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B155" s="3"/>
@@ -16530,7 +14619,7 @@
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="34" t="s">
+      <c r="A156" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B156" s="3"/>
@@ -16540,7 +14629,7 @@
       <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="35" t="s">
+      <c r="A157" s="34" t="s">
         <v>168</v>
       </c>
       <c r="B157" s="3"/>
@@ -16550,7 +14639,7 @@
       <c r="F157" s="3"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="35" t="s">
+      <c r="A158" s="34" t="s">
         <v>169</v>
       </c>
       <c r="B158" s="3"/>
@@ -16560,7 +14649,7 @@
       <c r="F158" s="3"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="35" t="s">
+      <c r="A159" s="34" t="s">
         <v>170</v>
       </c>
       <c r="B159" s="3"/>
@@ -16570,7 +14659,7 @@
       <c r="F159" s="3"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A160" s="35" t="s">
+      <c r="A160" s="34" t="s">
         <v>171</v>
       </c>
       <c r="B160" s="3"/>

--- a/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
+++ b/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="ORIGEN NO FUNCIONALES" sheetId="3" r:id="rId3"/>
     <sheet name="CICLO DE VIDA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>0 NO</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1332,6 +1335,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,10 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1819,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1835,83 +1838,83 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71" t="s">
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="54" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2886,7 +2889,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="12"/>
-      <c r="C49" s="113">
+      <c r="C49" s="55">
         <v>40258</v>
       </c>
       <c r="D49" s="12"/>
@@ -3875,7 +3878,9 @@
         <v>98</v>
       </c>
       <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
+      <c r="C92" s="11">
+        <v>40257</v>
+      </c>
       <c r="D92" s="14"/>
       <c r="E92" s="3"/>
       <c r="F92" s="14"/>
@@ -3896,7 +3901,9 @@
         <v>99</v>
       </c>
       <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
+      <c r="C93" s="11">
+        <v>40257</v>
+      </c>
       <c r="D93" s="14"/>
       <c r="E93" s="3"/>
       <c r="F93" s="14"/>
@@ -3917,7 +3924,9 @@
         <v>100</v>
       </c>
       <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
+      <c r="C94" s="11">
+        <v>40257</v>
+      </c>
       <c r="D94" s="14"/>
       <c r="E94" s="3"/>
       <c r="F94" s="14"/>
@@ -3938,7 +3947,9 @@
         <v>101</v>
       </c>
       <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
+      <c r="C95" s="11">
+        <v>40257</v>
+      </c>
       <c r="D95" s="14"/>
       <c r="E95" s="3"/>
       <c r="F95" s="14"/>
@@ -3959,7 +3970,9 @@
         <v>102</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
+      <c r="C96" s="11">
+        <v>40257</v>
+      </c>
       <c r="D96" s="14"/>
       <c r="E96" s="3"/>
       <c r="F96" s="14"/>
@@ -3980,7 +3993,9 @@
         <v>103</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
+      <c r="C97" s="11">
+        <v>40257</v>
+      </c>
       <c r="D97" s="14"/>
       <c r="E97" s="3"/>
       <c r="F97" s="14"/>
@@ -4001,7 +4016,9 @@
         <v>104</v>
       </c>
       <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
+      <c r="C98" s="11">
+        <v>40257</v>
+      </c>
       <c r="D98" s="14"/>
       <c r="E98" s="3"/>
       <c r="F98" s="14"/>
@@ -4022,7 +4039,9 @@
         <v>105</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
+      <c r="C99" s="11">
+        <v>40257</v>
+      </c>
       <c r="D99" s="14"/>
       <c r="E99" s="3"/>
       <c r="F99" s="14"/>
@@ -4043,7 +4062,9 @@
         <v>106</v>
       </c>
       <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
+      <c r="C100" s="11">
+        <v>40258</v>
+      </c>
       <c r="D100" s="14"/>
       <c r="E100" s="3"/>
       <c r="F100" s="14"/>
@@ -4064,7 +4085,9 @@
         <v>107</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
+      <c r="C101" s="11">
+        <v>40258</v>
+      </c>
       <c r="D101" s="14"/>
       <c r="E101" s="3"/>
       <c r="F101" s="14"/>
@@ -4085,7 +4108,9 @@
         <v>108</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
+      <c r="C102" s="11">
+        <v>40258</v>
+      </c>
       <c r="D102" s="14"/>
       <c r="E102" s="3"/>
       <c r="F102" s="14"/>
@@ -4106,7 +4131,9 @@
         <v>109</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="11"/>
+      <c r="C103" s="11">
+        <v>40258</v>
+      </c>
       <c r="D103" s="14"/>
       <c r="E103" s="3"/>
       <c r="F103" s="14"/>
@@ -4127,7 +4154,9 @@
         <v>110</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
+      <c r="C104" s="11">
+        <v>40259</v>
+      </c>
       <c r="D104" s="14"/>
       <c r="E104" s="3"/>
       <c r="F104" s="14"/>
@@ -4148,7 +4177,9 @@
         <v>111</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="11"/>
+      <c r="C105" s="11">
+        <v>40259</v>
+      </c>
       <c r="D105" s="14"/>
       <c r="E105" s="3"/>
       <c r="F105" s="14"/>
@@ -4169,7 +4200,9 @@
         <v>112</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
+      <c r="C106" s="11">
+        <v>40259</v>
+      </c>
       <c r="D106" s="14"/>
       <c r="E106" s="3"/>
       <c r="F106" s="14"/>
@@ -4190,7 +4223,9 @@
         <v>113</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="C107" s="11"/>
+      <c r="C107" s="11">
+        <v>40259</v>
+      </c>
       <c r="D107" s="14"/>
       <c r="E107" s="3"/>
       <c r="F107" s="14"/>
@@ -4621,30 +4656,30 @@
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="1:21" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A126" s="57" t="s">
+      <c r="A126" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="54" t="s">
+      <c r="B126" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="55"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="55"/>
-      <c r="K126" s="55"/>
-      <c r="L126" s="55"/>
-      <c r="M126" s="55"/>
-      <c r="N126" s="55"/>
-      <c r="O126" s="55"/>
-      <c r="P126" s="55"/>
-      <c r="Q126" s="56"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
+      <c r="L126" s="57"/>
+      <c r="M126" s="57"/>
+      <c r="N126" s="57"/>
+      <c r="O126" s="57"/>
+      <c r="P126" s="57"/>
+      <c r="Q126" s="58"/>
     </row>
     <row r="127" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="58"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="8" t="s">
         <v>3</v>
       </c>
@@ -5579,8 +5614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5590,24 +5625,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -5627,26 +5662,26 @@
       <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" ht="30" thickTop="1" thickBot="1">
-      <c r="B2" s="77"/>
-      <c r="C2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="91"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
@@ -5666,7 +5701,7 @@
       <c r="AF2" s="16"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B3" s="77"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="25" t="s">
         <v>174</v>
       </c>
@@ -5708,7 +5743,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="80" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -5729,7 +5764,7 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -5748,7 +5783,7 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="79"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -5767,7 +5802,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="79"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
@@ -5786,7 +5821,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="79"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
@@ -5805,7 +5840,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="79"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
@@ -5824,7 +5859,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="79"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
@@ -5843,7 +5878,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="79"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
@@ -5862,7 +5897,7 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="79"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
@@ -5881,7 +5916,7 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="79"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
@@ -5900,7 +5935,7 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="79"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
@@ -5919,7 +5954,7 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="79"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
@@ -5938,7 +5973,7 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="79"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
@@ -5957,7 +5992,7 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="79"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
@@ -5976,7 +6011,7 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="79"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
@@ -5995,7 +6030,7 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="79"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
@@ -6014,7 +6049,7 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="79"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -6033,7 +6068,7 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="79"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
@@ -6052,7 +6087,7 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="79"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
@@ -6071,7 +6106,7 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="79"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
@@ -6090,7 +6125,7 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="79"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
@@ -6109,7 +6144,7 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="79"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
@@ -6128,7 +6163,7 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="79"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
@@ -6147,7 +6182,7 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="79"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
@@ -6166,7 +6201,7 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="79"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
@@ -6185,7 +6220,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="18" t="s">
         <v>36</v>
       </c>
@@ -6204,7 +6239,7 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="79"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
@@ -6223,7 +6258,7 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
@@ -6242,7 +6277,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="79"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
@@ -6261,7 +6296,7 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
@@ -6280,7 +6315,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="79"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
@@ -6299,7 +6334,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="79"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
@@ -6318,7 +6353,7 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="79"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
@@ -6337,7 +6372,7 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="79"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="18" t="s">
         <v>44</v>
       </c>
@@ -6356,7 +6391,7 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="79"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
@@ -6375,7 +6410,7 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="79"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
@@ -6394,7 +6429,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="79"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
@@ -6413,7 +6448,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="79"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="18" t="s">
         <v>48</v>
       </c>
@@ -6432,7 +6467,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="79"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="18" t="s">
         <v>49</v>
       </c>
@@ -6451,7 +6486,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="79"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
@@ -6470,7 +6505,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="79"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="18" t="s">
         <v>51</v>
       </c>
@@ -6489,7 +6524,7 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="79"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="18" t="s">
         <v>52</v>
       </c>
@@ -6508,7 +6543,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="79"/>
+      <c r="A46" s="81"/>
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
@@ -6527,7 +6562,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="79"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="18" t="s">
         <v>54</v>
       </c>
@@ -6546,7 +6581,7 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="79"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="18" t="s">
         <v>55</v>
       </c>
@@ -6565,7 +6600,7 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="79"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="18" t="s">
         <v>56</v>
       </c>
@@ -6584,7 +6619,7 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="79"/>
+      <c r="A50" s="81"/>
       <c r="B50" s="18" t="s">
         <v>57</v>
       </c>
@@ -6603,7 +6638,7 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="79"/>
+      <c r="A51" s="81"/>
       <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
@@ -6622,7 +6657,7 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="79"/>
+      <c r="A52" s="81"/>
       <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
@@ -6641,7 +6676,7 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="79"/>
+      <c r="A53" s="81"/>
       <c r="B53" s="18" t="s">
         <v>60</v>
       </c>
@@ -6660,7 +6695,7 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="79"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
@@ -6679,7 +6714,7 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="79"/>
+      <c r="A55" s="81"/>
       <c r="B55" s="18" t="s">
         <v>62</v>
       </c>
@@ -6698,7 +6733,7 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="79"/>
+      <c r="A56" s="81"/>
       <c r="B56" s="18" t="s">
         <v>63</v>
       </c>
@@ -6717,7 +6752,7 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="79"/>
+      <c r="A57" s="81"/>
       <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
@@ -6736,7 +6771,7 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="79"/>
+      <c r="A58" s="81"/>
       <c r="B58" s="18" t="s">
         <v>65</v>
       </c>
@@ -6755,7 +6790,7 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="79"/>
+      <c r="A59" s="81"/>
       <c r="B59" s="18" t="s">
         <v>66</v>
       </c>
@@ -6774,7 +6809,7 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="79"/>
+      <c r="A60" s="81"/>
       <c r="B60" s="18" t="s">
         <v>67</v>
       </c>
@@ -6793,7 +6828,7 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="79"/>
+      <c r="A61" s="81"/>
       <c r="B61" s="18" t="s">
         <v>68</v>
       </c>
@@ -6812,7 +6847,7 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="79"/>
+      <c r="A62" s="81"/>
       <c r="B62" s="18" t="s">
         <v>69</v>
       </c>
@@ -6831,7 +6866,7 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="79"/>
+      <c r="A63" s="81"/>
       <c r="B63" s="18" t="s">
         <v>70</v>
       </c>
@@ -6850,7 +6885,7 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="79"/>
+      <c r="A64" s="81"/>
       <c r="B64" s="18" t="s">
         <v>71</v>
       </c>
@@ -6869,7 +6904,7 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="79"/>
+      <c r="A65" s="81"/>
       <c r="B65" s="18" t="s">
         <v>72</v>
       </c>
@@ -6888,7 +6923,7 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="79"/>
+      <c r="A66" s="81"/>
       <c r="B66" s="18" t="s">
         <v>73</v>
       </c>
@@ -6907,7 +6942,7 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="79"/>
+      <c r="A67" s="81"/>
       <c r="B67" s="18" t="s">
         <v>74</v>
       </c>
@@ -6926,7 +6961,7 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="79"/>
+      <c r="A68" s="81"/>
       <c r="B68" s="18" t="s">
         <v>75</v>
       </c>
@@ -6945,7 +6980,7 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="79"/>
+      <c r="A69" s="81"/>
       <c r="B69" s="19" t="s">
         <v>76</v>
       </c>
@@ -6964,7 +6999,7 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="79"/>
+      <c r="A70" s="81"/>
       <c r="B70" s="19" t="s">
         <v>77</v>
       </c>
@@ -6983,7 +7018,7 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="79"/>
+      <c r="A71" s="81"/>
       <c r="B71" s="19" t="s">
         <v>78</v>
       </c>
@@ -7002,7 +7037,7 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="79"/>
+      <c r="A72" s="81"/>
       <c r="B72" s="19" t="s">
         <v>79</v>
       </c>
@@ -7021,7 +7056,7 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="79"/>
+      <c r="A73" s="81"/>
       <c r="B73" s="19" t="s">
         <v>80</v>
       </c>
@@ -7040,7 +7075,7 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="79"/>
+      <c r="A74" s="81"/>
       <c r="B74" s="19" t="s">
         <v>81</v>
       </c>
@@ -7059,7 +7094,7 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="79"/>
+      <c r="A75" s="81"/>
       <c r="B75" s="19" t="s">
         <v>82</v>
       </c>
@@ -7078,7 +7113,7 @@
       <c r="O75" s="14"/>
     </row>
     <row r="76" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="79"/>
+      <c r="A76" s="81"/>
       <c r="B76" s="19" t="s">
         <v>83</v>
       </c>
@@ -7097,7 +7132,7 @@
       <c r="O76" s="14"/>
     </row>
     <row r="77" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="79"/>
+      <c r="A77" s="81"/>
       <c r="B77" s="19" t="s">
         <v>84</v>
       </c>
@@ -7116,7 +7151,7 @@
       <c r="O77" s="14"/>
     </row>
     <row r="78" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="79"/>
+      <c r="A78" s="81"/>
       <c r="B78" s="19" t="s">
         <v>85</v>
       </c>
@@ -7135,7 +7170,7 @@
       <c r="O78" s="14"/>
     </row>
     <row r="79" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="79"/>
+      <c r="A79" s="81"/>
       <c r="B79" s="19" t="s">
         <v>86</v>
       </c>
@@ -7154,7 +7189,7 @@
       <c r="O79" s="14"/>
     </row>
     <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="79"/>
+      <c r="A80" s="81"/>
       <c r="B80" s="19" t="s">
         <v>87</v>
       </c>
@@ -7173,7 +7208,7 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="79"/>
+      <c r="A81" s="81"/>
       <c r="B81" s="19" t="s">
         <v>88</v>
       </c>
@@ -7192,7 +7227,7 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="79"/>
+      <c r="A82" s="81"/>
       <c r="B82" s="19" t="s">
         <v>89</v>
       </c>
@@ -7211,7 +7246,7 @@
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="79"/>
+      <c r="A83" s="81"/>
       <c r="B83" s="19" t="s">
         <v>90</v>
       </c>
@@ -7230,7 +7265,7 @@
       <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="79"/>
+      <c r="A84" s="81"/>
       <c r="B84" s="19" t="s">
         <v>91</v>
       </c>
@@ -7249,7 +7284,7 @@
       <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="79"/>
+      <c r="A85" s="81"/>
       <c r="B85" s="19" t="s">
         <v>92</v>
       </c>
@@ -7268,7 +7303,7 @@
       <c r="O85" s="3"/>
     </row>
     <row r="86" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="79"/>
+      <c r="A86" s="81"/>
       <c r="B86" s="19" t="s">
         <v>93</v>
       </c>
@@ -7287,7 +7322,7 @@
       <c r="O86" s="14"/>
     </row>
     <row r="87" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="79"/>
+      <c r="A87" s="81"/>
       <c r="B87" s="19" t="s">
         <v>94</v>
       </c>
@@ -7306,7 +7341,7 @@
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="79"/>
+      <c r="A88" s="81"/>
       <c r="B88" s="19" t="s">
         <v>95</v>
       </c>
@@ -7325,7 +7360,7 @@
       <c r="O88" s="3"/>
     </row>
     <row r="89" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="79"/>
+      <c r="A89" s="81"/>
       <c r="B89" s="19" t="s">
         <v>96</v>
       </c>
@@ -7344,7 +7379,7 @@
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="79"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="19" t="s">
         <v>97</v>
       </c>
@@ -7363,7 +7398,7 @@
       <c r="O90" s="14"/>
     </row>
     <row r="91" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="79"/>
+      <c r="A91" s="81"/>
       <c r="B91" s="19" t="s">
         <v>98</v>
       </c>
@@ -7377,12 +7412,14 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
+      <c r="M91" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="79"/>
+      <c r="A92" s="81"/>
       <c r="B92" s="19" t="s">
         <v>99</v>
       </c>
@@ -7396,50 +7433,60 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
+      <c r="M92" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="79"/>
+      <c r="A93" s="81"/>
       <c r="B93" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="L93" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="79"/>
+      <c r="A94" s="81"/>
       <c r="B94" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
+      <c r="L94" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="79"/>
+      <c r="A95" s="81"/>
       <c r="B95" s="19" t="s">
         <v>102</v>
       </c>
@@ -7447,7 +7494,9 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="G95" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -7458,7 +7507,7 @@
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="79"/>
+      <c r="A96" s="81"/>
       <c r="B96" s="19" t="s">
         <v>103</v>
       </c>
@@ -7466,7 +7515,9 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="G96" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -7477,7 +7528,7 @@
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="79"/>
+      <c r="A97" s="81"/>
       <c r="B97" s="19" t="s">
         <v>104</v>
       </c>
@@ -7485,18 +7536,24 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="G97" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="I97" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="79"/>
+      <c r="A98" s="81"/>
       <c r="B98" s="19" t="s">
         <v>105</v>
       </c>
@@ -7505,8 +7562,12 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -7515,7 +7576,7 @@
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="79"/>
+      <c r="A99" s="81"/>
       <c r="B99" s="19" t="s">
         <v>106</v>
       </c>
@@ -7524,8 +7585,12 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="H99" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -7534,17 +7599,23 @@
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="79"/>
+      <c r="A100" s="81"/>
       <c r="B100" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="I100" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -7553,30 +7624,42 @@
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="79"/>
+      <c r="A101" s="81"/>
       <c r="B101" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
+      <c r="L101" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
+      <c r="N101" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="79"/>
+      <c r="A102" s="81"/>
       <c r="B102" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -7591,12 +7674,14 @@
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="79"/>
+      <c r="A103" s="81"/>
       <c r="B103" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -7610,7 +7695,7 @@
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="79"/>
+      <c r="A104" s="81"/>
       <c r="B104" s="19" t="s">
         <v>111</v>
       </c>
@@ -7621,7 +7706,9 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -7629,26 +7716,26 @@
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="79"/>
+      <c r="A105" s="81"/>
       <c r="B105" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
     </row>
     <row r="106" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="79"/>
+      <c r="A106" s="81"/>
       <c r="B106" s="19" t="s">
         <v>113</v>
       </c>
@@ -7664,10 +7751,12 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
+      <c r="O106" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="107" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="79"/>
+      <c r="A107" s="81"/>
       <c r="B107" s="19" t="s">
         <v>114</v>
       </c>
@@ -7686,7 +7775,7 @@
       <c r="O107" s="14"/>
     </row>
     <row r="108" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="79"/>
+      <c r="A108" s="81"/>
       <c r="B108" s="19" t="s">
         <v>115</v>
       </c>
@@ -7705,7 +7794,7 @@
       <c r="O108" s="14"/>
     </row>
     <row r="109" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="79"/>
+      <c r="A109" s="81"/>
       <c r="B109" s="19" t="s">
         <v>116</v>
       </c>
@@ -7724,7 +7813,7 @@
       <c r="O109" s="14"/>
     </row>
     <row r="110" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="79"/>
+      <c r="A110" s="81"/>
       <c r="B110" s="19" t="s">
         <v>117</v>
       </c>
@@ -7743,7 +7832,7 @@
       <c r="O110" s="14"/>
     </row>
     <row r="111" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="79"/>
+      <c r="A111" s="81"/>
       <c r="B111" s="19" t="s">
         <v>118</v>
       </c>
@@ -7762,7 +7851,7 @@
       <c r="O111" s="14"/>
     </row>
     <row r="112" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="79"/>
+      <c r="A112" s="81"/>
       <c r="B112" s="19" t="s">
         <v>119</v>
       </c>
@@ -7781,7 +7870,7 @@
       <c r="O112" s="14"/>
     </row>
     <row r="113" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="79"/>
+      <c r="A113" s="81"/>
       <c r="B113" s="19" t="s">
         <v>120</v>
       </c>
@@ -7800,7 +7889,7 @@
       <c r="O113" s="14"/>
     </row>
     <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="79"/>
+      <c r="A114" s="81"/>
       <c r="B114" s="19" t="s">
         <v>121</v>
       </c>
@@ -7819,7 +7908,7 @@
       <c r="O114" s="14"/>
     </row>
     <row r="115" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="79"/>
+      <c r="A115" s="81"/>
       <c r="B115" s="19" t="s">
         <v>122</v>
       </c>
@@ -7838,7 +7927,7 @@
       <c r="O115" s="14"/>
     </row>
     <row r="116" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="79"/>
+      <c r="A116" s="81"/>
       <c r="B116" s="19" t="s">
         <v>123</v>
       </c>
@@ -7857,7 +7946,7 @@
       <c r="O116" s="14"/>
     </row>
     <row r="117" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="79"/>
+      <c r="A117" s="81"/>
       <c r="B117" s="19" t="s">
         <v>124</v>
       </c>
@@ -7876,7 +7965,7 @@
       <c r="O117" s="14"/>
     </row>
     <row r="118" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="79"/>
+      <c r="A118" s="81"/>
       <c r="B118" s="19" t="s">
         <v>125</v>
       </c>
@@ -7895,7 +7984,7 @@
       <c r="O118" s="3"/>
     </row>
     <row r="119" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="79"/>
+      <c r="A119" s="81"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
@@ -7914,7 +8003,7 @@
       <c r="O119" s="14"/>
     </row>
     <row r="120" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="79"/>
+      <c r="A120" s="81"/>
       <c r="B120" s="19" t="s">
         <v>127</v>
       </c>
@@ -7933,7 +8022,7 @@
       <c r="O120" s="3"/>
     </row>
     <row r="121" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="79"/>
+      <c r="A121" s="81"/>
       <c r="B121" s="19" t="s">
         <v>128</v>
       </c>
@@ -7952,7 +8041,7 @@
       <c r="O121" s="14"/>
     </row>
     <row r="122" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="79"/>
+      <c r="A122" s="81"/>
       <c r="B122" s="19" t="s">
         <v>129</v>
       </c>
@@ -7971,7 +8060,7 @@
       <c r="O122" s="14"/>
     </row>
     <row r="123" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="79"/>
+      <c r="A123" s="81"/>
       <c r="B123" s="21" t="s">
         <v>130</v>
       </c>
@@ -7990,7 +8079,7 @@
       <c r="O123" s="3"/>
     </row>
     <row r="124" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="80"/>
+      <c r="A124" s="82"/>
       <c r="B124" s="19" t="s">
         <v>131</v>
       </c>
@@ -8028,7 +8117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DR142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8038,44 +8127,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:122" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="96" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="99" t="s">
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="101" t="s">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="103"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="105"/>
       <c r="AG1" s="52"/>
       <c r="AH1" s="52"/>
       <c r="AI1" s="52"/>
@@ -8530,7 +8619,7 @@
       </c>
     </row>
     <row r="3" spans="1:122" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="96" t="s">
         <v>198</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -8658,7 +8747,7 @@
       <c r="DR3" s="3"/>
     </row>
     <row r="4" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="95"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="50" t="s">
         <v>140</v>
       </c>
@@ -8784,7 +8873,7 @@
       <c r="DR4" s="3"/>
     </row>
     <row r="5" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="95"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="50" t="s">
         <v>141</v>
       </c>
@@ -8910,7 +8999,7 @@
       <c r="DR5" s="3"/>
     </row>
     <row r="6" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="50" t="s">
         <v>142</v>
       </c>
@@ -9036,7 +9125,7 @@
       <c r="DR6" s="3"/>
     </row>
     <row r="7" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="95"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="50" t="s">
         <v>143</v>
       </c>
@@ -9162,7 +9251,7 @@
       <c r="DR7" s="3"/>
     </row>
     <row r="8" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="95"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="50" t="s">
         <v>144</v>
       </c>
@@ -9288,7 +9377,7 @@
       <c r="DR8" s="3"/>
     </row>
     <row r="9" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="50" t="s">
         <v>145</v>
       </c>
@@ -9414,7 +9503,7 @@
       <c r="DR9" s="3"/>
     </row>
     <row r="10" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="95"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="50" t="s">
         <v>146</v>
       </c>
@@ -9540,7 +9629,7 @@
       <c r="DR10" s="3"/>
     </row>
     <row r="11" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="50" t="s">
         <v>147</v>
       </c>
@@ -9666,7 +9755,7 @@
       <c r="DR11" s="3"/>
     </row>
     <row r="12" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="95"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="50" t="s">
         <v>148</v>
       </c>
@@ -9792,7 +9881,7 @@
       <c r="DR12" s="3"/>
     </row>
     <row r="13" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="50" t="s">
         <v>149</v>
       </c>
@@ -9918,7 +10007,7 @@
       <c r="DR13" s="3"/>
     </row>
     <row r="14" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="95"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="50" t="s">
         <v>150</v>
       </c>
@@ -10044,7 +10133,7 @@
       <c r="DR14" s="3"/>
     </row>
     <row r="15" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
@@ -10170,7 +10259,7 @@
       <c r="DR15" s="3"/>
     </row>
     <row r="16" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="95"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="50" t="s">
         <v>152</v>
       </c>
@@ -10296,7 +10385,7 @@
       <c r="DR16" s="3"/>
     </row>
     <row r="17" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="50" t="s">
         <v>153</v>
       </c>
@@ -10422,7 +10511,7 @@
       <c r="DR17" s="3"/>
     </row>
     <row r="18" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="50" t="s">
         <v>154</v>
       </c>
@@ -10548,7 +10637,7 @@
       <c r="DR18" s="3"/>
     </row>
     <row r="19" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="50" t="s">
         <v>155</v>
       </c>
@@ -10674,7 +10763,7 @@
       <c r="DR19" s="3"/>
     </row>
     <row r="20" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="95"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="50" t="s">
         <v>156</v>
       </c>
@@ -10800,7 +10889,7 @@
       <c r="DR20" s="3"/>
     </row>
     <row r="21" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="95"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="50" t="s">
         <v>157</v>
       </c>
@@ -10926,7 +11015,7 @@
       <c r="DR21" s="3"/>
     </row>
     <row r="22" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="95"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="50" t="s">
         <v>158</v>
       </c>
@@ -11052,7 +11141,7 @@
       <c r="DR22" s="3"/>
     </row>
     <row r="23" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="95"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="50" t="s">
         <v>159</v>
       </c>
@@ -11178,7 +11267,7 @@
       <c r="DR23" s="3"/>
     </row>
     <row r="24" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="95"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="50" t="s">
         <v>160</v>
       </c>
@@ -11304,7 +11393,7 @@
       <c r="DR24" s="3"/>
     </row>
     <row r="25" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="95"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="50" t="s">
         <v>161</v>
       </c>
@@ -11430,7 +11519,7 @@
       <c r="DR25" s="3"/>
     </row>
     <row r="26" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="95"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="50" t="s">
         <v>162</v>
       </c>
@@ -11556,7 +11645,7 @@
       <c r="DR26" s="3"/>
     </row>
     <row r="27" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="95"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="50" t="s">
         <v>163</v>
       </c>
@@ -11682,7 +11771,7 @@
       <c r="DR27" s="3"/>
     </row>
     <row r="28" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="95"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="50" t="s">
         <v>164</v>
       </c>
@@ -11808,7 +11897,7 @@
       <c r="DR28" s="3"/>
     </row>
     <row r="29" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="95"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="50" t="s">
         <v>165</v>
       </c>
@@ -11934,7 +12023,7 @@
       <c r="DR29" s="3"/>
     </row>
     <row r="30" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="95"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="50" t="s">
         <v>166</v>
       </c>
@@ -12060,7 +12149,7 @@
       <c r="DR30" s="3"/>
     </row>
     <row r="31" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="95"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="50" t="s">
         <v>167</v>
       </c>
@@ -12186,7 +12275,7 @@
       <c r="DR31" s="3"/>
     </row>
     <row r="32" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="95"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="51" t="s">
         <v>168</v>
       </c>
@@ -12312,7 +12401,7 @@
       <c r="DR32" s="3"/>
     </row>
     <row r="33" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="95"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="51" t="s">
         <v>169</v>
       </c>
@@ -12438,7 +12527,7 @@
       <c r="DR33" s="3"/>
     </row>
     <row r="34" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="95"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="51" t="s">
         <v>170</v>
       </c>
@@ -12564,7 +12653,7 @@
       <c r="DR34" s="3"/>
     </row>
     <row r="35" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="95"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="51" t="s">
         <v>171</v>
       </c>
@@ -13041,24 +13130,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="110"/>
-      <c r="B1" s="107" t="s">
+      <c r="A1" s="112"/>
+      <c r="B1" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="109" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A3" s="36"/>
@@ -14310,13 +14399,13 @@
     </row>
     <row r="126" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
       <c r="A126" s="32"/>
-      <c r="B126" s="104" t="s">
+      <c r="B126" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="106"/>
+      <c r="C126" s="107"/>
+      <c r="D126" s="107"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="108"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A127" s="31" t="s">

--- a/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
+++ b/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -1221,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1358,6 +1358,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,22 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1875,79 +1878,79 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2001,7 +2004,7 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="55">
         <v>40261</v>
       </c>
@@ -2208,7 +2211,7 @@
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="115"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="11">
         <v>40261</v>
       </c>
@@ -2438,7 +2441,7 @@
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="115"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="11">
         <v>40262</v>
       </c>
@@ -4705,30 +4708,30 @@
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="1:21" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A126" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="56" t="s">
+      <c r="A126" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="57"/>
-      <c r="K126" s="57"/>
-      <c r="L126" s="57"/>
-      <c r="M126" s="57"/>
-      <c r="N126" s="57"/>
-      <c r="O126" s="57"/>
-      <c r="P126" s="57"/>
-      <c r="Q126" s="58"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="65"/>
+      <c r="L126" s="65"/>
+      <c r="M126" s="65"/>
+      <c r="N126" s="65"/>
+      <c r="O126" s="65"/>
+      <c r="P126" s="65"/>
+      <c r="Q126" s="66"/>
     </row>
     <row r="127" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="60"/>
+      <c r="A127" s="68"/>
       <c r="B127" s="8" t="s">
         <v>3</v>
       </c>
@@ -4890,7 +4893,7 @@
       <c r="A132" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B132" s="120"/>
+      <c r="B132" s="62"/>
       <c r="C132" s="11">
         <v>40262</v>
       </c>
@@ -4917,7 +4920,7 @@
       <c r="A133" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="120"/>
+      <c r="B133" s="62"/>
       <c r="C133" s="11">
         <v>40262</v>
       </c>
@@ -4944,7 +4947,7 @@
       <c r="A134" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="120"/>
+      <c r="B134" s="62"/>
       <c r="C134" s="11">
         <v>40262</v>
       </c>
@@ -5669,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5680,24 +5683,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -5717,26 +5720,26 @@
       <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" ht="30" thickTop="1" thickBot="1">
-      <c r="B2" s="79"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91" t="s">
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
@@ -5756,7 +5759,7 @@
       <c r="AF2" s="16"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B3" s="79"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="25" t="s">
         <v>174</v>
       </c>
@@ -5798,921 +5801,921 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="88" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="117">
-        <v>0</v>
-      </c>
-      <c r="D5" s="117">
-        <v>0</v>
-      </c>
-      <c r="E5" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="117">
-        <v>0</v>
-      </c>
-      <c r="G5" s="117">
-        <v>0</v>
-      </c>
-      <c r="H5" s="117">
-        <v>0</v>
-      </c>
-      <c r="I5" s="117">
-        <v>0</v>
-      </c>
-      <c r="J5" s="117">
-        <v>0</v>
-      </c>
-      <c r="K5" s="117">
-        <v>0</v>
-      </c>
-      <c r="L5" s="117">
-        <v>0</v>
-      </c>
-      <c r="M5" s="117">
-        <v>0</v>
-      </c>
-      <c r="N5" s="117">
-        <v>0</v>
-      </c>
-      <c r="O5" s="117">
+      <c r="C5" s="59">
+        <v>0</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="59">
+        <v>0</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59">
+        <v>0</v>
+      </c>
+      <c r="K5" s="59">
+        <v>0</v>
+      </c>
+      <c r="L5" s="59">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59">
+        <v>0</v>
+      </c>
+      <c r="N5" s="59">
+        <v>0</v>
+      </c>
+      <c r="O5" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="81"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="117">
-        <v>0</v>
-      </c>
-      <c r="D6" s="117">
-        <v>0</v>
-      </c>
-      <c r="E6" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="117">
-        <v>0</v>
-      </c>
-      <c r="G6" s="117">
-        <v>0</v>
-      </c>
-      <c r="H6" s="117">
-        <v>0</v>
-      </c>
-      <c r="I6" s="117">
-        <v>0</v>
-      </c>
-      <c r="J6" s="117">
-        <v>0</v>
-      </c>
-      <c r="K6" s="117">
-        <v>0</v>
-      </c>
-      <c r="L6" s="117">
-        <v>0</v>
-      </c>
-      <c r="M6" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="N6" s="117">
-        <v>0</v>
-      </c>
-      <c r="O6" s="117">
+      <c r="C6" s="59">
+        <v>0</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="59">
+        <v>0</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0</v>
+      </c>
+      <c r="H6" s="59">
+        <v>0</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <v>0</v>
+      </c>
+      <c r="K6" s="59">
+        <v>0</v>
+      </c>
+      <c r="L6" s="59">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="N6" s="59">
+        <v>0</v>
+      </c>
+      <c r="O6" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="117">
-        <v>0</v>
-      </c>
-      <c r="D7" s="117">
-        <v>0</v>
-      </c>
-      <c r="E7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="117">
-        <v>0</v>
-      </c>
-      <c r="G7" s="117">
-        <v>0</v>
-      </c>
-      <c r="H7" s="117">
-        <v>0</v>
-      </c>
-      <c r="I7" s="117">
-        <v>0</v>
-      </c>
-      <c r="J7" s="117">
-        <v>0</v>
-      </c>
-      <c r="K7" s="117">
-        <v>0</v>
-      </c>
-      <c r="L7" s="117">
-        <v>0</v>
-      </c>
-      <c r="M7" s="117">
-        <v>0</v>
-      </c>
-      <c r="N7" s="117">
-        <v>0</v>
-      </c>
-      <c r="O7" s="117">
+      <c r="C7" s="59">
+        <v>0</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59">
+        <v>0</v>
+      </c>
+      <c r="L7" s="59">
+        <v>0</v>
+      </c>
+      <c r="M7" s="59">
+        <v>0</v>
+      </c>
+      <c r="N7" s="59">
+        <v>0</v>
+      </c>
+      <c r="O7" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="81"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="117">
-        <v>0</v>
-      </c>
-      <c r="D8" s="117">
-        <v>0</v>
-      </c>
-      <c r="E8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="117">
-        <v>0</v>
-      </c>
-      <c r="G8" s="117">
-        <v>0</v>
-      </c>
-      <c r="H8" s="117">
-        <v>0</v>
-      </c>
-      <c r="I8" s="117">
-        <v>0</v>
-      </c>
-      <c r="J8" s="117">
-        <v>0</v>
-      </c>
-      <c r="K8" s="117">
-        <v>0</v>
-      </c>
-      <c r="L8" s="117">
-        <v>0</v>
-      </c>
-      <c r="M8" s="117">
-        <v>0</v>
-      </c>
-      <c r="N8" s="117">
-        <v>0</v>
-      </c>
-      <c r="O8" s="117">
+      <c r="C8" s="59">
+        <v>0</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="59">
+        <v>0</v>
+      </c>
+      <c r="G8" s="59">
+        <v>0</v>
+      </c>
+      <c r="H8" s="59">
+        <v>0</v>
+      </c>
+      <c r="I8" s="59">
+        <v>0</v>
+      </c>
+      <c r="J8" s="59">
+        <v>0</v>
+      </c>
+      <c r="K8" s="59">
+        <v>0</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0</v>
+      </c>
+      <c r="M8" s="59">
+        <v>0</v>
+      </c>
+      <c r="N8" s="59">
+        <v>0</v>
+      </c>
+      <c r="O8" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="81"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="117">
-        <v>0</v>
-      </c>
-      <c r="D9" s="117">
-        <v>0</v>
-      </c>
-      <c r="E9" s="117">
-        <v>0</v>
-      </c>
-      <c r="F9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" s="117">
-        <v>0</v>
-      </c>
-      <c r="H9" s="117">
-        <v>0</v>
-      </c>
-      <c r="I9" s="117">
-        <v>0</v>
-      </c>
-      <c r="J9" s="117">
-        <v>0</v>
-      </c>
-      <c r="K9" s="117">
-        <v>0</v>
-      </c>
-      <c r="L9" s="117">
-        <v>0</v>
-      </c>
-      <c r="M9" s="117">
-        <v>0</v>
-      </c>
-      <c r="N9" s="117">
-        <v>0</v>
-      </c>
-      <c r="O9" s="117">
+      <c r="C9" s="59">
+        <v>0</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="59">
+        <v>0</v>
+      </c>
+      <c r="H9" s="59">
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0</v>
+      </c>
+      <c r="L9" s="59">
+        <v>0</v>
+      </c>
+      <c r="M9" s="59">
+        <v>0</v>
+      </c>
+      <c r="N9" s="59">
+        <v>0</v>
+      </c>
+      <c r="O9" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="81"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="117">
-        <v>0</v>
-      </c>
-      <c r="D10" s="117">
-        <v>0</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="117">
-        <v>0</v>
-      </c>
-      <c r="G10" s="117">
-        <v>0</v>
-      </c>
-      <c r="H10" s="117">
-        <v>0</v>
-      </c>
-      <c r="I10" s="117">
-        <v>0</v>
-      </c>
-      <c r="J10" s="117">
-        <v>0</v>
-      </c>
-      <c r="K10" s="117">
-        <v>0</v>
-      </c>
-      <c r="L10" s="117">
-        <v>0</v>
-      </c>
-      <c r="M10" s="117">
-        <v>0</v>
-      </c>
-      <c r="N10" s="117">
-        <v>0</v>
-      </c>
-      <c r="O10" s="117">
+      <c r="C10" s="59">
+        <v>0</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="59">
+        <v>0</v>
+      </c>
+      <c r="G10" s="59">
+        <v>0</v>
+      </c>
+      <c r="H10" s="59">
+        <v>0</v>
+      </c>
+      <c r="I10" s="59">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="59">
+        <v>0</v>
+      </c>
+      <c r="L10" s="59">
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
+        <v>0</v>
+      </c>
+      <c r="N10" s="59">
+        <v>0</v>
+      </c>
+      <c r="O10" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="117">
-        <v>0</v>
-      </c>
-      <c r="D11" s="117">
-        <v>0</v>
-      </c>
-      <c r="E11" s="117">
-        <v>0</v>
-      </c>
-      <c r="F11" s="117">
-        <v>0</v>
-      </c>
-      <c r="G11" s="117">
-        <v>0</v>
-      </c>
-      <c r="H11" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="117">
-        <v>0</v>
-      </c>
-      <c r="J11" s="117">
-        <v>0</v>
-      </c>
-      <c r="K11" s="117">
-        <v>0</v>
-      </c>
-      <c r="L11" s="117">
-        <v>0</v>
-      </c>
-      <c r="M11" s="117">
-        <v>0</v>
-      </c>
-      <c r="N11" s="117">
-        <v>0</v>
-      </c>
-      <c r="O11" s="117">
+      <c r="C11" s="59">
+        <v>0</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0</v>
+      </c>
+      <c r="F11" s="59">
+        <v>0</v>
+      </c>
+      <c r="G11" s="59">
+        <v>0</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="59">
+        <v>0</v>
+      </c>
+      <c r="J11" s="59">
+        <v>0</v>
+      </c>
+      <c r="K11" s="59">
+        <v>0</v>
+      </c>
+      <c r="L11" s="59">
+        <v>0</v>
+      </c>
+      <c r="M11" s="59">
+        <v>0</v>
+      </c>
+      <c r="N11" s="59">
+        <v>0</v>
+      </c>
+      <c r="O11" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="81"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="117">
-        <v>0</v>
-      </c>
-      <c r="D12" s="117">
-        <v>0</v>
-      </c>
-      <c r="E12" s="117">
-        <v>0</v>
-      </c>
-      <c r="F12" s="117">
-        <v>0</v>
-      </c>
-      <c r="G12" s="117">
-        <v>0</v>
-      </c>
-      <c r="H12" s="117">
-        <v>0</v>
-      </c>
-      <c r="I12" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="J12" s="117">
-        <v>0</v>
-      </c>
-      <c r="K12" s="117">
-        <v>0</v>
-      </c>
-      <c r="L12" s="117">
-        <v>0</v>
-      </c>
-      <c r="M12" s="117">
-        <v>0</v>
-      </c>
-      <c r="N12" s="117">
-        <v>0</v>
-      </c>
-      <c r="O12" s="117">
+      <c r="C12" s="59">
+        <v>0</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
+      <c r="F12" s="59">
+        <v>0</v>
+      </c>
+      <c r="G12" s="59">
+        <v>0</v>
+      </c>
+      <c r="H12" s="59">
+        <v>0</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="59">
+        <v>0</v>
+      </c>
+      <c r="K12" s="59">
+        <v>0</v>
+      </c>
+      <c r="L12" s="59">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
+        <v>0</v>
+      </c>
+      <c r="N12" s="59">
+        <v>0</v>
+      </c>
+      <c r="O12" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="81"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="117">
-        <v>0</v>
-      </c>
-      <c r="D14" s="117">
-        <v>0</v>
-      </c>
-      <c r="E14" s="117">
-        <v>0</v>
-      </c>
-      <c r="F14" s="117">
-        <v>0</v>
-      </c>
-      <c r="G14" s="117">
-        <v>0</v>
-      </c>
-      <c r="H14" s="117">
-        <v>0</v>
-      </c>
-      <c r="I14" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="J14" s="117">
-        <v>0</v>
-      </c>
-      <c r="K14" s="117">
-        <v>0</v>
-      </c>
-      <c r="L14" s="117">
-        <v>0</v>
-      </c>
-      <c r="M14" s="117">
-        <v>0</v>
-      </c>
-      <c r="N14" s="117">
-        <v>0</v>
-      </c>
-      <c r="O14" s="117">
+      <c r="C14" s="59">
+        <v>0</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0</v>
+      </c>
+      <c r="F14" s="59">
+        <v>0</v>
+      </c>
+      <c r="G14" s="59">
+        <v>0</v>
+      </c>
+      <c r="H14" s="59">
+        <v>0</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14" s="59">
+        <v>0</v>
+      </c>
+      <c r="K14" s="59">
+        <v>0</v>
+      </c>
+      <c r="L14" s="59">
+        <v>0</v>
+      </c>
+      <c r="M14" s="59">
+        <v>0</v>
+      </c>
+      <c r="N14" s="59">
+        <v>0</v>
+      </c>
+      <c r="O14" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="81"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="117">
-        <v>0</v>
-      </c>
-      <c r="D15" s="117">
-        <v>0</v>
-      </c>
-      <c r="E15" s="117">
-        <v>0</v>
-      </c>
-      <c r="F15" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="117">
-        <v>0</v>
-      </c>
-      <c r="H15" s="117">
-        <v>0</v>
-      </c>
-      <c r="I15" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="117">
-        <v>0</v>
-      </c>
-      <c r="K15" s="117">
-        <v>0</v>
-      </c>
-      <c r="L15" s="117">
-        <v>0</v>
-      </c>
-      <c r="M15" s="117">
-        <v>0</v>
-      </c>
-      <c r="N15" s="117">
-        <v>0</v>
-      </c>
-      <c r="O15" s="117">
+      <c r="C15" s="59">
+        <v>0</v>
+      </c>
+      <c r="D15" s="59">
+        <v>0</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="59">
+        <v>0</v>
+      </c>
+      <c r="H15" s="59">
+        <v>0</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0</v>
+      </c>
+      <c r="K15" s="59">
+        <v>0</v>
+      </c>
+      <c r="L15" s="59">
+        <v>0</v>
+      </c>
+      <c r="M15" s="59">
+        <v>0</v>
+      </c>
+      <c r="N15" s="59">
+        <v>0</v>
+      </c>
+      <c r="O15" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="81"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="117">
-        <v>0</v>
-      </c>
-      <c r="D16" s="117">
-        <v>0</v>
-      </c>
-      <c r="E16" s="117">
-        <v>0</v>
-      </c>
-      <c r="F16" s="117">
-        <v>0</v>
-      </c>
-      <c r="G16" s="117">
-        <v>0</v>
-      </c>
-      <c r="H16" s="117">
-        <v>0</v>
-      </c>
-      <c r="I16" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="J16" s="117">
-        <v>0</v>
-      </c>
-      <c r="K16" s="117">
-        <v>0</v>
-      </c>
-      <c r="L16" s="117">
-        <v>0</v>
-      </c>
-      <c r="M16" s="117">
-        <v>0</v>
-      </c>
-      <c r="N16" s="117">
-        <v>0</v>
-      </c>
-      <c r="O16" s="117">
+      <c r="C16" s="59">
+        <v>0</v>
+      </c>
+      <c r="D16" s="59">
+        <v>0</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0</v>
+      </c>
+      <c r="F16" s="59">
+        <v>0</v>
+      </c>
+      <c r="G16" s="59">
+        <v>0</v>
+      </c>
+      <c r="H16" s="59">
+        <v>0</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="J16" s="59">
+        <v>0</v>
+      </c>
+      <c r="K16" s="59">
+        <v>0</v>
+      </c>
+      <c r="L16" s="59">
+        <v>0</v>
+      </c>
+      <c r="M16" s="59">
+        <v>0</v>
+      </c>
+      <c r="N16" s="59">
+        <v>0</v>
+      </c>
+      <c r="O16" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="81"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="117">
-        <v>0</v>
-      </c>
-      <c r="D17" s="117">
-        <v>0</v>
-      </c>
-      <c r="E17" s="117">
-        <v>0</v>
-      </c>
-      <c r="F17" s="117">
-        <v>0</v>
-      </c>
-      <c r="G17" s="117">
-        <v>0</v>
-      </c>
-      <c r="H17" s="117">
-        <v>0</v>
-      </c>
-      <c r="I17" s="117">
-        <v>0</v>
-      </c>
-      <c r="J17" s="117">
-        <v>0</v>
-      </c>
-      <c r="K17" s="117">
-        <v>0</v>
-      </c>
-      <c r="L17" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="M17" s="117">
-        <v>0</v>
-      </c>
-      <c r="N17" s="117">
-        <v>0</v>
-      </c>
-      <c r="O17" s="117">
+      <c r="C17" s="59">
+        <v>0</v>
+      </c>
+      <c r="D17" s="59">
+        <v>0</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0</v>
+      </c>
+      <c r="G17" s="59">
+        <v>0</v>
+      </c>
+      <c r="H17" s="59">
+        <v>0</v>
+      </c>
+      <c r="I17" s="59">
+        <v>0</v>
+      </c>
+      <c r="J17" s="59">
+        <v>0</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="59">
+        <v>0</v>
+      </c>
+      <c r="N17" s="59">
+        <v>0</v>
+      </c>
+      <c r="O17" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="81"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="117">
-        <v>0</v>
-      </c>
-      <c r="D18" s="117">
-        <v>0</v>
-      </c>
-      <c r="E18" s="117">
-        <v>0</v>
-      </c>
-      <c r="F18" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="G18" s="117">
-        <v>0</v>
-      </c>
-      <c r="H18" s="117">
-        <v>0</v>
-      </c>
-      <c r="I18" s="117">
-        <v>0</v>
-      </c>
-      <c r="J18" s="117">
-        <v>0</v>
-      </c>
-      <c r="K18" s="117">
-        <v>0</v>
-      </c>
-      <c r="L18" s="117">
-        <v>0</v>
-      </c>
-      <c r="M18" s="117">
-        <v>0</v>
-      </c>
-      <c r="N18" s="117">
-        <v>0</v>
-      </c>
-      <c r="O18" s="117">
+      <c r="C18" s="59">
+        <v>0</v>
+      </c>
+      <c r="D18" s="59">
+        <v>0</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="59">
+        <v>0</v>
+      </c>
+      <c r="H18" s="59">
+        <v>0</v>
+      </c>
+      <c r="I18" s="59">
+        <v>0</v>
+      </c>
+      <c r="J18" s="59">
+        <v>0</v>
+      </c>
+      <c r="K18" s="59">
+        <v>0</v>
+      </c>
+      <c r="L18" s="59">
+        <v>0</v>
+      </c>
+      <c r="M18" s="59">
+        <v>0</v>
+      </c>
+      <c r="N18" s="59">
+        <v>0</v>
+      </c>
+      <c r="O18" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="81"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="117">
-        <v>0</v>
-      </c>
-      <c r="D19" s="117">
-        <v>0</v>
-      </c>
-      <c r="E19" s="117">
-        <v>0</v>
-      </c>
-      <c r="F19" s="117">
-        <v>0</v>
-      </c>
-      <c r="G19" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="117">
-        <v>0</v>
-      </c>
-      <c r="I19" s="117">
-        <v>0</v>
-      </c>
-      <c r="J19" s="117">
-        <v>0</v>
-      </c>
-      <c r="K19" s="117">
-        <v>0</v>
-      </c>
-      <c r="L19" s="117">
-        <v>0</v>
-      </c>
-      <c r="M19" s="117">
-        <v>0</v>
-      </c>
-      <c r="N19" s="117">
-        <v>0</v>
-      </c>
-      <c r="O19" s="117">
+      <c r="C19" s="59">
+        <v>0</v>
+      </c>
+      <c r="D19" s="59">
+        <v>0</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0</v>
+      </c>
+      <c r="F19" s="59">
+        <v>0</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="59">
+        <v>0</v>
+      </c>
+      <c r="I19" s="59">
+        <v>0</v>
+      </c>
+      <c r="J19" s="59">
+        <v>0</v>
+      </c>
+      <c r="K19" s="59">
+        <v>0</v>
+      </c>
+      <c r="L19" s="59">
+        <v>0</v>
+      </c>
+      <c r="M19" s="59">
+        <v>0</v>
+      </c>
+      <c r="N19" s="59">
+        <v>0</v>
+      </c>
+      <c r="O19" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="81"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="117">
-        <v>0</v>
-      </c>
-      <c r="D20" s="117">
-        <v>0</v>
-      </c>
-      <c r="E20" s="117">
-        <v>0</v>
-      </c>
-      <c r="F20" s="117">
-        <v>0</v>
-      </c>
-      <c r="G20" s="117">
-        <v>0</v>
-      </c>
-      <c r="H20" s="117">
-        <v>0</v>
-      </c>
-      <c r="I20" s="117">
-        <v>0</v>
-      </c>
-      <c r="J20" s="117">
-        <v>0</v>
-      </c>
-      <c r="K20" s="117">
-        <v>0</v>
-      </c>
-      <c r="L20" s="117">
-        <v>0</v>
-      </c>
-      <c r="M20" s="117">
-        <v>0</v>
-      </c>
-      <c r="N20" s="117">
-        <v>0</v>
-      </c>
-      <c r="O20" s="117" t="s">
+      <c r="C20" s="59">
+        <v>0</v>
+      </c>
+      <c r="D20" s="59">
+        <v>0</v>
+      </c>
+      <c r="E20" s="59">
+        <v>0</v>
+      </c>
+      <c r="F20" s="59">
+        <v>0</v>
+      </c>
+      <c r="G20" s="59">
+        <v>0</v>
+      </c>
+      <c r="H20" s="59">
+        <v>0</v>
+      </c>
+      <c r="I20" s="59">
+        <v>0</v>
+      </c>
+      <c r="J20" s="59">
+        <v>0</v>
+      </c>
+      <c r="K20" s="59">
+        <v>0</v>
+      </c>
+      <c r="L20" s="59">
+        <v>0</v>
+      </c>
+      <c r="M20" s="59">
+        <v>0</v>
+      </c>
+      <c r="N20" s="59">
+        <v>0</v>
+      </c>
+      <c r="O20" s="59" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="81"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="117">
-        <v>0</v>
-      </c>
-      <c r="D21" s="117">
-        <v>0</v>
-      </c>
-      <c r="E21" s="117">
-        <v>0</v>
-      </c>
-      <c r="F21" s="117">
-        <v>0</v>
-      </c>
-      <c r="G21" s="117">
-        <v>0</v>
-      </c>
-      <c r="H21" s="117">
-        <v>0</v>
-      </c>
-      <c r="I21" s="117">
-        <v>0</v>
-      </c>
-      <c r="J21" s="117">
-        <v>0</v>
-      </c>
-      <c r="K21" s="117">
-        <v>0</v>
-      </c>
-      <c r="L21" s="117">
-        <v>0</v>
-      </c>
-      <c r="M21" s="117">
-        <v>0</v>
-      </c>
-      <c r="N21" s="117">
-        <v>0</v>
-      </c>
-      <c r="O21" s="117" t="s">
+      <c r="C21" s="59">
+        <v>0</v>
+      </c>
+      <c r="D21" s="59">
+        <v>0</v>
+      </c>
+      <c r="E21" s="59">
+        <v>0</v>
+      </c>
+      <c r="F21" s="59">
+        <v>0</v>
+      </c>
+      <c r="G21" s="59">
+        <v>0</v>
+      </c>
+      <c r="H21" s="59">
+        <v>0</v>
+      </c>
+      <c r="I21" s="59">
+        <v>0</v>
+      </c>
+      <c r="J21" s="59">
+        <v>0</v>
+      </c>
+      <c r="K21" s="59">
+        <v>0</v>
+      </c>
+      <c r="L21" s="59">
+        <v>0</v>
+      </c>
+      <c r="M21" s="59">
+        <v>0</v>
+      </c>
+      <c r="N21" s="59">
+        <v>0</v>
+      </c>
+      <c r="O21" s="59" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="81"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="117">
-        <v>0</v>
-      </c>
-      <c r="D22" s="117">
-        <v>0</v>
-      </c>
-      <c r="E22" s="117">
-        <v>0</v>
-      </c>
-      <c r="F22" s="117">
-        <v>0</v>
-      </c>
-      <c r="G22" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="117">
-        <v>0</v>
-      </c>
-      <c r="I22" s="117">
-        <v>0</v>
-      </c>
-      <c r="J22" s="117">
-        <v>0</v>
-      </c>
-      <c r="K22" s="117">
-        <v>0</v>
-      </c>
-      <c r="L22" s="117">
-        <v>0</v>
-      </c>
-      <c r="M22" s="117">
-        <v>0</v>
-      </c>
-      <c r="N22" s="117">
-        <v>0</v>
-      </c>
-      <c r="O22" s="117">
+      <c r="C22" s="59">
+        <v>0</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0</v>
+      </c>
+      <c r="E22" s="59">
+        <v>0</v>
+      </c>
+      <c r="F22" s="59">
+        <v>0</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="59">
+        <v>0</v>
+      </c>
+      <c r="I22" s="59">
+        <v>0</v>
+      </c>
+      <c r="J22" s="59">
+        <v>0</v>
+      </c>
+      <c r="K22" s="59">
+        <v>0</v>
+      </c>
+      <c r="L22" s="59">
+        <v>0</v>
+      </c>
+      <c r="M22" s="59">
+        <v>0</v>
+      </c>
+      <c r="N22" s="59">
+        <v>0</v>
+      </c>
+      <c r="O22" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="81"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="81"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="117">
-        <v>0</v>
-      </c>
-      <c r="E24" s="117">
-        <v>0</v>
-      </c>
-      <c r="F24" s="117">
-        <v>0</v>
-      </c>
-      <c r="G24" s="117">
-        <v>0</v>
-      </c>
-      <c r="H24" s="117">
-        <v>0</v>
-      </c>
-      <c r="I24" s="117">
-        <v>0</v>
-      </c>
-      <c r="J24" s="117">
-        <v>0</v>
-      </c>
-      <c r="K24" s="117">
-        <v>0</v>
-      </c>
-      <c r="L24" s="117">
-        <v>0</v>
-      </c>
-      <c r="M24" s="117">
-        <v>0</v>
-      </c>
-      <c r="N24" s="117">
-        <v>0</v>
-      </c>
-      <c r="O24" s="117">
+      <c r="C24" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="59">
+        <v>0</v>
+      </c>
+      <c r="E24" s="59">
+        <v>0</v>
+      </c>
+      <c r="F24" s="59">
+        <v>0</v>
+      </c>
+      <c r="G24" s="59">
+        <v>0</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0</v>
+      </c>
+      <c r="I24" s="59">
+        <v>0</v>
+      </c>
+      <c r="J24" s="59">
+        <v>0</v>
+      </c>
+      <c r="K24" s="59">
+        <v>0</v>
+      </c>
+      <c r="L24" s="59">
+        <v>0</v>
+      </c>
+      <c r="M24" s="59">
+        <v>0</v>
+      </c>
+      <c r="N24" s="59">
+        <v>0</v>
+      </c>
+      <c r="O24" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="81"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="117">
-        <v>0</v>
-      </c>
-      <c r="E25" s="117">
-        <v>0</v>
-      </c>
-      <c r="F25" s="117">
-        <v>0</v>
-      </c>
-      <c r="G25" s="117">
-        <v>0</v>
-      </c>
-      <c r="H25" s="117">
-        <v>0</v>
-      </c>
-      <c r="I25" s="117">
-        <v>0</v>
-      </c>
-      <c r="J25" s="117">
-        <v>0</v>
-      </c>
-      <c r="K25" s="117">
-        <v>0</v>
-      </c>
-      <c r="L25" s="117">
-        <v>0</v>
-      </c>
-      <c r="M25" s="117">
-        <v>0</v>
-      </c>
-      <c r="N25" s="117">
-        <v>0</v>
-      </c>
-      <c r="O25" s="117">
+      <c r="C25" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0</v>
+      </c>
+      <c r="F25" s="59">
+        <v>0</v>
+      </c>
+      <c r="G25" s="59">
+        <v>0</v>
+      </c>
+      <c r="H25" s="59">
+        <v>0</v>
+      </c>
+      <c r="I25" s="59">
+        <v>0</v>
+      </c>
+      <c r="J25" s="59">
+        <v>0</v>
+      </c>
+      <c r="K25" s="59">
+        <v>0</v>
+      </c>
+      <c r="L25" s="59">
+        <v>0</v>
+      </c>
+      <c r="M25" s="59">
+        <v>0</v>
+      </c>
+      <c r="N25" s="59">
+        <v>0</v>
+      </c>
+      <c r="O25" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="81"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
@@ -6731,7 +6734,7 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="81"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
@@ -6750,7 +6753,7 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="81"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
@@ -6769,7 +6772,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="18" t="s">
         <v>36</v>
       </c>
@@ -6788,7 +6791,7 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="81"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
@@ -6807,7 +6810,7 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="81"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
@@ -6826,7 +6829,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="81"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
@@ -6845,7 +6848,7 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="81"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
@@ -6864,7 +6867,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="81"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
@@ -6883,7 +6886,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="81"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
@@ -6902,7 +6905,7 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="81"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
@@ -6921,7 +6924,7 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="81"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="18" t="s">
         <v>44</v>
       </c>
@@ -6940,7 +6943,7 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="81"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
@@ -6959,7 +6962,7 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="81"/>
+      <c r="A39" s="89"/>
       <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
@@ -6978,7 +6981,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="81"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
@@ -6997,7 +7000,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="81"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="18" t="s">
         <v>48</v>
       </c>
@@ -7016,7 +7019,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="81"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="18" t="s">
         <v>49</v>
       </c>
@@ -7035,7 +7038,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="81"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
@@ -7054,7 +7057,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="81"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="18" t="s">
         <v>51</v>
       </c>
@@ -7073,7 +7076,7 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="81"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="18" t="s">
         <v>52</v>
       </c>
@@ -7092,7 +7095,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="81"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
@@ -7111,7 +7114,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="81"/>
+      <c r="A47" s="89"/>
       <c r="B47" s="18" t="s">
         <v>54</v>
       </c>
@@ -7130,444 +7133,938 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="81"/>
+      <c r="A48" s="89"/>
       <c r="B48" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="81"/>
+      <c r="A49" s="89"/>
       <c r="B49" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="C49" s="59">
+        <v>0</v>
+      </c>
+      <c r="D49" s="59">
+        <v>0</v>
+      </c>
+      <c r="E49" s="59">
+        <v>0</v>
+      </c>
+      <c r="F49" s="59">
+        <v>0</v>
+      </c>
+      <c r="G49" s="59">
+        <v>0</v>
+      </c>
+      <c r="H49" s="59">
+        <v>0</v>
+      </c>
+      <c r="I49" s="59">
+        <v>0</v>
+      </c>
+      <c r="J49" s="59">
+        <v>0</v>
+      </c>
+      <c r="K49" s="59">
+        <v>0</v>
+      </c>
+      <c r="L49" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M49" s="59">
+        <v>0</v>
+      </c>
+      <c r="N49" s="59">
+        <v>0</v>
+      </c>
+      <c r="O49" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="81"/>
+      <c r="A50" s="89"/>
       <c r="B50" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="C50" s="59">
+        <v>0</v>
+      </c>
+      <c r="D50" s="59">
+        <v>0</v>
+      </c>
+      <c r="E50" s="59">
+        <v>0</v>
+      </c>
+      <c r="F50" s="59">
+        <v>0</v>
+      </c>
+      <c r="G50" s="59">
+        <v>0</v>
+      </c>
+      <c r="H50" s="59">
+        <v>0</v>
+      </c>
+      <c r="I50" s="59">
+        <v>0</v>
+      </c>
+      <c r="J50" s="59">
+        <v>0</v>
+      </c>
+      <c r="K50" s="59">
+        <v>0</v>
+      </c>
+      <c r="L50" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M50" s="59">
+        <v>0</v>
+      </c>
+      <c r="N50" s="59">
+        <v>0</v>
+      </c>
+      <c r="O50" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="81"/>
+      <c r="A51" s="89"/>
       <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="C51" s="59">
+        <v>0</v>
+      </c>
+      <c r="D51" s="59">
+        <v>0</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0</v>
+      </c>
+      <c r="F51" s="59">
+        <v>0</v>
+      </c>
+      <c r="G51" s="59">
+        <v>0</v>
+      </c>
+      <c r="H51" s="59">
+        <v>0</v>
+      </c>
+      <c r="I51" s="59">
+        <v>0</v>
+      </c>
+      <c r="J51" s="59">
+        <v>0</v>
+      </c>
+      <c r="K51" s="59">
+        <v>0</v>
+      </c>
+      <c r="L51" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M51" s="59">
+        <v>0</v>
+      </c>
+      <c r="N51" s="59">
+        <v>0</v>
+      </c>
+      <c r="O51" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="81"/>
+      <c r="A52" s="89"/>
       <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="C52" s="59">
+        <v>0</v>
+      </c>
+      <c r="D52" s="59">
+        <v>0</v>
+      </c>
+      <c r="E52" s="59">
+        <v>0</v>
+      </c>
+      <c r="F52" s="59">
+        <v>0</v>
+      </c>
+      <c r="G52" s="59">
+        <v>0</v>
+      </c>
+      <c r="H52" s="59">
+        <v>0</v>
+      </c>
+      <c r="I52" s="59">
+        <v>0</v>
+      </c>
+      <c r="J52" s="59">
+        <v>0</v>
+      </c>
+      <c r="K52" s="59">
+        <v>0</v>
+      </c>
+      <c r="L52" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M52" s="59">
+        <v>0</v>
+      </c>
+      <c r="N52" s="59">
+        <v>0</v>
+      </c>
+      <c r="O52" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="81"/>
+      <c r="A53" s="89"/>
       <c r="B53" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="C53" s="59">
+        <v>0</v>
+      </c>
+      <c r="D53" s="59">
+        <v>0</v>
+      </c>
+      <c r="E53" s="59">
+        <v>0</v>
+      </c>
+      <c r="F53" s="59">
+        <v>0</v>
+      </c>
+      <c r="G53" s="59">
+        <v>0</v>
+      </c>
+      <c r="H53" s="59">
+        <v>0</v>
+      </c>
+      <c r="I53" s="59">
+        <v>0</v>
+      </c>
+      <c r="J53" s="59">
+        <v>0</v>
+      </c>
+      <c r="K53" s="59">
+        <v>0</v>
+      </c>
+      <c r="L53" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M53" s="59">
+        <v>0</v>
+      </c>
+      <c r="N53" s="59">
+        <v>0</v>
+      </c>
+      <c r="O53" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="81"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="C54" s="59">
+        <v>0</v>
+      </c>
+      <c r="D54" s="59">
+        <v>0</v>
+      </c>
+      <c r="E54" s="59">
+        <v>0</v>
+      </c>
+      <c r="F54" s="59">
+        <v>0</v>
+      </c>
+      <c r="G54" s="59">
+        <v>0</v>
+      </c>
+      <c r="H54" s="59">
+        <v>0</v>
+      </c>
+      <c r="I54" s="59">
+        <v>0</v>
+      </c>
+      <c r="J54" s="59">
+        <v>0</v>
+      </c>
+      <c r="K54" s="59">
+        <v>0</v>
+      </c>
+      <c r="L54" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M54" s="59">
+        <v>0</v>
+      </c>
+      <c r="N54" s="59">
+        <v>0</v>
+      </c>
+      <c r="O54" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="81"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
     </row>
     <row r="56" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="81"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="C56" s="59">
+        <v>0</v>
+      </c>
+      <c r="D56" s="59">
+        <v>0</v>
+      </c>
+      <c r="E56" s="59">
+        <v>0</v>
+      </c>
+      <c r="F56" s="59">
+        <v>0</v>
+      </c>
+      <c r="G56" s="59">
+        <v>0</v>
+      </c>
+      <c r="H56" s="59">
+        <v>0</v>
+      </c>
+      <c r="I56" s="59">
+        <v>0</v>
+      </c>
+      <c r="J56" s="59">
+        <v>0</v>
+      </c>
+      <c r="K56" s="59">
+        <v>0</v>
+      </c>
+      <c r="L56" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M56" s="59">
+        <v>0</v>
+      </c>
+      <c r="N56" s="59">
+        <v>0</v>
+      </c>
+      <c r="O56" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="81"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="C57" s="59">
+        <v>0</v>
+      </c>
+      <c r="D57" s="59">
+        <v>0</v>
+      </c>
+      <c r="E57" s="59">
+        <v>0</v>
+      </c>
+      <c r="F57" s="59">
+        <v>0</v>
+      </c>
+      <c r="G57" s="59">
+        <v>0</v>
+      </c>
+      <c r="H57" s="59">
+        <v>0</v>
+      </c>
+      <c r="I57" s="59">
+        <v>0</v>
+      </c>
+      <c r="J57" s="59">
+        <v>0</v>
+      </c>
+      <c r="K57" s="59">
+        <v>0</v>
+      </c>
+      <c r="L57" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M57" s="59">
+        <v>0</v>
+      </c>
+      <c r="N57" s="59">
+        <v>0</v>
+      </c>
+      <c r="O57" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="81"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="C58" s="59">
+        <v>0</v>
+      </c>
+      <c r="D58" s="59">
+        <v>0</v>
+      </c>
+      <c r="E58" s="59">
+        <v>0</v>
+      </c>
+      <c r="F58" s="59">
+        <v>0</v>
+      </c>
+      <c r="G58" s="59">
+        <v>0</v>
+      </c>
+      <c r="H58" s="59">
+        <v>0</v>
+      </c>
+      <c r="I58" s="59">
+        <v>0</v>
+      </c>
+      <c r="J58" s="59">
+        <v>0</v>
+      </c>
+      <c r="K58" s="59">
+        <v>0</v>
+      </c>
+      <c r="L58" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M58" s="59">
+        <v>0</v>
+      </c>
+      <c r="N58" s="59">
+        <v>0</v>
+      </c>
+      <c r="O58" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="81"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
+      <c r="C59" s="59">
+        <v>0</v>
+      </c>
+      <c r="D59" s="59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="59">
+        <v>0</v>
+      </c>
+      <c r="F59" s="59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="59">
+        <v>0</v>
+      </c>
+      <c r="J59" s="59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M59" s="59">
+        <v>0</v>
+      </c>
+      <c r="N59" s="59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="81"/>
+      <c r="A60" s="89"/>
       <c r="B60" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
+      <c r="C60" s="59">
+        <v>0</v>
+      </c>
+      <c r="D60" s="59">
+        <v>0</v>
+      </c>
+      <c r="E60" s="59">
+        <v>0</v>
+      </c>
+      <c r="F60" s="59">
+        <v>0</v>
+      </c>
+      <c r="G60" s="59">
+        <v>0</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="I60" s="59">
+        <v>0</v>
+      </c>
+      <c r="J60" s="59">
+        <v>0</v>
+      </c>
+      <c r="K60" s="59">
+        <v>0</v>
+      </c>
+      <c r="L60" s="59">
+        <v>0</v>
+      </c>
+      <c r="M60" s="59">
+        <v>0</v>
+      </c>
+      <c r="N60" s="59">
+        <v>0</v>
+      </c>
+      <c r="O60" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="81"/>
+      <c r="A61" s="89"/>
       <c r="B61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
+      <c r="C61" s="59">
+        <v>0</v>
+      </c>
+      <c r="D61" s="59">
+        <v>0</v>
+      </c>
+      <c r="E61" s="59">
+        <v>0</v>
+      </c>
+      <c r="F61" s="59">
+        <v>0</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" s="59">
+        <v>0</v>
+      </c>
+      <c r="I61" s="59">
+        <v>0</v>
+      </c>
+      <c r="J61" s="59">
+        <v>0</v>
+      </c>
+      <c r="K61" s="59">
+        <v>0</v>
+      </c>
+      <c r="L61" s="59">
+        <v>0</v>
+      </c>
+      <c r="M61" s="59">
+        <v>0</v>
+      </c>
+      <c r="N61" s="59">
+        <v>0</v>
+      </c>
+      <c r="O61" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="81"/>
+      <c r="A62" s="89"/>
       <c r="B62" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="81"/>
+      <c r="A63" s="89"/>
       <c r="B63" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
     </row>
     <row r="64" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="81"/>
+      <c r="A64" s="89"/>
       <c r="B64" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
+      <c r="C64" s="59">
+        <v>0</v>
+      </c>
+      <c r="D64" s="59">
+        <v>0</v>
+      </c>
+      <c r="E64" s="59">
+        <v>0</v>
+      </c>
+      <c r="F64" s="59">
+        <v>0</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="59">
+        <v>0</v>
+      </c>
+      <c r="I64" s="59">
+        <v>0</v>
+      </c>
+      <c r="J64" s="59">
+        <v>0</v>
+      </c>
+      <c r="K64" s="59">
+        <v>0</v>
+      </c>
+      <c r="L64" s="59">
+        <v>0</v>
+      </c>
+      <c r="M64" s="59">
+        <v>0</v>
+      </c>
+      <c r="N64" s="59">
+        <v>0</v>
+      </c>
+      <c r="O64" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="81"/>
+      <c r="A65" s="89"/>
       <c r="B65" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
+      <c r="C65" s="59">
+        <v>0</v>
+      </c>
+      <c r="D65" s="59">
+        <v>0</v>
+      </c>
+      <c r="E65" s="59">
+        <v>0</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G65" s="59">
+        <v>0</v>
+      </c>
+      <c r="H65" s="59">
+        <v>0</v>
+      </c>
+      <c r="I65" s="59">
+        <v>0</v>
+      </c>
+      <c r="J65" s="59">
+        <v>0</v>
+      </c>
+      <c r="K65" s="59">
+        <v>0</v>
+      </c>
+      <c r="L65" s="59">
+        <v>0</v>
+      </c>
+      <c r="M65" s="59">
+        <v>0</v>
+      </c>
+      <c r="N65" s="59">
+        <v>0</v>
+      </c>
+      <c r="O65" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="81"/>
+      <c r="A66" s="89"/>
       <c r="B66" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
+      <c r="C66" s="59">
+        <v>0</v>
+      </c>
+      <c r="D66" s="59">
+        <v>0</v>
+      </c>
+      <c r="E66" s="59">
+        <v>0</v>
+      </c>
+      <c r="F66" s="59">
+        <v>0</v>
+      </c>
+      <c r="G66" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66" s="59">
+        <v>0</v>
+      </c>
+      <c r="I66" s="59">
+        <v>0</v>
+      </c>
+      <c r="J66" s="59">
+        <v>0</v>
+      </c>
+      <c r="K66" s="59">
+        <v>0</v>
+      </c>
+      <c r="L66" s="59">
+        <v>0</v>
+      </c>
+      <c r="M66" s="59">
+        <v>0</v>
+      </c>
+      <c r="N66" s="59">
+        <v>0</v>
+      </c>
+      <c r="O66" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="81"/>
+      <c r="A67" s="89"/>
       <c r="B67" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
+      <c r="C67" s="59">
+        <v>0</v>
+      </c>
+      <c r="D67" s="59">
+        <v>0</v>
+      </c>
+      <c r="E67" s="59">
+        <v>0</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67" s="59">
+        <v>0</v>
+      </c>
+      <c r="H67" s="59">
+        <v>0</v>
+      </c>
+      <c r="I67" s="59">
+        <v>0</v>
+      </c>
+      <c r="J67" s="59">
+        <v>0</v>
+      </c>
+      <c r="K67" s="59">
+        <v>0</v>
+      </c>
+      <c r="L67" s="59">
+        <v>0</v>
+      </c>
+      <c r="M67" s="59">
+        <v>0</v>
+      </c>
+      <c r="N67" s="59">
+        <v>0</v>
+      </c>
+      <c r="O67" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="81"/>
+      <c r="A68" s="89"/>
       <c r="B68" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
+      <c r="C68" s="59">
+        <v>0</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" s="122">
+        <v>0</v>
+      </c>
+      <c r="F68" s="122">
+        <v>0</v>
+      </c>
+      <c r="G68" s="122">
+        <v>0</v>
+      </c>
+      <c r="H68" s="122">
+        <v>0</v>
+      </c>
+      <c r="I68" s="122">
+        <v>0</v>
+      </c>
+      <c r="J68" s="122">
+        <v>0</v>
+      </c>
+      <c r="K68" s="122">
+        <v>0</v>
+      </c>
+      <c r="L68" s="122">
+        <v>0</v>
+      </c>
+      <c r="M68" s="122">
+        <v>0</v>
+      </c>
+      <c r="N68" s="122">
+        <v>0</v>
+      </c>
+      <c r="O68" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="81"/>
+      <c r="A69" s="89"/>
       <c r="B69" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
+      <c r="C69" s="59">
+        <v>0</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" s="122">
+        <v>0</v>
+      </c>
+      <c r="F69" s="122">
+        <v>0</v>
+      </c>
+      <c r="G69" s="122">
+        <v>0</v>
+      </c>
+      <c r="H69" s="122">
+        <v>0</v>
+      </c>
+      <c r="I69" s="122">
+        <v>0</v>
+      </c>
+      <c r="J69" s="122">
+        <v>0</v>
+      </c>
+      <c r="K69" s="122">
+        <v>0</v>
+      </c>
+      <c r="L69" s="122">
+        <v>0</v>
+      </c>
+      <c r="M69" s="122">
+        <v>0</v>
+      </c>
+      <c r="N69" s="122">
+        <v>0</v>
+      </c>
+      <c r="O69" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="81"/>
+      <c r="A70" s="89"/>
       <c r="B70" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="C70" s="59">
+        <v>0</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="122">
+        <v>0</v>
+      </c>
+      <c r="F70" s="122">
+        <v>0</v>
+      </c>
+      <c r="G70" s="122">
+        <v>0</v>
+      </c>
+      <c r="H70" s="122">
+        <v>0</v>
+      </c>
+      <c r="I70" s="122">
+        <v>0</v>
+      </c>
+      <c r="J70" s="122">
+        <v>0</v>
+      </c>
+      <c r="K70" s="122">
+        <v>0</v>
+      </c>
+      <c r="L70" s="122">
+        <v>0</v>
+      </c>
+      <c r="M70" s="122">
+        <v>0</v>
+      </c>
+      <c r="N70" s="122">
+        <v>0</v>
+      </c>
+      <c r="O70" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="81"/>
+      <c r="A71" s="89"/>
       <c r="B71" s="19" t="s">
         <v>78</v>
       </c>
@@ -7586,7 +8083,7 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="81"/>
+      <c r="A72" s="89"/>
       <c r="B72" s="19" t="s">
         <v>79</v>
       </c>
@@ -7605,7 +8102,7 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="81"/>
+      <c r="A73" s="89"/>
       <c r="B73" s="19" t="s">
         <v>80</v>
       </c>
@@ -7624,7 +8121,7 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="81"/>
+      <c r="A74" s="89"/>
       <c r="B74" s="19" t="s">
         <v>81</v>
       </c>
@@ -7643,7 +8140,7 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="81"/>
+      <c r="A75" s="89"/>
       <c r="B75" s="19" t="s">
         <v>82</v>
       </c>
@@ -7662,7 +8159,7 @@
       <c r="O75" s="14"/>
     </row>
     <row r="76" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="81"/>
+      <c r="A76" s="89"/>
       <c r="B76" s="19" t="s">
         <v>83</v>
       </c>
@@ -7681,7 +8178,7 @@
       <c r="O76" s="14"/>
     </row>
     <row r="77" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="81"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="19" t="s">
         <v>84</v>
       </c>
@@ -7700,7 +8197,7 @@
       <c r="O77" s="14"/>
     </row>
     <row r="78" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="81"/>
+      <c r="A78" s="89"/>
       <c r="B78" s="19" t="s">
         <v>85</v>
       </c>
@@ -7719,7 +8216,7 @@
       <c r="O78" s="14"/>
     </row>
     <row r="79" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="81"/>
+      <c r="A79" s="89"/>
       <c r="B79" s="19" t="s">
         <v>86</v>
       </c>
@@ -7738,7 +8235,7 @@
       <c r="O79" s="14"/>
     </row>
     <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="81"/>
+      <c r="A80" s="89"/>
       <c r="B80" s="19" t="s">
         <v>87</v>
       </c>
@@ -7757,7 +8254,7 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="81"/>
+      <c r="A81" s="89"/>
       <c r="B81" s="19" t="s">
         <v>88</v>
       </c>
@@ -7776,7 +8273,7 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="81"/>
+      <c r="A82" s="89"/>
       <c r="B82" s="19" t="s">
         <v>89</v>
       </c>
@@ -7795,7 +8292,7 @@
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="81"/>
+      <c r="A83" s="89"/>
       <c r="B83" s="19" t="s">
         <v>90</v>
       </c>
@@ -7814,7 +8311,7 @@
       <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="81"/>
+      <c r="A84" s="89"/>
       <c r="B84" s="19" t="s">
         <v>91</v>
       </c>
@@ -7833,7 +8330,7 @@
       <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="81"/>
+      <c r="A85" s="89"/>
       <c r="B85" s="19" t="s">
         <v>92</v>
       </c>
@@ -7852,7 +8349,7 @@
       <c r="O85" s="3"/>
     </row>
     <row r="86" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="81"/>
+      <c r="A86" s="89"/>
       <c r="B86" s="19" t="s">
         <v>93</v>
       </c>
@@ -7871,7 +8368,7 @@
       <c r="O86" s="14"/>
     </row>
     <row r="87" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="81"/>
+      <c r="A87" s="89"/>
       <c r="B87" s="19" t="s">
         <v>94</v>
       </c>
@@ -7890,7 +8387,7 @@
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="81"/>
+      <c r="A88" s="89"/>
       <c r="B88" s="19" t="s">
         <v>95</v>
       </c>
@@ -7909,7 +8406,7 @@
       <c r="O88" s="3"/>
     </row>
     <row r="89" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="81"/>
+      <c r="A89" s="89"/>
       <c r="B89" s="19" t="s">
         <v>96</v>
       </c>
@@ -7928,7 +8425,7 @@
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="81"/>
+      <c r="A90" s="89"/>
       <c r="B90" s="19" t="s">
         <v>97</v>
       </c>
@@ -7947,7 +8444,7 @@
       <c r="O90" s="14"/>
     </row>
     <row r="91" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="81"/>
+      <c r="A91" s="89"/>
       <c r="B91" s="19" t="s">
         <v>98</v>
       </c>
@@ -7966,7 +8463,7 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="81"/>
+      <c r="A92" s="89"/>
       <c r="B92" s="19" t="s">
         <v>99</v>
       </c>
@@ -7985,7 +8482,7 @@
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="81"/>
+      <c r="A93" s="89"/>
       <c r="B93" s="19" t="s">
         <v>100</v>
       </c>
@@ -8004,7 +8501,7 @@
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="81"/>
+      <c r="A94" s="89"/>
       <c r="B94" s="19" t="s">
         <v>101</v>
       </c>
@@ -8023,7 +8520,7 @@
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="81"/>
+      <c r="A95" s="89"/>
       <c r="B95" s="19" t="s">
         <v>102</v>
       </c>
@@ -8042,7 +8539,7 @@
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="81"/>
+      <c r="A96" s="89"/>
       <c r="B96" s="19" t="s">
         <v>103</v>
       </c>
@@ -8061,7 +8558,7 @@
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="81"/>
+      <c r="A97" s="89"/>
       <c r="B97" s="19" t="s">
         <v>104</v>
       </c>
@@ -8080,7 +8577,7 @@
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="81"/>
+      <c r="A98" s="89"/>
       <c r="B98" s="19" t="s">
         <v>105</v>
       </c>
@@ -8099,7 +8596,7 @@
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="81"/>
+      <c r="A99" s="89"/>
       <c r="B99" s="19" t="s">
         <v>106</v>
       </c>
@@ -8118,7 +8615,7 @@
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="81"/>
+      <c r="A100" s="89"/>
       <c r="B100" s="19" t="s">
         <v>107</v>
       </c>
@@ -8137,7 +8634,7 @@
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="81"/>
+      <c r="A101" s="89"/>
       <c r="B101" s="19" t="s">
         <v>108</v>
       </c>
@@ -8156,7 +8653,7 @@
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="81"/>
+      <c r="A102" s="89"/>
       <c r="B102" s="19" t="s">
         <v>109</v>
       </c>
@@ -8175,7 +8672,7 @@
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="81"/>
+      <c r="A103" s="89"/>
       <c r="B103" s="19" t="s">
         <v>110</v>
       </c>
@@ -8194,7 +8691,7 @@
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="81"/>
+      <c r="A104" s="89"/>
       <c r="B104" s="19" t="s">
         <v>111</v>
       </c>
@@ -8213,7 +8710,7 @@
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="81"/>
+      <c r="A105" s="89"/>
       <c r="B105" s="19" t="s">
         <v>112</v>
       </c>
@@ -8232,7 +8729,7 @@
       <c r="O105" s="3"/>
     </row>
     <row r="106" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="81"/>
+      <c r="A106" s="89"/>
       <c r="B106" s="19" t="s">
         <v>113</v>
       </c>
@@ -8251,7 +8748,7 @@
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="81"/>
+      <c r="A107" s="89"/>
       <c r="B107" s="19" t="s">
         <v>114</v>
       </c>
@@ -8270,7 +8767,7 @@
       <c r="O107" s="14"/>
     </row>
     <row r="108" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="81"/>
+      <c r="A108" s="89"/>
       <c r="B108" s="19" t="s">
         <v>115</v>
       </c>
@@ -8289,7 +8786,7 @@
       <c r="O108" s="14"/>
     </row>
     <row r="109" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="81"/>
+      <c r="A109" s="89"/>
       <c r="B109" s="19" t="s">
         <v>116</v>
       </c>
@@ -8308,7 +8805,7 @@
       <c r="O109" s="14"/>
     </row>
     <row r="110" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="81"/>
+      <c r="A110" s="89"/>
       <c r="B110" s="19" t="s">
         <v>117</v>
       </c>
@@ -8327,7 +8824,7 @@
       <c r="O110" s="14"/>
     </row>
     <row r="111" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="81"/>
+      <c r="A111" s="89"/>
       <c r="B111" s="19" t="s">
         <v>118</v>
       </c>
@@ -8346,7 +8843,7 @@
       <c r="O111" s="14"/>
     </row>
     <row r="112" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="81"/>
+      <c r="A112" s="89"/>
       <c r="B112" s="19" t="s">
         <v>119</v>
       </c>
@@ -8365,7 +8862,7 @@
       <c r="O112" s="14"/>
     </row>
     <row r="113" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="81"/>
+      <c r="A113" s="89"/>
       <c r="B113" s="19" t="s">
         <v>120</v>
       </c>
@@ -8384,7 +8881,7 @@
       <c r="O113" s="14"/>
     </row>
     <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="81"/>
+      <c r="A114" s="89"/>
       <c r="B114" s="19" t="s">
         <v>121</v>
       </c>
@@ -8403,7 +8900,7 @@
       <c r="O114" s="14"/>
     </row>
     <row r="115" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="81"/>
+      <c r="A115" s="89"/>
       <c r="B115" s="19" t="s">
         <v>122</v>
       </c>
@@ -8422,7 +8919,7 @@
       <c r="O115" s="14"/>
     </row>
     <row r="116" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="81"/>
+      <c r="A116" s="89"/>
       <c r="B116" s="19" t="s">
         <v>123</v>
       </c>
@@ -8441,7 +8938,7 @@
       <c r="O116" s="14"/>
     </row>
     <row r="117" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="81"/>
+      <c r="A117" s="89"/>
       <c r="B117" s="19" t="s">
         <v>124</v>
       </c>
@@ -8460,7 +8957,7 @@
       <c r="O117" s="14"/>
     </row>
     <row r="118" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="81"/>
+      <c r="A118" s="89"/>
       <c r="B118" s="19" t="s">
         <v>125</v>
       </c>
@@ -8505,7 +9002,7 @@
       </c>
     </row>
     <row r="119" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="81"/>
+      <c r="A119" s="89"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
@@ -8524,7 +9021,7 @@
       <c r="O119" s="14"/>
     </row>
     <row r="120" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="81"/>
+      <c r="A120" s="89"/>
       <c r="B120" s="19" t="s">
         <v>127</v>
       </c>
@@ -8569,7 +9066,7 @@
       </c>
     </row>
     <row r="121" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="81"/>
+      <c r="A121" s="89"/>
       <c r="B121" s="19" t="s">
         <v>128</v>
       </c>
@@ -8614,7 +9111,7 @@
       </c>
     </row>
     <row r="122" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="81"/>
+      <c r="A122" s="89"/>
       <c r="B122" s="19" t="s">
         <v>129</v>
       </c>
@@ -8633,7 +9130,7 @@
       <c r="O122" s="14"/>
     </row>
     <row r="123" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="81"/>
+      <c r="A123" s="89"/>
       <c r="B123" s="21" t="s">
         <v>130</v>
       </c>
@@ -8652,7 +9149,7 @@
       <c r="O123" s="14"/>
     </row>
     <row r="124" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="82"/>
+      <c r="A124" s="90"/>
       <c r="B124" s="19" t="s">
         <v>131</v>
       </c>
@@ -8714,10 +9211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DR142"/>
+  <dimension ref="A1:DS142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ12" sqref="BQ12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15"/>
@@ -8725,45 +9222,45 @@
     <col min="3" max="4" width="4.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C1" s="94" t="s">
+    <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C1" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="98" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="101" t="s">
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="103" t="s">
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="105"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
       <c r="AG1" s="52"/>
       <c r="AH1" s="52"/>
       <c r="AI1" s="52"/>
@@ -8853,9 +9350,10 @@
       <c r="DO1" s="52"/>
       <c r="DP1" s="52"/>
       <c r="DQ1" s="52"/>
-      <c r="DR1" s="53"/>
-    </row>
-    <row r="2" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
+      <c r="DR1" s="52"/>
+      <c r="DS1" s="53"/>
+    </row>
+    <row r="2" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
       <c r="C2" s="48" t="s">
         <v>11</v>
       </c>
@@ -9151,74 +9649,77 @@
         <v>109</v>
       </c>
       <c r="CW2" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CX2" s="48" t="s">
         <v>111</v>
       </c>
       <c r="CY2" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ2" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="CZ2" s="48" t="s">
+      <c r="DA2" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="DA2" s="48" t="s">
+      <c r="DB2" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="DB2" s="48" t="s">
+      <c r="DC2" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="DC2" s="48" t="s">
+      <c r="DD2" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="DD2" s="48" t="s">
+      <c r="DE2" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="DE2" s="48" t="s">
+      <c r="DF2" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="DF2" s="48" t="s">
+      <c r="DG2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="DG2" s="48" t="s">
+      <c r="DH2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="DH2" s="48" t="s">
+      <c r="DI2" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="DI2" s="48" t="s">
+      <c r="DJ2" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="DJ2" s="48" t="s">
+      <c r="DK2" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="DK2" s="48" t="s">
+      <c r="DL2" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="DL2" s="48" t="s">
+      <c r="DM2" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="DM2" s="48" t="s">
+      <c r="DN2" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="DN2" s="48" t="s">
+      <c r="DO2" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="DO2" s="48" t="s">
+      <c r="DP2" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="DP2" s="48" t="s">
+      <c r="DQ2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="DQ2" s="48" t="s">
+      <c r="DR2" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="DR2" s="48" t="s">
+      <c r="DS2" s="48" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:122" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="104" t="s">
         <v>198</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -9326,7 +9827,7 @@
       <c r="CX3" s="3"/>
       <c r="CY3" s="3"/>
       <c r="CZ3" s="3"/>
-      <c r="DA3" s="14"/>
+      <c r="DA3" s="3"/>
       <c r="DB3" s="14"/>
       <c r="DC3" s="14"/>
       <c r="DD3" s="14"/>
@@ -9337,16 +9838,17 @@
       <c r="DI3" s="14"/>
       <c r="DJ3" s="14"/>
       <c r="DK3" s="14"/>
-      <c r="DL3" s="3"/>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="3"/>
-      <c r="DO3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="3"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="3"/>
       <c r="DP3" s="14"/>
-      <c r="DQ3" s="3"/>
+      <c r="DQ3" s="14"/>
       <c r="DR3" s="3"/>
-    </row>
-    <row r="4" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="97"/>
+      <c r="DS3" s="3"/>
+    </row>
+    <row r="4" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="105"/>
       <c r="B4" s="50" t="s">
         <v>140</v>
       </c>
@@ -9452,7 +9954,7 @@
       <c r="CX4" s="3"/>
       <c r="CY4" s="3"/>
       <c r="CZ4" s="3"/>
-      <c r="DA4" s="14"/>
+      <c r="DA4" s="3"/>
       <c r="DB4" s="14"/>
       <c r="DC4" s="14"/>
       <c r="DD4" s="14"/>
@@ -9463,16 +9965,17 @@
       <c r="DI4" s="14"/>
       <c r="DJ4" s="14"/>
       <c r="DK4" s="14"/>
-      <c r="DL4" s="3"/>
-      <c r="DM4" s="14"/>
-      <c r="DN4" s="3"/>
-      <c r="DO4" s="14"/>
+      <c r="DL4" s="14"/>
+      <c r="DM4" s="3"/>
+      <c r="DN4" s="14"/>
+      <c r="DO4" s="3"/>
       <c r="DP4" s="14"/>
-      <c r="DQ4" s="3"/>
+      <c r="DQ4" s="14"/>
       <c r="DR4" s="3"/>
-    </row>
-    <row r="5" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="97"/>
+      <c r="DS4" s="3"/>
+    </row>
+    <row r="5" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="105"/>
       <c r="B5" s="50" t="s">
         <v>141</v>
       </c>
@@ -9578,7 +10081,7 @@
       <c r="CX5" s="3"/>
       <c r="CY5" s="3"/>
       <c r="CZ5" s="3"/>
-      <c r="DA5" s="14"/>
+      <c r="DA5" s="3"/>
       <c r="DB5" s="14"/>
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
@@ -9589,16 +10092,17 @@
       <c r="DI5" s="14"/>
       <c r="DJ5" s="14"/>
       <c r="DK5" s="14"/>
-      <c r="DL5" s="3"/>
-      <c r="DM5" s="14"/>
-      <c r="DN5" s="3"/>
-      <c r="DO5" s="14"/>
+      <c r="DL5" s="14"/>
+      <c r="DM5" s="3"/>
+      <c r="DN5" s="14"/>
+      <c r="DO5" s="3"/>
       <c r="DP5" s="14"/>
-      <c r="DQ5" s="3"/>
+      <c r="DQ5" s="14"/>
       <c r="DR5" s="3"/>
-    </row>
-    <row r="6" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="97"/>
+      <c r="DS5" s="3"/>
+    </row>
+    <row r="6" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="105"/>
       <c r="B6" s="50" t="s">
         <v>142</v>
       </c>
@@ -9704,7 +10208,7 @@
       <c r="CX6" s="3"/>
       <c r="CY6" s="3"/>
       <c r="CZ6" s="3"/>
-      <c r="DA6" s="14"/>
+      <c r="DA6" s="3"/>
       <c r="DB6" s="14"/>
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
@@ -9715,20 +10219,21 @@
       <c r="DI6" s="14"/>
       <c r="DJ6" s="14"/>
       <c r="DK6" s="14"/>
-      <c r="DL6" s="3"/>
-      <c r="DM6" s="14"/>
-      <c r="DN6" s="3"/>
-      <c r="DO6" s="14"/>
+      <c r="DL6" s="14"/>
+      <c r="DM6" s="3"/>
+      <c r="DN6" s="14"/>
+      <c r="DO6" s="3"/>
       <c r="DP6" s="14"/>
-      <c r="DQ6" s="3"/>
+      <c r="DQ6" s="14"/>
       <c r="DR6" s="3"/>
-    </row>
-    <row r="7" spans="1:122" s="119" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="97"/>
+      <c r="DS6" s="3"/>
+    </row>
+    <row r="7" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="105"/>
       <c r="B7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="58">
         <v>0</v>
       </c>
       <c r="D7" s="44">
@@ -9956,895 +10461,904 @@
       <c r="BZ7" s="44">
         <v>0</v>
       </c>
-      <c r="CA7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CB7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CC7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CH7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CI7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CJ7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CK7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CM7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CN7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CO7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CP7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CR7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CS7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CT7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CU7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CV7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CW7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CX7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CY7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="CZ7" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="DA7" s="118"/>
-      <c r="DB7" s="118"/>
-      <c r="DC7" s="118"/>
-      <c r="DD7" s="118"/>
-      <c r="DE7" s="118"/>
-      <c r="DF7" s="118"/>
-      <c r="DG7" s="118"/>
-      <c r="DH7" s="118"/>
-      <c r="DI7" s="118"/>
-      <c r="DJ7" s="118"/>
-      <c r="DK7" s="118"/>
-      <c r="DL7" s="117">
-        <v>0</v>
-      </c>
-      <c r="DM7" s="118"/>
-      <c r="DN7" s="117">
-        <v>0</v>
-      </c>
-      <c r="DO7" s="118"/>
-      <c r="DP7" s="118"/>
-      <c r="DQ7" s="117">
-        <v>0</v>
-      </c>
-      <c r="DR7" s="117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:122" s="119" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="97"/>
+      <c r="CA7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CR7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CS7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CT7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CU7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CV7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CW7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CY7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CZ7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="DA7" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="DB7" s="60"/>
+      <c r="DC7" s="60"/>
+      <c r="DD7" s="60"/>
+      <c r="DE7" s="60"/>
+      <c r="DF7" s="60"/>
+      <c r="DG7" s="60"/>
+      <c r="DH7" s="60"/>
+      <c r="DI7" s="60"/>
+      <c r="DJ7" s="60"/>
+      <c r="DK7" s="60"/>
+      <c r="DL7" s="60"/>
+      <c r="DM7" s="59">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="60"/>
+      <c r="DO7" s="59">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="60"/>
+      <c r="DQ7" s="60"/>
+      <c r="DR7" s="59">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="105"/>
       <c r="B8" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="58">
         <v>0</v>
       </c>
       <c r="D8" s="44">
         <v>0</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="58">
         <v>0</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
       </c>
-      <c r="G8" s="116">
+      <c r="G8" s="58">
         <v>0</v>
       </c>
       <c r="H8" s="44">
         <v>0</v>
       </c>
-      <c r="I8" s="116">
+      <c r="I8" s="58">
         <v>0</v>
       </c>
       <c r="J8" s="44">
         <v>0</v>
       </c>
-      <c r="K8" s="116">
+      <c r="K8" s="58">
         <v>0</v>
       </c>
       <c r="L8" s="44">
         <v>0</v>
       </c>
-      <c r="M8" s="116">
+      <c r="M8" s="58">
         <v>0</v>
       </c>
       <c r="N8" s="44">
         <v>0</v>
       </c>
-      <c r="O8" s="116">
+      <c r="O8" s="58">
         <v>0</v>
       </c>
       <c r="P8" s="44">
         <v>0</v>
       </c>
-      <c r="Q8" s="116">
+      <c r="Q8" s="58">
         <v>0</v>
       </c>
       <c r="R8" s="44">
         <v>0</v>
       </c>
-      <c r="S8" s="116">
+      <c r="S8" s="58">
         <v>0</v>
       </c>
       <c r="T8" s="44">
         <v>0</v>
       </c>
-      <c r="U8" s="116">
-        <v>0</v>
-      </c>
-      <c r="V8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="W8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="X8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BP8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BQ8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="117">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CW8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CX8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CY8" s="117">
-        <v>0</v>
-      </c>
-      <c r="CZ8" s="117">
-        <v>0</v>
-      </c>
-      <c r="DA8" s="118"/>
-      <c r="DB8" s="118"/>
-      <c r="DC8" s="118"/>
-      <c r="DD8" s="118"/>
-      <c r="DE8" s="118"/>
-      <c r="DF8" s="118"/>
-      <c r="DG8" s="118"/>
-      <c r="DH8" s="118"/>
-      <c r="DI8" s="118"/>
-      <c r="DJ8" s="118"/>
-      <c r="DK8" s="118"/>
-      <c r="DL8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="DM8" s="118"/>
-      <c r="DN8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="DO8" s="118"/>
-      <c r="DP8" s="118"/>
-      <c r="DQ8" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="DR8" s="117" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:122" s="119" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="97"/>
+      <c r="U8" s="58">
+        <v>0</v>
+      </c>
+      <c r="V8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="W8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="X8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="59">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="60"/>
+      <c r="DC8" s="60"/>
+      <c r="DD8" s="60"/>
+      <c r="DE8" s="60"/>
+      <c r="DF8" s="60"/>
+      <c r="DG8" s="60"/>
+      <c r="DH8" s="60"/>
+      <c r="DI8" s="60"/>
+      <c r="DJ8" s="60"/>
+      <c r="DK8" s="60"/>
+      <c r="DL8" s="60"/>
+      <c r="DM8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="DN8" s="60"/>
+      <c r="DO8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="DP8" s="60"/>
+      <c r="DQ8" s="60"/>
+      <c r="DR8" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="DS8" s="59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="105"/>
       <c r="B9" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="58" t="s">
         <v>200</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="K9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="L9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="M9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="N9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="O9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="P9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="R9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="S9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="T9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="U9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="V9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="W9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="X9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="117">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BH9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BI9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BK9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BL9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BN9" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="BO9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="117">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CS9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CT9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CV9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CW9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CX9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CY9" s="117">
-        <v>0</v>
-      </c>
-      <c r="CZ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="DA9" s="118"/>
-      <c r="DB9" s="118"/>
-      <c r="DC9" s="118"/>
-      <c r="DD9" s="118"/>
-      <c r="DE9" s="118"/>
-      <c r="DF9" s="118"/>
-      <c r="DG9" s="118"/>
-      <c r="DH9" s="118"/>
-      <c r="DI9" s="118"/>
-      <c r="DJ9" s="118"/>
-      <c r="DK9" s="118"/>
-      <c r="DL9" s="117">
-        <v>0</v>
-      </c>
-      <c r="DM9" s="118"/>
-      <c r="DN9" s="117">
-        <v>0</v>
-      </c>
-      <c r="DO9" s="118"/>
-      <c r="DP9" s="118"/>
-      <c r="DQ9" s="117">
-        <v>0</v>
-      </c>
-      <c r="DR9" s="117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="97"/>
+      <c r="E9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="R9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="S9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="T9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="V9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="W9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="X9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BK9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN9" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BO9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="59">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="60"/>
+      <c r="DC9" s="60"/>
+      <c r="DD9" s="60"/>
+      <c r="DE9" s="60"/>
+      <c r="DF9" s="60"/>
+      <c r="DG9" s="60"/>
+      <c r="DH9" s="60"/>
+      <c r="DI9" s="60"/>
+      <c r="DJ9" s="60"/>
+      <c r="DK9" s="60"/>
+      <c r="DL9" s="60"/>
+      <c r="DM9" s="59">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="60"/>
+      <c r="DO9" s="59">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="60"/>
+      <c r="DQ9" s="60"/>
+      <c r="DR9" s="59">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="105"/>
       <c r="B10" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3"/>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-      <c r="BW10" s="3"/>
-      <c r="BX10" s="3"/>
-      <c r="BY10" s="3"/>
-      <c r="BZ10" s="3"/>
-      <c r="CA10" s="3"/>
-      <c r="CB10" s="3"/>
-      <c r="CC10" s="3"/>
-      <c r="CD10" s="3"/>
-      <c r="CE10" s="3"/>
-      <c r="CF10" s="3"/>
-      <c r="CG10" s="3"/>
-      <c r="CH10" s="3"/>
-      <c r="CI10" s="3"/>
-      <c r="CJ10" s="3"/>
-      <c r="CK10" s="3"/>
-      <c r="CL10" s="3"/>
-      <c r="CM10" s="3"/>
-      <c r="CN10" s="3"/>
-      <c r="CO10" s="3"/>
-      <c r="CP10" s="3"/>
-      <c r="CQ10" s="3"/>
-      <c r="CR10" s="3"/>
-      <c r="CS10" s="3"/>
-      <c r="CT10" s="3"/>
-      <c r="CU10" s="3"/>
-      <c r="CV10" s="3"/>
-      <c r="CW10" s="3"/>
-      <c r="CX10" s="3"/>
-      <c r="CY10" s="3"/>
-      <c r="CZ10" s="3"/>
-      <c r="DA10" s="14"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="59"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="59"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="59"/>
+      <c r="BN10" s="59"/>
+      <c r="BO10" s="59"/>
+      <c r="BP10" s="59"/>
+      <c r="BQ10" s="59"/>
+      <c r="BR10" s="59"/>
+      <c r="BS10" s="59"/>
+      <c r="BT10" s="59"/>
+      <c r="BU10" s="59"/>
+      <c r="BV10" s="59"/>
+      <c r="BW10" s="59"/>
+      <c r="BX10" s="59"/>
+      <c r="BY10" s="59"/>
+      <c r="BZ10" s="59"/>
+      <c r="CA10" s="59"/>
+      <c r="CB10" s="59"/>
+      <c r="CC10" s="59"/>
+      <c r="CD10" s="59"/>
+      <c r="CE10" s="59"/>
+      <c r="CF10" s="59"/>
+      <c r="CG10" s="59"/>
+      <c r="CH10" s="59"/>
+      <c r="CI10" s="59"/>
+      <c r="CJ10" s="59"/>
+      <c r="CK10" s="59"/>
+      <c r="CL10" s="59"/>
+      <c r="CM10" s="59"/>
+      <c r="CN10" s="59"/>
+      <c r="CO10" s="59"/>
+      <c r="CP10" s="59"/>
+      <c r="CQ10" s="59"/>
+      <c r="CR10" s="59"/>
+      <c r="CS10" s="59"/>
+      <c r="CT10" s="59"/>
+      <c r="CU10" s="59"/>
+      <c r="CV10" s="59"/>
+      <c r="CW10" s="59"/>
+      <c r="CX10" s="59"/>
+      <c r="CY10" s="59"/>
+      <c r="CZ10" s="59"/>
+      <c r="DA10" s="59"/>
       <c r="DB10" s="14"/>
       <c r="DC10" s="14"/>
       <c r="DD10" s="14"/>
@@ -10855,16 +11369,17 @@
       <c r="DI10" s="14"/>
       <c r="DJ10" s="14"/>
       <c r="DK10" s="14"/>
-      <c r="DL10" s="3"/>
-      <c r="DM10" s="14"/>
-      <c r="DN10" s="3"/>
-      <c r="DO10" s="14"/>
+      <c r="DL10" s="14"/>
+      <c r="DM10" s="3"/>
+      <c r="DN10" s="14"/>
+      <c r="DO10" s="3"/>
       <c r="DP10" s="14"/>
-      <c r="DQ10" s="3"/>
+      <c r="DQ10" s="14"/>
       <c r="DR10" s="3"/>
-    </row>
-    <row r="11" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="97"/>
+      <c r="DS10" s="3"/>
+    </row>
+    <row r="11" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="105"/>
       <c r="B11" s="50" t="s">
         <v>147</v>
       </c>
@@ -10970,7 +11485,7 @@
       <c r="CX11" s="3"/>
       <c r="CY11" s="3"/>
       <c r="CZ11" s="3"/>
-      <c r="DA11" s="14"/>
+      <c r="DA11" s="3"/>
       <c r="DB11" s="14"/>
       <c r="DC11" s="14"/>
       <c r="DD11" s="14"/>
@@ -10981,122 +11496,329 @@
       <c r="DI11" s="14"/>
       <c r="DJ11" s="14"/>
       <c r="DK11" s="14"/>
-      <c r="DL11" s="3"/>
-      <c r="DM11" s="14"/>
-      <c r="DN11" s="3"/>
-      <c r="DO11" s="14"/>
+      <c r="DL11" s="14"/>
+      <c r="DM11" s="3"/>
+      <c r="DN11" s="14"/>
+      <c r="DO11" s="3"/>
       <c r="DP11" s="14"/>
-      <c r="DQ11" s="3"/>
+      <c r="DQ11" s="14"/>
       <c r="DR11" s="3"/>
-    </row>
-    <row r="12" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="97"/>
+      <c r="DS11" s="3"/>
+    </row>
+    <row r="12" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="105"/>
       <c r="B12" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="3"/>
-      <c r="BW12" s="3"/>
-      <c r="BX12" s="3"/>
-      <c r="BY12" s="3"/>
-      <c r="BZ12" s="3"/>
-      <c r="CA12" s="3"/>
-      <c r="CB12" s="3"/>
-      <c r="CC12" s="3"/>
-      <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
-      <c r="CI12" s="3"/>
-      <c r="CJ12" s="3"/>
-      <c r="CK12" s="3"/>
-      <c r="CL12" s="3"/>
-      <c r="CM12" s="3"/>
-      <c r="CN12" s="3"/>
-      <c r="CO12" s="3"/>
-      <c r="CP12" s="3"/>
-      <c r="CQ12" s="3"/>
-      <c r="CR12" s="3"/>
-      <c r="CS12" s="3"/>
-      <c r="CT12" s="3"/>
-      <c r="CU12" s="3"/>
-      <c r="CV12" s="3"/>
-      <c r="CW12" s="3"/>
-      <c r="CX12" s="3"/>
-      <c r="CY12" s="3"/>
-      <c r="CZ12" s="3"/>
-      <c r="DA12" s="14"/>
+      <c r="C12" s="59">
+        <v>0</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
+      <c r="F12" s="59">
+        <v>0</v>
+      </c>
+      <c r="G12" s="59">
+        <v>0</v>
+      </c>
+      <c r="H12" s="59">
+        <v>0</v>
+      </c>
+      <c r="I12" s="59">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59">
+        <v>0</v>
+      </c>
+      <c r="K12" s="59">
+        <v>0</v>
+      </c>
+      <c r="L12" s="59">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
+        <v>0</v>
+      </c>
+      <c r="N12" s="59">
+        <v>0</v>
+      </c>
+      <c r="O12" s="59">
+        <v>0</v>
+      </c>
+      <c r="P12" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>0</v>
+      </c>
+      <c r="R12" s="59">
+        <v>0</v>
+      </c>
+      <c r="S12" s="59">
+        <v>0</v>
+      </c>
+      <c r="T12" s="59">
+        <v>0</v>
+      </c>
+      <c r="U12" s="59">
+        <v>0</v>
+      </c>
+      <c r="V12" s="59">
+        <v>0</v>
+      </c>
+      <c r="W12" s="59">
+        <v>0</v>
+      </c>
+      <c r="X12" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CX12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CY12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CZ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="59">
+        <v>0</v>
+      </c>
       <c r="DB12" s="14"/>
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
@@ -11107,122 +11829,337 @@
       <c r="DI12" s="14"/>
       <c r="DJ12" s="14"/>
       <c r="DK12" s="14"/>
-      <c r="DL12" s="3"/>
-      <c r="DM12" s="14"/>
-      <c r="DN12" s="3"/>
-      <c r="DO12" s="14"/>
-      <c r="DP12" s="14"/>
-      <c r="DQ12" s="3"/>
-      <c r="DR12" s="3"/>
-    </row>
-    <row r="13" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="97"/>
+      <c r="DL12" s="14"/>
+      <c r="DM12" s="59">
+        <v>0</v>
+      </c>
+      <c r="DN12" s="60"/>
+      <c r="DO12" s="59">
+        <v>0</v>
+      </c>
+      <c r="DP12" s="60"/>
+      <c r="DQ12" s="60"/>
+      <c r="DR12" s="59">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="105"/>
       <c r="B13" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="3"/>
-      <c r="BZ13" s="3"/>
-      <c r="CA13" s="3"/>
-      <c r="CB13" s="3"/>
-      <c r="CC13" s="3"/>
-      <c r="CD13" s="3"/>
-      <c r="CE13" s="3"/>
-      <c r="CF13" s="3"/>
-      <c r="CG13" s="3"/>
-      <c r="CH13" s="3"/>
-      <c r="CI13" s="3"/>
-      <c r="CJ13" s="3"/>
-      <c r="CK13" s="3"/>
-      <c r="CL13" s="3"/>
-      <c r="CM13" s="3"/>
-      <c r="CN13" s="3"/>
-      <c r="CO13" s="3"/>
-      <c r="CP13" s="3"/>
-      <c r="CQ13" s="3"/>
-      <c r="CR13" s="3"/>
-      <c r="CS13" s="3"/>
-      <c r="CT13" s="3"/>
-      <c r="CU13" s="3"/>
-      <c r="CV13" s="3"/>
-      <c r="CW13" s="3"/>
-      <c r="CX13" s="3"/>
-      <c r="CY13" s="3"/>
-      <c r="CZ13" s="3"/>
-      <c r="DA13" s="14"/>
+      <c r="C13" s="59">
+        <v>0</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0</v>
+      </c>
+      <c r="F13" s="59">
+        <v>0</v>
+      </c>
+      <c r="G13" s="59">
+        <v>0</v>
+      </c>
+      <c r="H13" s="59">
+        <v>0</v>
+      </c>
+      <c r="I13" s="59">
+        <v>0</v>
+      </c>
+      <c r="J13" s="59">
+        <v>0</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0</v>
+      </c>
+      <c r="L13" s="59">
+        <v>0</v>
+      </c>
+      <c r="M13" s="59">
+        <v>0</v>
+      </c>
+      <c r="N13" s="59">
+        <v>0</v>
+      </c>
+      <c r="O13" s="59">
+        <v>0</v>
+      </c>
+      <c r="P13" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>0</v>
+      </c>
+      <c r="R13" s="59">
+        <v>0</v>
+      </c>
+      <c r="S13" s="59">
+        <v>0</v>
+      </c>
+      <c r="T13" s="59">
+        <v>0</v>
+      </c>
+      <c r="U13" s="59">
+        <v>0</v>
+      </c>
+      <c r="V13" s="59">
+        <v>0</v>
+      </c>
+      <c r="W13" s="59">
+        <v>0</v>
+      </c>
+      <c r="X13" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CW13" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="CX13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CY13" s="59">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="59">
+        <v>0</v>
+      </c>
+      <c r="DA13" s="59">
+        <v>0</v>
+      </c>
       <c r="DB13" s="14"/>
       <c r="DC13" s="14"/>
       <c r="DD13" s="14"/>
@@ -11233,16 +12170,25 @@
       <c r="DI13" s="14"/>
       <c r="DJ13" s="14"/>
       <c r="DK13" s="14"/>
-      <c r="DL13" s="3"/>
-      <c r="DM13" s="14"/>
-      <c r="DN13" s="3"/>
-      <c r="DO13" s="14"/>
-      <c r="DP13" s="14"/>
-      <c r="DQ13" s="3"/>
-      <c r="DR13" s="3"/>
-    </row>
-    <row r="14" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="97"/>
+      <c r="DL13" s="14"/>
+      <c r="DM13" s="59">
+        <v>0</v>
+      </c>
+      <c r="DN13" s="60"/>
+      <c r="DO13" s="59">
+        <v>0</v>
+      </c>
+      <c r="DP13" s="60"/>
+      <c r="DQ13" s="60"/>
+      <c r="DR13" s="59">
+        <v>0</v>
+      </c>
+      <c r="DS13" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="105"/>
       <c r="B14" s="50" t="s">
         <v>150</v>
       </c>
@@ -11348,7 +12294,7 @@
       <c r="CX14" s="3"/>
       <c r="CY14" s="3"/>
       <c r="CZ14" s="3"/>
-      <c r="DA14" s="14"/>
+      <c r="DA14" s="3"/>
       <c r="DB14" s="14"/>
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
@@ -11359,16 +12305,17 @@
       <c r="DI14" s="14"/>
       <c r="DJ14" s="14"/>
       <c r="DK14" s="14"/>
-      <c r="DL14" s="3"/>
-      <c r="DM14" s="14"/>
-      <c r="DN14" s="3"/>
-      <c r="DO14" s="14"/>
+      <c r="DL14" s="14"/>
+      <c r="DM14" s="3"/>
+      <c r="DN14" s="14"/>
+      <c r="DO14" s="3"/>
       <c r="DP14" s="14"/>
-      <c r="DQ14" s="3"/>
+      <c r="DQ14" s="14"/>
       <c r="DR14" s="3"/>
-    </row>
-    <row r="15" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="97"/>
+      <c r="DS14" s="3"/>
+    </row>
+    <row r="15" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="105"/>
       <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
@@ -11474,7 +12421,7 @@
       <c r="CX15" s="3"/>
       <c r="CY15" s="3"/>
       <c r="CZ15" s="3"/>
-      <c r="DA15" s="14"/>
+      <c r="DA15" s="3"/>
       <c r="DB15" s="14"/>
       <c r="DC15" s="14"/>
       <c r="DD15" s="14"/>
@@ -11485,16 +12432,17 @@
       <c r="DI15" s="14"/>
       <c r="DJ15" s="14"/>
       <c r="DK15" s="14"/>
-      <c r="DL15" s="3"/>
-      <c r="DM15" s="14"/>
-      <c r="DN15" s="3"/>
-      <c r="DO15" s="14"/>
+      <c r="DL15" s="14"/>
+      <c r="DM15" s="3"/>
+      <c r="DN15" s="14"/>
+      <c r="DO15" s="3"/>
       <c r="DP15" s="14"/>
-      <c r="DQ15" s="3"/>
+      <c r="DQ15" s="14"/>
       <c r="DR15" s="3"/>
-    </row>
-    <row r="16" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="97"/>
+      <c r="DS15" s="3"/>
+    </row>
+    <row r="16" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="105"/>
       <c r="B16" s="50" t="s">
         <v>152</v>
       </c>
@@ -11600,7 +12548,7 @@
       <c r="CX16" s="3"/>
       <c r="CY16" s="3"/>
       <c r="CZ16" s="3"/>
-      <c r="DA16" s="14"/>
+      <c r="DA16" s="3"/>
       <c r="DB16" s="14"/>
       <c r="DC16" s="14"/>
       <c r="DD16" s="14"/>
@@ -11611,16 +12559,17 @@
       <c r="DI16" s="14"/>
       <c r="DJ16" s="14"/>
       <c r="DK16" s="14"/>
-      <c r="DL16" s="3"/>
-      <c r="DM16" s="14"/>
-      <c r="DN16" s="3"/>
-      <c r="DO16" s="14"/>
+      <c r="DL16" s="14"/>
+      <c r="DM16" s="3"/>
+      <c r="DN16" s="14"/>
+      <c r="DO16" s="3"/>
       <c r="DP16" s="14"/>
-      <c r="DQ16" s="3"/>
+      <c r="DQ16" s="14"/>
       <c r="DR16" s="3"/>
-    </row>
-    <row r="17" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="97"/>
+      <c r="DS16" s="3"/>
+    </row>
+    <row r="17" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="105"/>
       <c r="B17" s="50" t="s">
         <v>153</v>
       </c>
@@ -11726,7 +12675,7 @@
       <c r="CX17" s="3"/>
       <c r="CY17" s="3"/>
       <c r="CZ17" s="3"/>
-      <c r="DA17" s="14"/>
+      <c r="DA17" s="3"/>
       <c r="DB17" s="14"/>
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
@@ -11737,16 +12686,17 @@
       <c r="DI17" s="14"/>
       <c r="DJ17" s="14"/>
       <c r="DK17" s="14"/>
-      <c r="DL17" s="3"/>
-      <c r="DM17" s="14"/>
-      <c r="DN17" s="3"/>
-      <c r="DO17" s="14"/>
+      <c r="DL17" s="14"/>
+      <c r="DM17" s="3"/>
+      <c r="DN17" s="14"/>
+      <c r="DO17" s="3"/>
       <c r="DP17" s="14"/>
-      <c r="DQ17" s="3"/>
+      <c r="DQ17" s="14"/>
       <c r="DR17" s="3"/>
-    </row>
-    <row r="18" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="97"/>
+      <c r="DS17" s="3"/>
+    </row>
+    <row r="18" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="105"/>
       <c r="B18" s="50" t="s">
         <v>154</v>
       </c>
@@ -11852,7 +12802,7 @@
       <c r="CX18" s="3"/>
       <c r="CY18" s="3"/>
       <c r="CZ18" s="3"/>
-      <c r="DA18" s="14"/>
+      <c r="DA18" s="3"/>
       <c r="DB18" s="14"/>
       <c r="DC18" s="14"/>
       <c r="DD18" s="14"/>
@@ -11863,16 +12813,17 @@
       <c r="DI18" s="14"/>
       <c r="DJ18" s="14"/>
       <c r="DK18" s="14"/>
-      <c r="DL18" s="3"/>
-      <c r="DM18" s="14"/>
-      <c r="DN18" s="3"/>
-      <c r="DO18" s="14"/>
+      <c r="DL18" s="14"/>
+      <c r="DM18" s="3"/>
+      <c r="DN18" s="14"/>
+      <c r="DO18" s="3"/>
       <c r="DP18" s="14"/>
-      <c r="DQ18" s="3"/>
+      <c r="DQ18" s="14"/>
       <c r="DR18" s="3"/>
-    </row>
-    <row r="19" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="97"/>
+      <c r="DS18" s="3"/>
+    </row>
+    <row r="19" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="105"/>
       <c r="B19" s="50" t="s">
         <v>155</v>
       </c>
@@ -11978,7 +12929,7 @@
       <c r="CX19" s="3"/>
       <c r="CY19" s="3"/>
       <c r="CZ19" s="3"/>
-      <c r="DA19" s="14"/>
+      <c r="DA19" s="3"/>
       <c r="DB19" s="14"/>
       <c r="DC19" s="14"/>
       <c r="DD19" s="14"/>
@@ -11989,16 +12940,17 @@
       <c r="DI19" s="14"/>
       <c r="DJ19" s="14"/>
       <c r="DK19" s="14"/>
-      <c r="DL19" s="3"/>
-      <c r="DM19" s="14"/>
-      <c r="DN19" s="3"/>
-      <c r="DO19" s="14"/>
+      <c r="DL19" s="14"/>
+      <c r="DM19" s="3"/>
+      <c r="DN19" s="14"/>
+      <c r="DO19" s="3"/>
       <c r="DP19" s="14"/>
-      <c r="DQ19" s="3"/>
+      <c r="DQ19" s="14"/>
       <c r="DR19" s="3"/>
-    </row>
-    <row r="20" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="97"/>
+      <c r="DS19" s="3"/>
+    </row>
+    <row r="20" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="105"/>
       <c r="B20" s="50" t="s">
         <v>156</v>
       </c>
@@ -12104,7 +13056,7 @@
       <c r="CX20" s="3"/>
       <c r="CY20" s="3"/>
       <c r="CZ20" s="3"/>
-      <c r="DA20" s="14"/>
+      <c r="DA20" s="3"/>
       <c r="DB20" s="14"/>
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
@@ -12115,16 +13067,17 @@
       <c r="DI20" s="14"/>
       <c r="DJ20" s="14"/>
       <c r="DK20" s="14"/>
-      <c r="DL20" s="3"/>
-      <c r="DM20" s="14"/>
-      <c r="DN20" s="3"/>
-      <c r="DO20" s="14"/>
+      <c r="DL20" s="14"/>
+      <c r="DM20" s="3"/>
+      <c r="DN20" s="14"/>
+      <c r="DO20" s="3"/>
       <c r="DP20" s="14"/>
-      <c r="DQ20" s="3"/>
+      <c r="DQ20" s="14"/>
       <c r="DR20" s="3"/>
-    </row>
-    <row r="21" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="97"/>
+      <c r="DS20" s="3"/>
+    </row>
+    <row r="21" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="105"/>
       <c r="B21" s="50" t="s">
         <v>157</v>
       </c>
@@ -12230,7 +13183,7 @@
       <c r="CX21" s="3"/>
       <c r="CY21" s="3"/>
       <c r="CZ21" s="3"/>
-      <c r="DA21" s="14"/>
+      <c r="DA21" s="3"/>
       <c r="DB21" s="14"/>
       <c r="DC21" s="14"/>
       <c r="DD21" s="14"/>
@@ -12241,16 +13194,17 @@
       <c r="DI21" s="14"/>
       <c r="DJ21" s="14"/>
       <c r="DK21" s="14"/>
-      <c r="DL21" s="3"/>
-      <c r="DM21" s="14"/>
-      <c r="DN21" s="3"/>
-      <c r="DO21" s="14"/>
+      <c r="DL21" s="14"/>
+      <c r="DM21" s="3"/>
+      <c r="DN21" s="14"/>
+      <c r="DO21" s="3"/>
       <c r="DP21" s="14"/>
-      <c r="DQ21" s="3"/>
+      <c r="DQ21" s="14"/>
       <c r="DR21" s="3"/>
-    </row>
-    <row r="22" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="97"/>
+      <c r="DS21" s="3"/>
+    </row>
+    <row r="22" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="105"/>
       <c r="B22" s="50" t="s">
         <v>158</v>
       </c>
@@ -12356,7 +13310,7 @@
       <c r="CX22" s="3"/>
       <c r="CY22" s="3"/>
       <c r="CZ22" s="3"/>
-      <c r="DA22" s="14"/>
+      <c r="DA22" s="3"/>
       <c r="DB22" s="14"/>
       <c r="DC22" s="14"/>
       <c r="DD22" s="14"/>
@@ -12367,16 +13321,17 @@
       <c r="DI22" s="14"/>
       <c r="DJ22" s="14"/>
       <c r="DK22" s="14"/>
-      <c r="DL22" s="3"/>
-      <c r="DM22" s="14"/>
-      <c r="DN22" s="3"/>
-      <c r="DO22" s="14"/>
+      <c r="DL22" s="14"/>
+      <c r="DM22" s="3"/>
+      <c r="DN22" s="14"/>
+      <c r="DO22" s="3"/>
       <c r="DP22" s="14"/>
-      <c r="DQ22" s="3"/>
+      <c r="DQ22" s="14"/>
       <c r="DR22" s="3"/>
-    </row>
-    <row r="23" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="97"/>
+      <c r="DS22" s="3"/>
+    </row>
+    <row r="23" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="105"/>
       <c r="B23" s="50" t="s">
         <v>159</v>
       </c>
@@ -12484,7 +13439,7 @@
       <c r="CX23" s="3"/>
       <c r="CY23" s="3"/>
       <c r="CZ23" s="3"/>
-      <c r="DA23" s="14"/>
+      <c r="DA23" s="3"/>
       <c r="DB23" s="14"/>
       <c r="DC23" s="14"/>
       <c r="DD23" s="14"/>
@@ -12495,16 +13450,17 @@
       <c r="DI23" s="14"/>
       <c r="DJ23" s="14"/>
       <c r="DK23" s="14"/>
-      <c r="DL23" s="3"/>
-      <c r="DM23" s="14"/>
-      <c r="DN23" s="3"/>
-      <c r="DO23" s="14"/>
+      <c r="DL23" s="14"/>
+      <c r="DM23" s="3"/>
+      <c r="DN23" s="14"/>
+      <c r="DO23" s="3"/>
       <c r="DP23" s="14"/>
-      <c r="DQ23" s="3"/>
+      <c r="DQ23" s="14"/>
       <c r="DR23" s="3"/>
-    </row>
-    <row r="24" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="97"/>
+      <c r="DS23" s="3"/>
+    </row>
+    <row r="24" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="105"/>
       <c r="B24" s="50" t="s">
         <v>160</v>
       </c>
@@ -12610,7 +13566,7 @@
       <c r="CX24" s="3"/>
       <c r="CY24" s="3"/>
       <c r="CZ24" s="3"/>
-      <c r="DA24" s="14"/>
+      <c r="DA24" s="3"/>
       <c r="DB24" s="14"/>
       <c r="DC24" s="14"/>
       <c r="DD24" s="14"/>
@@ -12621,24 +13577,25 @@
       <c r="DI24" s="14"/>
       <c r="DJ24" s="14"/>
       <c r="DK24" s="14"/>
-      <c r="DL24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DM24" s="14"/>
-      <c r="DN24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DO24" s="14"/>
+      <c r="DL24" s="14"/>
+      <c r="DM24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="DN24" s="14"/>
+      <c r="DO24" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="DP24" s="14"/>
-      <c r="DQ24" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="DQ24" s="14"/>
       <c r="DR24" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="97"/>
+      <c r="DS24" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="105"/>
       <c r="B25" s="50" t="s">
         <v>161</v>
       </c>
@@ -12746,7 +13703,7 @@
       <c r="CX25" s="3"/>
       <c r="CY25" s="3"/>
       <c r="CZ25" s="3"/>
-      <c r="DA25" s="14"/>
+      <c r="DA25" s="3"/>
       <c r="DB25" s="14"/>
       <c r="DC25" s="14"/>
       <c r="DD25" s="14"/>
@@ -12757,16 +13714,17 @@
       <c r="DI25" s="14"/>
       <c r="DJ25" s="14"/>
       <c r="DK25" s="14"/>
-      <c r="DL25" s="3"/>
-      <c r="DM25" s="14"/>
-      <c r="DN25" s="3"/>
-      <c r="DO25" s="14"/>
+      <c r="DL25" s="14"/>
+      <c r="DM25" s="3"/>
+      <c r="DN25" s="14"/>
+      <c r="DO25" s="3"/>
       <c r="DP25" s="14"/>
-      <c r="DQ25" s="3"/>
+      <c r="DQ25" s="14"/>
       <c r="DR25" s="3"/>
-    </row>
-    <row r="26" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="97"/>
+      <c r="DS25" s="3"/>
+    </row>
+    <row r="26" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="105"/>
       <c r="B26" s="50" t="s">
         <v>162</v>
       </c>
@@ -12872,7 +13830,7 @@
       <c r="CX26" s="3"/>
       <c r="CY26" s="3"/>
       <c r="CZ26" s="3"/>
-      <c r="DA26" s="14"/>
+      <c r="DA26" s="3"/>
       <c r="DB26" s="14"/>
       <c r="DC26" s="14"/>
       <c r="DD26" s="14"/>
@@ -12883,24 +13841,25 @@
       <c r="DI26" s="14"/>
       <c r="DJ26" s="14"/>
       <c r="DK26" s="14"/>
-      <c r="DL26" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DM26" s="14"/>
-      <c r="DN26" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DO26" s="14"/>
+      <c r="DL26" s="14"/>
+      <c r="DM26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="DN26" s="14"/>
+      <c r="DO26" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="DP26" s="14"/>
-      <c r="DQ26" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="DQ26" s="14"/>
       <c r="DR26" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="97"/>
+      <c r="DS26" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="105"/>
       <c r="B27" s="50" t="s">
         <v>163</v>
       </c>
@@ -13008,7 +13967,7 @@
       <c r="CX27" s="3"/>
       <c r="CY27" s="3"/>
       <c r="CZ27" s="3"/>
-      <c r="DA27" s="14"/>
+      <c r="DA27" s="3"/>
       <c r="DB27" s="14"/>
       <c r="DC27" s="14"/>
       <c r="DD27" s="14"/>
@@ -13019,16 +13978,17 @@
       <c r="DI27" s="14"/>
       <c r="DJ27" s="14"/>
       <c r="DK27" s="14"/>
-      <c r="DL27" s="3"/>
-      <c r="DM27" s="14"/>
-      <c r="DN27" s="3"/>
-      <c r="DO27" s="14"/>
+      <c r="DL27" s="14"/>
+      <c r="DM27" s="3"/>
+      <c r="DN27" s="14"/>
+      <c r="DO27" s="3"/>
       <c r="DP27" s="14"/>
-      <c r="DQ27" s="3"/>
+      <c r="DQ27" s="14"/>
       <c r="DR27" s="3"/>
-    </row>
-    <row r="28" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="97"/>
+      <c r="DS27" s="3"/>
+    </row>
+    <row r="28" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="105"/>
       <c r="B28" s="50" t="s">
         <v>164</v>
       </c>
@@ -13140,7 +14100,7 @@
       <c r="CX28" s="3"/>
       <c r="CY28" s="3"/>
       <c r="CZ28" s="3"/>
-      <c r="DA28" s="14"/>
+      <c r="DA28" s="3"/>
       <c r="DB28" s="14"/>
       <c r="DC28" s="14"/>
       <c r="DD28" s="14"/>
@@ -13151,16 +14111,17 @@
       <c r="DI28" s="14"/>
       <c r="DJ28" s="14"/>
       <c r="DK28" s="14"/>
-      <c r="DL28" s="3"/>
-      <c r="DM28" s="14"/>
-      <c r="DN28" s="3"/>
-      <c r="DO28" s="14"/>
+      <c r="DL28" s="14"/>
+      <c r="DM28" s="3"/>
+      <c r="DN28" s="14"/>
+      <c r="DO28" s="3"/>
       <c r="DP28" s="14"/>
-      <c r="DQ28" s="3"/>
+      <c r="DQ28" s="14"/>
       <c r="DR28" s="3"/>
-    </row>
-    <row r="29" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="97"/>
+      <c r="DS28" s="3"/>
+    </row>
+    <row r="29" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="105"/>
       <c r="B29" s="50" t="s">
         <v>165</v>
       </c>
@@ -13266,7 +14227,7 @@
       <c r="CX29" s="3"/>
       <c r="CY29" s="3"/>
       <c r="CZ29" s="3"/>
-      <c r="DA29" s="14"/>
+      <c r="DA29" s="3"/>
       <c r="DB29" s="14"/>
       <c r="DC29" s="14"/>
       <c r="DD29" s="14"/>
@@ -13277,16 +14238,17 @@
       <c r="DI29" s="14"/>
       <c r="DJ29" s="14"/>
       <c r="DK29" s="14"/>
-      <c r="DL29" s="3"/>
-      <c r="DM29" s="14"/>
-      <c r="DN29" s="3"/>
-      <c r="DO29" s="14"/>
+      <c r="DL29" s="14"/>
+      <c r="DM29" s="3"/>
+      <c r="DN29" s="14"/>
+      <c r="DO29" s="3"/>
       <c r="DP29" s="14"/>
-      <c r="DQ29" s="3"/>
+      <c r="DQ29" s="14"/>
       <c r="DR29" s="3"/>
-    </row>
-    <row r="30" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="97"/>
+      <c r="DS29" s="3"/>
+    </row>
+    <row r="30" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="105"/>
       <c r="B30" s="50" t="s">
         <v>166</v>
       </c>
@@ -13392,7 +14354,7 @@
       <c r="CX30" s="3"/>
       <c r="CY30" s="3"/>
       <c r="CZ30" s="3"/>
-      <c r="DA30" s="14"/>
+      <c r="DA30" s="3"/>
       <c r="DB30" s="14"/>
       <c r="DC30" s="14"/>
       <c r="DD30" s="14"/>
@@ -13403,16 +14365,17 @@
       <c r="DI30" s="14"/>
       <c r="DJ30" s="14"/>
       <c r="DK30" s="14"/>
-      <c r="DL30" s="3"/>
-      <c r="DM30" s="14"/>
-      <c r="DN30" s="3"/>
-      <c r="DO30" s="14"/>
+      <c r="DL30" s="14"/>
+      <c r="DM30" s="3"/>
+      <c r="DN30" s="14"/>
+      <c r="DO30" s="3"/>
       <c r="DP30" s="14"/>
-      <c r="DQ30" s="3"/>
+      <c r="DQ30" s="14"/>
       <c r="DR30" s="3"/>
-    </row>
-    <row r="31" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="97"/>
+      <c r="DS30" s="3"/>
+    </row>
+    <row r="31" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="105"/>
       <c r="B31" s="50" t="s">
         <v>167</v>
       </c>
@@ -13558,9 +14521,7 @@
       <c r="CV31" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="CW31" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="CW31" s="3"/>
       <c r="CX31" s="3" t="s">
         <v>200</v>
       </c>
@@ -13570,7 +14531,9 @@
       <c r="CZ31" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="DA31" s="14"/>
+      <c r="DA31" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="DB31" s="14"/>
       <c r="DC31" s="14"/>
       <c r="DD31" s="14"/>
@@ -13581,16 +14544,17 @@
       <c r="DI31" s="14"/>
       <c r="DJ31" s="14"/>
       <c r="DK31" s="14"/>
-      <c r="DL31" s="3"/>
-      <c r="DM31" s="14"/>
-      <c r="DN31" s="3"/>
-      <c r="DO31" s="14"/>
+      <c r="DL31" s="14"/>
+      <c r="DM31" s="3"/>
+      <c r="DN31" s="14"/>
+      <c r="DO31" s="3"/>
       <c r="DP31" s="14"/>
-      <c r="DQ31" s="3"/>
+      <c r="DQ31" s="14"/>
       <c r="DR31" s="3"/>
-    </row>
-    <row r="32" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="97"/>
+      <c r="DS31" s="3"/>
+    </row>
+    <row r="32" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="105"/>
       <c r="B32" s="51" t="s">
         <v>168</v>
       </c>
@@ -13794,7 +14758,7 @@
       <c r="CX32" s="3"/>
       <c r="CY32" s="3"/>
       <c r="CZ32" s="3"/>
-      <c r="DA32" s="14"/>
+      <c r="DA32" s="3"/>
       <c r="DB32" s="14"/>
       <c r="DC32" s="14"/>
       <c r="DD32" s="14"/>
@@ -13805,16 +14769,17 @@
       <c r="DI32" s="14"/>
       <c r="DJ32" s="14"/>
       <c r="DK32" s="14"/>
-      <c r="DL32" s="3"/>
-      <c r="DM32" s="14"/>
-      <c r="DN32" s="3"/>
-      <c r="DO32" s="14"/>
+      <c r="DL32" s="14"/>
+      <c r="DM32" s="3"/>
+      <c r="DN32" s="14"/>
+      <c r="DO32" s="3"/>
       <c r="DP32" s="14"/>
-      <c r="DQ32" s="3"/>
+      <c r="DQ32" s="14"/>
       <c r="DR32" s="3"/>
-    </row>
-    <row r="33" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="97"/>
+      <c r="DS32" s="3"/>
+    </row>
+    <row r="33" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="105"/>
       <c r="B33" s="51" t="s">
         <v>169</v>
       </c>
@@ -13934,7 +14899,7 @@
       <c r="CX33" s="3"/>
       <c r="CY33" s="3"/>
       <c r="CZ33" s="3"/>
-      <c r="DA33" s="14"/>
+      <c r="DA33" s="3"/>
       <c r="DB33" s="14"/>
       <c r="DC33" s="14"/>
       <c r="DD33" s="14"/>
@@ -13945,16 +14910,17 @@
       <c r="DI33" s="14"/>
       <c r="DJ33" s="14"/>
       <c r="DK33" s="14"/>
-      <c r="DL33" s="3"/>
-      <c r="DM33" s="14"/>
-      <c r="DN33" s="3"/>
-      <c r="DO33" s="14"/>
+      <c r="DL33" s="14"/>
+      <c r="DM33" s="3"/>
+      <c r="DN33" s="14"/>
+      <c r="DO33" s="3"/>
       <c r="DP33" s="14"/>
-      <c r="DQ33" s="3"/>
+      <c r="DQ33" s="14"/>
       <c r="DR33" s="3"/>
-    </row>
-    <row r="34" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="97"/>
+      <c r="DS33" s="3"/>
+    </row>
+    <row r="34" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="105"/>
       <c r="B34" s="51" t="s">
         <v>170</v>
       </c>
@@ -14082,7 +15048,7 @@
       <c r="CX34" s="3"/>
       <c r="CY34" s="3"/>
       <c r="CZ34" s="3"/>
-      <c r="DA34" s="14"/>
+      <c r="DA34" s="3"/>
       <c r="DB34" s="14"/>
       <c r="DC34" s="14"/>
       <c r="DD34" s="14"/>
@@ -14093,16 +15059,17 @@
       <c r="DI34" s="14"/>
       <c r="DJ34" s="14"/>
       <c r="DK34" s="14"/>
-      <c r="DL34" s="3"/>
-      <c r="DM34" s="14"/>
-      <c r="DN34" s="3"/>
-      <c r="DO34" s="14"/>
+      <c r="DL34" s="14"/>
+      <c r="DM34" s="3"/>
+      <c r="DN34" s="14"/>
+      <c r="DO34" s="3"/>
       <c r="DP34" s="14"/>
-      <c r="DQ34" s="3"/>
+      <c r="DQ34" s="14"/>
       <c r="DR34" s="3"/>
-    </row>
-    <row r="35" spans="1:122" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="97"/>
+      <c r="DS34" s="3"/>
+    </row>
+    <row r="35" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="105"/>
       <c r="B35" s="51" t="s">
         <v>171</v>
       </c>
@@ -14222,7 +15189,7 @@
       <c r="CX35" s="3"/>
       <c r="CY35" s="3"/>
       <c r="CZ35" s="3"/>
-      <c r="DA35" s="14"/>
+      <c r="DA35" s="3"/>
       <c r="DB35" s="14"/>
       <c r="DC35" s="14"/>
       <c r="DD35" s="14"/>
@@ -14233,51 +15200,52 @@
       <c r="DI35" s="14"/>
       <c r="DJ35" s="14"/>
       <c r="DK35" s="14"/>
-      <c r="DL35" s="3"/>
-      <c r="DM35" s="14"/>
-      <c r="DN35" s="3"/>
-      <c r="DO35" s="14"/>
+      <c r="DL35" s="14"/>
+      <c r="DM35" s="3"/>
+      <c r="DN35" s="14"/>
+      <c r="DO35" s="3"/>
       <c r="DP35" s="14"/>
-      <c r="DQ35" s="3"/>
+      <c r="DQ35" s="14"/>
       <c r="DR35" s="3"/>
-    </row>
-    <row r="36" spans="1:122" ht="15.75" thickTop="1">
+      <c r="DS35" s="3"/>
+    </row>
+    <row r="36" spans="1:123" ht="15.75" thickTop="1">
       <c r="A36" s="46"/>
     </row>
-    <row r="37" spans="1:122">
+    <row r="37" spans="1:123">
       <c r="A37" s="46"/>
     </row>
-    <row r="38" spans="1:122">
+    <row r="38" spans="1:123">
       <c r="A38" s="46"/>
     </row>
-    <row r="39" spans="1:122">
+    <row r="39" spans="1:123">
       <c r="A39" s="46"/>
     </row>
-    <row r="40" spans="1:122">
+    <row r="40" spans="1:123">
       <c r="A40" s="46"/>
     </row>
-    <row r="41" spans="1:122">
+    <row r="41" spans="1:123">
       <c r="A41" s="46"/>
     </row>
-    <row r="42" spans="1:122">
+    <row r="42" spans="1:123">
       <c r="A42" s="46"/>
     </row>
-    <row r="43" spans="1:122">
+    <row r="43" spans="1:123">
       <c r="A43" s="46"/>
     </row>
-    <row r="44" spans="1:122">
+    <row r="44" spans="1:123">
       <c r="A44" s="46"/>
     </row>
-    <row r="45" spans="1:122">
+    <row r="45" spans="1:123">
       <c r="A45" s="46"/>
     </row>
-    <row r="46" spans="1:122">
+    <row r="46" spans="1:123">
       <c r="A46" s="46"/>
     </row>
-    <row r="47" spans="1:122">
+    <row r="47" spans="1:123">
       <c r="A47" s="46"/>
     </row>
-    <row r="48" spans="1:122">
+    <row r="48" spans="1:123">
       <c r="A48" s="46"/>
     </row>
     <row r="49" spans="1:1">
@@ -14593,24 +15561,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="112"/>
-      <c r="B1" s="109" t="s">
+      <c r="A1" s="120"/>
+      <c r="B1" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="111" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A3" s="36"/>
@@ -15862,13 +16830,13 @@
     </row>
     <row r="126" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
       <c r="A126" s="32"/>
-      <c r="B126" s="106" t="s">
+      <c r="B126" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="107"/>
-      <c r="D126" s="107"/>
-      <c r="E126" s="107"/>
-      <c r="F126" s="108"/>
+      <c r="C126" s="115"/>
+      <c r="D126" s="115"/>
+      <c r="E126" s="115"/>
+      <c r="F126" s="116"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A127" s="31" t="s">

--- a/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
+++ b/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -1376,6 +1376,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1548,9 +1551,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1878,79 +1878,79 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81" t="s">
+      <c r="K2" s="80"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="86"/>
     </row>
     <row r="3" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A3" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4708,30 +4708,30 @@
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="1:21" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A126" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="64" t="s">
+      <c r="A126" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="65"/>
-      <c r="J126" s="65"/>
-      <c r="K126" s="65"/>
-      <c r="L126" s="65"/>
-      <c r="M126" s="65"/>
-      <c r="N126" s="65"/>
-      <c r="O126" s="65"/>
-      <c r="P126" s="65"/>
-      <c r="Q126" s="66"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="66"/>
+      <c r="J126" s="66"/>
+      <c r="K126" s="66"/>
+      <c r="L126" s="66"/>
+      <c r="M126" s="66"/>
+      <c r="N126" s="66"/>
+      <c r="O126" s="66"/>
+      <c r="P126" s="66"/>
+      <c r="Q126" s="67"/>
     </row>
     <row r="127" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="68"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="8" t="s">
         <v>3</v>
       </c>
@@ -5672,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70:O70"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5683,24 +5683,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -5720,26 +5720,26 @@
       <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" ht="30" thickTop="1" thickBot="1">
-      <c r="B2" s="87"/>
-      <c r="C2" s="93" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
@@ -5759,7 +5759,7 @@
       <c r="AF2" s="16"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B3" s="87"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="25" t="s">
         <v>174</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -5822,7 +5822,7 @@
       <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -5867,7 +5867,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="89"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -5912,7 +5912,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="89"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
@@ -5957,7 +5957,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
@@ -6002,7 +6002,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
@@ -6047,7 +6047,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="89"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
@@ -6092,7 +6092,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="89"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
@@ -6137,7 +6137,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
@@ -6182,7 +6182,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
@@ -6246,7 +6246,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
@@ -6291,7 +6291,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
@@ -6336,7 +6336,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
@@ -6381,7 +6381,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="89"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
@@ -6426,7 +6426,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="89"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
@@ -6471,7 +6471,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="89"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -6516,7 +6516,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
@@ -6561,7 +6561,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="89"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
@@ -6606,7 +6606,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="89"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="89"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
@@ -6670,7 +6670,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
@@ -6715,7 +6715,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="89"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="89"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
@@ -6753,7 +6753,7 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="89"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
@@ -6772,7 +6772,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="89"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="18" t="s">
         <v>36</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="89"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
@@ -6810,7 +6810,7 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="89"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="89"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="89"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
@@ -6867,7 +6867,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="89"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="89"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="89"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="89"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="18" t="s">
         <v>44</v>
       </c>
@@ -6943,7 +6943,7 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="89"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="89"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
@@ -6981,7 +6981,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="89"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="89"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="18" t="s">
         <v>48</v>
       </c>
@@ -7019,7 +7019,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="89"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="18" t="s">
         <v>49</v>
       </c>
@@ -7038,7 +7038,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="89"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="89"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="18" t="s">
         <v>51</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="89"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="18" t="s">
         <v>52</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="89"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
@@ -7114,7 +7114,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="89"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="18" t="s">
         <v>54</v>
       </c>
@@ -7133,7 +7133,7 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="89"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="18" t="s">
         <v>55</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="O48" s="56"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="89"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="18" t="s">
         <v>56</v>
       </c>
@@ -7197,7 +7197,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="89"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="18" t="s">
         <v>57</v>
       </c>
@@ -7242,7 +7242,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="89"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
@@ -7287,7 +7287,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="89"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
@@ -7332,7 +7332,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="89"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="18" t="s">
         <v>60</v>
       </c>
@@ -7377,7 +7377,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="89"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
@@ -7422,7 +7422,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="89"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="18" t="s">
         <v>62</v>
       </c>
@@ -7441,7 +7441,7 @@
       <c r="O55" s="56"/>
     </row>
     <row r="56" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="89"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="18" t="s">
         <v>63</v>
       </c>
@@ -7486,7 +7486,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="89"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
@@ -7531,7 +7531,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="89"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="18" t="s">
         <v>65</v>
       </c>
@@ -7576,7 +7576,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="89"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="18" t="s">
         <v>66</v>
       </c>
@@ -7621,7 +7621,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="89"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="18" t="s">
         <v>67</v>
       </c>
@@ -7666,7 +7666,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="89"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="18" t="s">
         <v>68</v>
       </c>
@@ -7711,7 +7711,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="89"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="18" t="s">
         <v>69</v>
       </c>
@@ -7730,7 +7730,7 @@
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="89"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="18" t="s">
         <v>70</v>
       </c>
@@ -7749,7 +7749,7 @@
       <c r="O63" s="14"/>
     </row>
     <row r="64" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="89"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="18" t="s">
         <v>71</v>
       </c>
@@ -7794,7 +7794,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="89"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="18" t="s">
         <v>72</v>
       </c>
@@ -7839,7 +7839,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="89"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="18" t="s">
         <v>73</v>
       </c>
@@ -7884,7 +7884,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="89"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="18" t="s">
         <v>74</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="89"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="18" t="s">
         <v>75</v>
       </c>
@@ -7939,42 +7939,42 @@
       <c r="D68" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="E68" s="122">
-        <v>0</v>
-      </c>
-      <c r="F68" s="122">
-        <v>0</v>
-      </c>
-      <c r="G68" s="122">
-        <v>0</v>
-      </c>
-      <c r="H68" s="122">
-        <v>0</v>
-      </c>
-      <c r="I68" s="122">
-        <v>0</v>
-      </c>
-      <c r="J68" s="122">
-        <v>0</v>
-      </c>
-      <c r="K68" s="122">
-        <v>0</v>
-      </c>
-      <c r="L68" s="122">
-        <v>0</v>
-      </c>
-      <c r="M68" s="122">
-        <v>0</v>
-      </c>
-      <c r="N68" s="122">
-        <v>0</v>
-      </c>
-      <c r="O68" s="122">
+      <c r="E68" s="59">
+        <v>0</v>
+      </c>
+      <c r="F68" s="59">
+        <v>0</v>
+      </c>
+      <c r="G68" s="59">
+        <v>0</v>
+      </c>
+      <c r="H68" s="64">
+        <v>0</v>
+      </c>
+      <c r="I68" s="64">
+        <v>0</v>
+      </c>
+      <c r="J68" s="64">
+        <v>0</v>
+      </c>
+      <c r="K68" s="64">
+        <v>0</v>
+      </c>
+      <c r="L68" s="64">
+        <v>0</v>
+      </c>
+      <c r="M68" s="59">
+        <v>0</v>
+      </c>
+      <c r="N68" s="59">
+        <v>0</v>
+      </c>
+      <c r="O68" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="89"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="19" t="s">
         <v>76</v>
       </c>
@@ -7984,42 +7984,42 @@
       <c r="D69" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="122">
-        <v>0</v>
-      </c>
-      <c r="F69" s="122">
-        <v>0</v>
-      </c>
-      <c r="G69" s="122">
-        <v>0</v>
-      </c>
-      <c r="H69" s="122">
-        <v>0</v>
-      </c>
-      <c r="I69" s="122">
-        <v>0</v>
-      </c>
-      <c r="J69" s="122">
-        <v>0</v>
-      </c>
-      <c r="K69" s="122">
-        <v>0</v>
-      </c>
-      <c r="L69" s="122">
-        <v>0</v>
-      </c>
-      <c r="M69" s="122">
-        <v>0</v>
-      </c>
-      <c r="N69" s="122">
-        <v>0</v>
-      </c>
-      <c r="O69" s="122">
+      <c r="E69" s="59">
+        <v>0</v>
+      </c>
+      <c r="F69" s="59">
+        <v>0</v>
+      </c>
+      <c r="G69" s="59">
+        <v>0</v>
+      </c>
+      <c r="H69" s="59">
+        <v>0</v>
+      </c>
+      <c r="I69" s="59">
+        <v>0</v>
+      </c>
+      <c r="J69" s="59">
+        <v>0</v>
+      </c>
+      <c r="K69" s="59">
+        <v>0</v>
+      </c>
+      <c r="L69" s="59">
+        <v>0</v>
+      </c>
+      <c r="M69" s="59">
+        <v>0</v>
+      </c>
+      <c r="N69" s="59">
+        <v>0</v>
+      </c>
+      <c r="O69" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="89"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="19" t="s">
         <v>77</v>
       </c>
@@ -8029,42 +8029,42 @@
       <c r="D70" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="122">
-        <v>0</v>
-      </c>
-      <c r="F70" s="122">
-        <v>0</v>
-      </c>
-      <c r="G70" s="122">
-        <v>0</v>
-      </c>
-      <c r="H70" s="122">
-        <v>0</v>
-      </c>
-      <c r="I70" s="122">
-        <v>0</v>
-      </c>
-      <c r="J70" s="122">
-        <v>0</v>
-      </c>
-      <c r="K70" s="122">
-        <v>0</v>
-      </c>
-      <c r="L70" s="122">
-        <v>0</v>
-      </c>
-      <c r="M70" s="122">
-        <v>0</v>
-      </c>
-      <c r="N70" s="122">
-        <v>0</v>
-      </c>
-      <c r="O70" s="122">
+      <c r="E70" s="64">
+        <v>0</v>
+      </c>
+      <c r="F70" s="64">
+        <v>0</v>
+      </c>
+      <c r="G70" s="64">
+        <v>0</v>
+      </c>
+      <c r="H70" s="64">
+        <v>0</v>
+      </c>
+      <c r="I70" s="64">
+        <v>0</v>
+      </c>
+      <c r="J70" s="64">
+        <v>0</v>
+      </c>
+      <c r="K70" s="64">
+        <v>0</v>
+      </c>
+      <c r="L70" s="64">
+        <v>0</v>
+      </c>
+      <c r="M70" s="64">
+        <v>0</v>
+      </c>
+      <c r="N70" s="64">
+        <v>0</v>
+      </c>
+      <c r="O70" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="89"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="19" t="s">
         <v>78</v>
       </c>
@@ -8079,11 +8079,13 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="N71" s="59" t="s">
+        <v>200</v>
+      </c>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="89"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="19" t="s">
         <v>79</v>
       </c>
@@ -8094,7 +8096,9 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="J72" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -8102,7 +8106,7 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="89"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="19" t="s">
         <v>80</v>
       </c>
@@ -8113,7 +8117,9 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -8121,7 +8127,7 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="89"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="19" t="s">
         <v>81</v>
       </c>
@@ -8132,7 +8138,9 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -8140,7 +8148,7 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="89"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="19" t="s">
         <v>82</v>
       </c>
@@ -8159,7 +8167,7 @@
       <c r="O75" s="14"/>
     </row>
     <row r="76" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="89"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="19" t="s">
         <v>83</v>
       </c>
@@ -8178,7 +8186,7 @@
       <c r="O76" s="14"/>
     </row>
     <row r="77" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="89"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="19" t="s">
         <v>84</v>
       </c>
@@ -8197,7 +8205,7 @@
       <c r="O77" s="14"/>
     </row>
     <row r="78" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="89"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="19" t="s">
         <v>85</v>
       </c>
@@ -8216,7 +8224,7 @@
       <c r="O78" s="14"/>
     </row>
     <row r="79" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="89"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="19" t="s">
         <v>86</v>
       </c>
@@ -8235,11 +8243,13 @@
       <c r="O79" s="14"/>
     </row>
     <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="89"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -8254,11 +8264,13 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="89"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -8273,7 +8285,7 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="89"/>
+      <c r="A82" s="90"/>
       <c r="B82" s="19" t="s">
         <v>89</v>
       </c>
@@ -8285,14 +8297,16 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="K82" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="89"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="19" t="s">
         <v>90</v>
       </c>
@@ -8302,16 +8316,20 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="I83" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
+      <c r="O83" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="84" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="89"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="19" t="s">
         <v>91</v>
       </c>
@@ -8327,17 +8345,21 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
+      <c r="O84" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="85" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="89"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -8345,11 +8367,13 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
+      <c r="N85" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="O85" s="3"/>
     </row>
     <row r="86" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="89"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="19" t="s">
         <v>93</v>
       </c>
@@ -8368,33 +8392,43 @@
       <c r="O86" s="14"/>
     </row>
     <row r="87" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="89"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
+      <c r="N87" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="89"/>
+      <c r="A88" s="90"/>
       <c r="B88" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -8402,11 +8436,13 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
+      <c r="N88" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="O88" s="3"/>
     </row>
     <row r="89" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="89"/>
+      <c r="A89" s="90"/>
       <c r="B89" s="19" t="s">
         <v>96</v>
       </c>
@@ -8415,17 +8451,21 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="H89" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
+      <c r="N89" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="89"/>
+      <c r="A90" s="90"/>
       <c r="B90" s="19" t="s">
         <v>97</v>
       </c>
@@ -8444,7 +8484,7 @@
       <c r="O90" s="14"/>
     </row>
     <row r="91" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="89"/>
+      <c r="A91" s="90"/>
       <c r="B91" s="19" t="s">
         <v>98</v>
       </c>
@@ -8463,7 +8503,7 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="89"/>
+      <c r="A92" s="90"/>
       <c r="B92" s="19" t="s">
         <v>99</v>
       </c>
@@ -8482,7 +8522,7 @@
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="89"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="19" t="s">
         <v>100</v>
       </c>
@@ -8501,7 +8541,7 @@
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="89"/>
+      <c r="A94" s="90"/>
       <c r="B94" s="19" t="s">
         <v>101</v>
       </c>
@@ -8520,7 +8560,7 @@
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="89"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="19" t="s">
         <v>102</v>
       </c>
@@ -8539,7 +8579,7 @@
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="89"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="19" t="s">
         <v>103</v>
       </c>
@@ -8558,7 +8598,7 @@
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="89"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="19" t="s">
         <v>104</v>
       </c>
@@ -8577,7 +8617,7 @@
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="89"/>
+      <c r="A98" s="90"/>
       <c r="B98" s="19" t="s">
         <v>105</v>
       </c>
@@ -8596,7 +8636,7 @@
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="89"/>
+      <c r="A99" s="90"/>
       <c r="B99" s="19" t="s">
         <v>106</v>
       </c>
@@ -8615,7 +8655,7 @@
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="89"/>
+      <c r="A100" s="90"/>
       <c r="B100" s="19" t="s">
         <v>107</v>
       </c>
@@ -8634,7 +8674,7 @@
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="89"/>
+      <c r="A101" s="90"/>
       <c r="B101" s="19" t="s">
         <v>108</v>
       </c>
@@ -8653,7 +8693,7 @@
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="89"/>
+      <c r="A102" s="90"/>
       <c r="B102" s="19" t="s">
         <v>109</v>
       </c>
@@ -8672,7 +8712,7 @@
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="89"/>
+      <c r="A103" s="90"/>
       <c r="B103" s="19" t="s">
         <v>110</v>
       </c>
@@ -8691,7 +8731,7 @@
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="89"/>
+      <c r="A104" s="90"/>
       <c r="B104" s="19" t="s">
         <v>111</v>
       </c>
@@ -8710,7 +8750,7 @@
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="89"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="19" t="s">
         <v>112</v>
       </c>
@@ -8729,7 +8769,7 @@
       <c r="O105" s="3"/>
     </row>
     <row r="106" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="89"/>
+      <c r="A106" s="90"/>
       <c r="B106" s="19" t="s">
         <v>113</v>
       </c>
@@ -8748,7 +8788,7 @@
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="89"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="19" t="s">
         <v>114</v>
       </c>
@@ -8767,7 +8807,7 @@
       <c r="O107" s="14"/>
     </row>
     <row r="108" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="89"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="19" t="s">
         <v>115</v>
       </c>
@@ -8786,7 +8826,7 @@
       <c r="O108" s="14"/>
     </row>
     <row r="109" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="89"/>
+      <c r="A109" s="90"/>
       <c r="B109" s="19" t="s">
         <v>116</v>
       </c>
@@ -8805,7 +8845,7 @@
       <c r="O109" s="14"/>
     </row>
     <row r="110" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="89"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="19" t="s">
         <v>117</v>
       </c>
@@ -8824,7 +8864,7 @@
       <c r="O110" s="14"/>
     </row>
     <row r="111" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="89"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="19" t="s">
         <v>118</v>
       </c>
@@ -8843,7 +8883,7 @@
       <c r="O111" s="14"/>
     </row>
     <row r="112" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="89"/>
+      <c r="A112" s="90"/>
       <c r="B112" s="19" t="s">
         <v>119</v>
       </c>
@@ -8862,7 +8902,7 @@
       <c r="O112" s="14"/>
     </row>
     <row r="113" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="89"/>
+      <c r="A113" s="90"/>
       <c r="B113" s="19" t="s">
         <v>120</v>
       </c>
@@ -8881,7 +8921,7 @@
       <c r="O113" s="14"/>
     </row>
     <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="89"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="19" t="s">
         <v>121</v>
       </c>
@@ -8900,7 +8940,7 @@
       <c r="O114" s="14"/>
     </row>
     <row r="115" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="89"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="19" t="s">
         <v>122</v>
       </c>
@@ -8919,7 +8959,7 @@
       <c r="O115" s="14"/>
     </row>
     <row r="116" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="89"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="19" t="s">
         <v>123</v>
       </c>
@@ -8938,7 +8978,7 @@
       <c r="O116" s="14"/>
     </row>
     <row r="117" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="89"/>
+      <c r="A117" s="90"/>
       <c r="B117" s="19" t="s">
         <v>124</v>
       </c>
@@ -8957,7 +8997,7 @@
       <c r="O117" s="14"/>
     </row>
     <row r="118" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="89"/>
+      <c r="A118" s="90"/>
       <c r="B118" s="19" t="s">
         <v>125</v>
       </c>
@@ -9002,7 +9042,7 @@
       </c>
     </row>
     <row r="119" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="89"/>
+      <c r="A119" s="90"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
@@ -9021,7 +9061,7 @@
       <c r="O119" s="14"/>
     </row>
     <row r="120" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="89"/>
+      <c r="A120" s="90"/>
       <c r="B120" s="19" t="s">
         <v>127</v>
       </c>
@@ -9066,7 +9106,7 @@
       </c>
     </row>
     <row r="121" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="89"/>
+      <c r="A121" s="90"/>
       <c r="B121" s="19" t="s">
         <v>128</v>
       </c>
@@ -9111,7 +9151,7 @@
       </c>
     </row>
     <row r="122" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="89"/>
+      <c r="A122" s="90"/>
       <c r="B122" s="19" t="s">
         <v>129</v>
       </c>
@@ -9130,7 +9170,7 @@
       <c r="O122" s="14"/>
     </row>
     <row r="123" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="89"/>
+      <c r="A123" s="90"/>
       <c r="B123" s="21" t="s">
         <v>130</v>
       </c>
@@ -9149,7 +9189,7 @@
       <c r="O123" s="14"/>
     </row>
     <row r="124" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="90"/>
+      <c r="A124" s="91"/>
       <c r="B124" s="19" t="s">
         <v>131</v>
       </c>
@@ -9213,7 +9253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DS142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -9223,44 +9263,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="106" t="s">
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109" t="s">
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="111" t="s">
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
       <c r="AG1" s="52"/>
       <c r="AH1" s="52"/>
       <c r="AI1" s="52"/>
@@ -9719,7 +9759,7 @@
       </c>
     </row>
     <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>198</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -9848,7 +9888,7 @@
       <c r="DS3" s="3"/>
     </row>
     <row r="4" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="105"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="50" t="s">
         <v>140</v>
       </c>
@@ -9975,7 +10015,7 @@
       <c r="DS4" s="3"/>
     </row>
     <row r="5" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="50" t="s">
         <v>141</v>
       </c>
@@ -10102,7 +10142,7 @@
       <c r="DS5" s="3"/>
     </row>
     <row r="6" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="50" t="s">
         <v>142</v>
       </c>
@@ -10229,7 +10269,7 @@
       <c r="DS6" s="3"/>
     </row>
     <row r="7" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="105"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="50" t="s">
         <v>143</v>
       </c>
@@ -10570,7 +10610,7 @@
       </c>
     </row>
     <row r="8" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="50" t="s">
         <v>144</v>
       </c>
@@ -10911,7 +10951,7 @@
       </c>
     </row>
     <row r="9" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="105"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="50" t="s">
         <v>145</v>
       </c>
@@ -11252,7 +11292,7 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="105"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="50" t="s">
         <v>146</v>
       </c>
@@ -11379,7 +11419,7 @@
       <c r="DS10" s="3"/>
     </row>
     <row r="11" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="105"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="50" t="s">
         <v>147</v>
       </c>
@@ -11506,7 +11546,7 @@
       <c r="DS11" s="3"/>
     </row>
     <row r="12" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="105"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="50" t="s">
         <v>148</v>
       </c>
@@ -11847,7 +11887,7 @@
       </c>
     </row>
     <row r="13" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="105"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="50" t="s">
         <v>149</v>
       </c>
@@ -12188,7 +12228,7 @@
       </c>
     </row>
     <row r="14" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="105"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="50" t="s">
         <v>150</v>
       </c>
@@ -12315,7 +12355,7 @@
       <c r="DS14" s="3"/>
     </row>
     <row r="15" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="105"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
@@ -12442,7 +12482,7 @@
       <c r="DS15" s="3"/>
     </row>
     <row r="16" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="105"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="50" t="s">
         <v>152</v>
       </c>
@@ -12569,7 +12609,7 @@
       <c r="DS16" s="3"/>
     </row>
     <row r="17" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="105"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="50" t="s">
         <v>153</v>
       </c>
@@ -12696,7 +12736,7 @@
       <c r="DS17" s="3"/>
     </row>
     <row r="18" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="105"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="50" t="s">
         <v>154</v>
       </c>
@@ -12823,7 +12863,7 @@
       <c r="DS18" s="3"/>
     </row>
     <row r="19" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="105"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="50" t="s">
         <v>155</v>
       </c>
@@ -12950,7 +12990,7 @@
       <c r="DS19" s="3"/>
     </row>
     <row r="20" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="105"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="50" t="s">
         <v>156</v>
       </c>
@@ -13077,7 +13117,7 @@
       <c r="DS20" s="3"/>
     </row>
     <row r="21" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="105"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="50" t="s">
         <v>157</v>
       </c>
@@ -13204,7 +13244,7 @@
       <c r="DS21" s="3"/>
     </row>
     <row r="22" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="105"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="50" t="s">
         <v>158</v>
       </c>
@@ -13331,7 +13371,7 @@
       <c r="DS22" s="3"/>
     </row>
     <row r="23" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="105"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="50" t="s">
         <v>159</v>
       </c>
@@ -13460,7 +13500,7 @@
       <c r="DS23" s="3"/>
     </row>
     <row r="24" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="105"/>
+      <c r="A24" s="106"/>
       <c r="B24" s="50" t="s">
         <v>160</v>
       </c>
@@ -13595,7 +13635,7 @@
       </c>
     </row>
     <row r="25" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="105"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="50" t="s">
         <v>161</v>
       </c>
@@ -13724,7 +13764,7 @@
       <c r="DS25" s="3"/>
     </row>
     <row r="26" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="105"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="50" t="s">
         <v>162</v>
       </c>
@@ -13859,7 +13899,7 @@
       </c>
     </row>
     <row r="27" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="105"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="50" t="s">
         <v>163</v>
       </c>
@@ -13988,7 +14028,7 @@
       <c r="DS27" s="3"/>
     </row>
     <row r="28" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="105"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="50" t="s">
         <v>164</v>
       </c>
@@ -14121,7 +14161,7 @@
       <c r="DS28" s="3"/>
     </row>
     <row r="29" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="105"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="50" t="s">
         <v>165</v>
       </c>
@@ -14248,7 +14288,7 @@
       <c r="DS29" s="3"/>
     </row>
     <row r="30" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="105"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="50" t="s">
         <v>166</v>
       </c>
@@ -14375,7 +14415,7 @@
       <c r="DS30" s="3"/>
     </row>
     <row r="31" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="105"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="50" t="s">
         <v>167</v>
       </c>
@@ -14554,7 +14594,7 @@
       <c r="DS31" s="3"/>
     </row>
     <row r="32" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="105"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="51" t="s">
         <v>168</v>
       </c>
@@ -14779,7 +14819,7 @@
       <c r="DS32" s="3"/>
     </row>
     <row r="33" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="105"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="51" t="s">
         <v>169</v>
       </c>
@@ -14920,7 +14960,7 @@
       <c r="DS33" s="3"/>
     </row>
     <row r="34" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="105"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="51" t="s">
         <v>170</v>
       </c>
@@ -15069,7 +15109,7 @@
       <c r="DS34" s="3"/>
     </row>
     <row r="35" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="105"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="51" t="s">
         <v>171</v>
       </c>
@@ -15561,24 +15601,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="120"/>
-      <c r="B1" s="117" t="s">
+      <c r="A1" s="121"/>
+      <c r="B1" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="119" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A3" s="36"/>
@@ -16830,13 +16870,13 @@
     </row>
     <row r="126" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
       <c r="A126" s="32"/>
-      <c r="B126" s="114" t="s">
+      <c r="B126" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="115"/>
-      <c r="D126" s="115"/>
-      <c r="E126" s="115"/>
-      <c r="F126" s="116"/>
+      <c r="C126" s="116"/>
+      <c r="D126" s="116"/>
+      <c r="E126" s="116"/>
+      <c r="F126" s="117"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A127" s="31" t="s">

--- a/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
+++ b/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -626,7 +626,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +783,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1221,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1553,6 +1560,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3962,7 +3970,9 @@
         <v>98</v>
       </c>
       <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
+      <c r="C92" s="11">
+        <v>40257</v>
+      </c>
       <c r="D92" s="14"/>
       <c r="E92" s="3"/>
       <c r="F92" s="14"/>
@@ -3983,7 +3993,9 @@
         <v>99</v>
       </c>
       <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
+      <c r="C93" s="11">
+        <v>40257</v>
+      </c>
       <c r="D93" s="14"/>
       <c r="E93" s="3"/>
       <c r="F93" s="14"/>
@@ -4004,7 +4016,9 @@
         <v>100</v>
       </c>
       <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
+      <c r="C94" s="11">
+        <v>40257</v>
+      </c>
       <c r="D94" s="14"/>
       <c r="E94" s="3"/>
       <c r="F94" s="14"/>
@@ -4025,7 +4039,9 @@
         <v>101</v>
       </c>
       <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
+      <c r="C95" s="11">
+        <v>40257</v>
+      </c>
       <c r="D95" s="14"/>
       <c r="E95" s="3"/>
       <c r="F95" s="14"/>
@@ -4046,7 +4062,9 @@
         <v>102</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
+      <c r="C96" s="11">
+        <v>40257</v>
+      </c>
       <c r="D96" s="14"/>
       <c r="E96" s="3"/>
       <c r="F96" s="14"/>
@@ -4067,7 +4085,9 @@
         <v>103</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
+      <c r="C97" s="11">
+        <v>40257</v>
+      </c>
       <c r="D97" s="14"/>
       <c r="E97" s="3"/>
       <c r="F97" s="14"/>
@@ -4088,7 +4108,9 @@
         <v>104</v>
       </c>
       <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
+      <c r="C98" s="11">
+        <v>40257</v>
+      </c>
       <c r="D98" s="14"/>
       <c r="E98" s="3"/>
       <c r="F98" s="14"/>
@@ -4109,7 +4131,9 @@
         <v>105</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
+      <c r="C99" s="11">
+        <v>40257</v>
+      </c>
       <c r="D99" s="14"/>
       <c r="E99" s="3"/>
       <c r="F99" s="14"/>
@@ -4130,7 +4154,9 @@
         <v>106</v>
       </c>
       <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
+      <c r="C100" s="11">
+        <v>40258</v>
+      </c>
       <c r="D100" s="14"/>
       <c r="E100" s="3"/>
       <c r="F100" s="14"/>
@@ -4151,7 +4177,9 @@
         <v>107</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
+      <c r="C101" s="11">
+        <v>40258</v>
+      </c>
       <c r="D101" s="14"/>
       <c r="E101" s="3"/>
       <c r="F101" s="14"/>
@@ -4172,7 +4200,9 @@
         <v>108</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
+      <c r="C102" s="11">
+        <v>40258</v>
+      </c>
       <c r="D102" s="14"/>
       <c r="E102" s="3"/>
       <c r="F102" s="14"/>
@@ -4193,7 +4223,9 @@
         <v>109</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="11"/>
+      <c r="C103" s="11">
+        <v>40258</v>
+      </c>
       <c r="D103" s="14"/>
       <c r="E103" s="3"/>
       <c r="F103" s="14"/>
@@ -4214,7 +4246,9 @@
         <v>110</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
+      <c r="C104" s="11">
+        <v>40259</v>
+      </c>
       <c r="D104" s="14"/>
       <c r="E104" s="3"/>
       <c r="F104" s="14"/>
@@ -4235,7 +4269,9 @@
         <v>111</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="11"/>
+      <c r="C105" s="11">
+        <v>40259</v>
+      </c>
       <c r="D105" s="14"/>
       <c r="E105" s="3"/>
       <c r="F105" s="14"/>
@@ -4256,7 +4292,9 @@
         <v>112</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
+      <c r="C106" s="11">
+        <v>40259</v>
+      </c>
       <c r="D106" s="14"/>
       <c r="E106" s="3"/>
       <c r="F106" s="14"/>
@@ -4277,7 +4315,9 @@
         <v>113</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="C107" s="11"/>
+      <c r="C107" s="11">
+        <v>40259</v>
+      </c>
       <c r="D107" s="14"/>
       <c r="E107" s="3"/>
       <c r="F107" s="14"/>
@@ -5672,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="R76" sqref="R76"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8498,7 +8538,9 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
+      <c r="M91" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
@@ -8517,7 +8559,9 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
+      <c r="M92" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
@@ -8529,13 +8573,17 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="L93" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -8548,13 +8596,17 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
+      <c r="L94" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -8568,7 +8620,9 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="G95" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -8587,7 +8641,9 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="G96" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -8606,12 +8662,18 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="G97" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="I97" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -8626,8 +8688,12 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -8645,8 +8711,12 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="H99" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -8662,10 +8732,16 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="I100" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -8681,15 +8757,25 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
+      <c r="L101" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
+      <c r="N101" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -8697,7 +8783,9 @@
       <c r="B102" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -8717,7 +8805,9 @@
         <v>110</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -8742,7 +8832,9 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -8754,19 +8846,19 @@
       <c r="B105" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
+      <c r="C105" s="123"/>
+      <c r="D105" s="123"/>
+      <c r="E105" s="123"/>
+      <c r="F105" s="123"/>
+      <c r="G105" s="123"/>
+      <c r="H105" s="123"/>
+      <c r="I105" s="123"/>
+      <c r="J105" s="123"/>
+      <c r="K105" s="123"/>
+      <c r="L105" s="123"/>
+      <c r="M105" s="123"/>
+      <c r="N105" s="123"/>
+      <c r="O105" s="14"/>
     </row>
     <row r="106" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A106" s="90"/>
@@ -8784,7 +8876,9 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
+      <c r="N106" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="1:15" ht="16.5" thickTop="1" thickBot="1">

--- a/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
+++ b/trunk/SRS ENTREGA/Trazabilidad Requerimientos.xlsx
@@ -1386,6 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1560,7 +1561,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,7 +1584,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1870,11 +1870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -1886,79 +1886,79 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82" t="s">
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="86"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A3" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="69"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2519,7 +2519,9 @@
         <v>33</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>40261</v>
+      </c>
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
       <c r="F27" s="14"/>
@@ -2540,7 +2542,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11">
+        <v>40261</v>
+      </c>
       <c r="D28" s="14"/>
       <c r="E28" s="3"/>
       <c r="F28" s="14"/>
@@ -2561,7 +2565,9 @@
         <v>35</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11">
+        <v>40261</v>
+      </c>
       <c r="D29" s="14"/>
       <c r="E29" s="3"/>
       <c r="F29" s="14"/>
@@ -2582,7 +2588,9 @@
         <v>36</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="11">
+        <v>40261</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="3"/>
       <c r="F30" s="14"/>
@@ -2603,7 +2611,9 @@
         <v>37</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="11">
+        <v>40261</v>
+      </c>
       <c r="D31" s="14"/>
       <c r="E31" s="3"/>
       <c r="F31" s="14"/>
@@ -2624,7 +2634,9 @@
         <v>38</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11">
+        <v>40261</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="E32" s="3"/>
       <c r="F32" s="14"/>
@@ -2645,7 +2657,9 @@
         <v>39</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="11">
+        <v>40261</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="E33" s="3"/>
       <c r="F33" s="14"/>
@@ -2666,7 +2680,9 @@
         <v>40</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="11">
+        <v>40261</v>
+      </c>
       <c r="D34" s="14"/>
       <c r="E34" s="3"/>
       <c r="F34" s="14"/>
@@ -2687,7 +2703,9 @@
         <v>41</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="11">
+        <v>40261</v>
+      </c>
       <c r="D35" s="14"/>
       <c r="E35" s="3"/>
       <c r="F35" s="14"/>
@@ -2708,7 +2726,9 @@
         <v>42</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="11">
+        <v>40261</v>
+      </c>
       <c r="D36" s="14"/>
       <c r="E36" s="3"/>
       <c r="F36" s="14"/>
@@ -2729,7 +2749,9 @@
         <v>43</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="11">
+        <v>40261</v>
+      </c>
       <c r="D37" s="14"/>
       <c r="E37" s="3"/>
       <c r="F37" s="14"/>
@@ -2750,7 +2772,9 @@
         <v>44</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
+      <c r="C38" s="11">
+        <v>40261</v>
+      </c>
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
       <c r="F38" s="14"/>
@@ -2771,7 +2795,9 @@
         <v>45</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="11">
+        <v>40261</v>
+      </c>
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
       <c r="F39" s="14"/>
@@ -2792,7 +2818,9 @@
         <v>46</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="11">
+        <v>40261</v>
+      </c>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
       <c r="F40" s="14"/>
@@ -2813,7 +2841,9 @@
         <v>47</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
+      <c r="C41" s="11">
+        <v>40261</v>
+      </c>
       <c r="D41" s="14"/>
       <c r="E41" s="3"/>
       <c r="F41" s="14"/>
@@ -2834,7 +2864,9 @@
         <v>48</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>40261</v>
+      </c>
       <c r="D42" s="14"/>
       <c r="E42" s="3"/>
       <c r="F42" s="14"/>
@@ -2855,7 +2887,9 @@
         <v>49</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="11">
+        <v>40261</v>
+      </c>
       <c r="D43" s="14"/>
       <c r="E43" s="3"/>
       <c r="F43" s="14"/>
@@ -2876,7 +2910,9 @@
         <v>50</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="11">
+        <v>40261</v>
+      </c>
       <c r="D44" s="14"/>
       <c r="E44" s="3"/>
       <c r="F44" s="14"/>
@@ -2897,7 +2933,9 @@
         <v>51</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="11">
+        <v>40261</v>
+      </c>
       <c r="D45" s="14"/>
       <c r="E45" s="3"/>
       <c r="F45" s="14"/>
@@ -2918,7 +2956,9 @@
         <v>52</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="11">
+        <v>40261</v>
+      </c>
       <c r="D46" s="14"/>
       <c r="E46" s="3"/>
       <c r="F46" s="14"/>
@@ -2939,7 +2979,9 @@
         <v>53</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="11">
+        <v>40261</v>
+      </c>
       <c r="D47" s="14"/>
       <c r="E47" s="3"/>
       <c r="F47" s="14"/>
@@ -2960,7 +3002,9 @@
         <v>54</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="11">
+        <v>40261</v>
+      </c>
       <c r="D48" s="14"/>
       <c r="E48" s="3"/>
       <c r="F48" s="14"/>
@@ -4748,30 +4792,30 @@
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="1:21" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A126" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="65" t="s">
+      <c r="A126" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="66"/>
-      <c r="J126" s="66"/>
-      <c r="K126" s="66"/>
-      <c r="L126" s="66"/>
-      <c r="M126" s="66"/>
-      <c r="N126" s="66"/>
-      <c r="O126" s="66"/>
-      <c r="P126" s="66"/>
-      <c r="Q126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="67"/>
+      <c r="M126" s="67"/>
+      <c r="N126" s="67"/>
+      <c r="O126" s="67"/>
+      <c r="P126" s="67"/>
+      <c r="Q126" s="68"/>
     </row>
     <row r="127" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="69"/>
+      <c r="A127" s="70"/>
       <c r="B127" s="8" t="s">
         <v>3</v>
       </c>
@@ -5716,31 +5760,31 @@
       <selection activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="15" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -5760,26 +5804,26 @@
       <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" ht="30" thickTop="1" thickBot="1">
-      <c r="B2" s="88"/>
-      <c r="C2" s="94" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100" t="s">
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="103"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
@@ -5799,7 +5843,7 @@
       <c r="AF2" s="16"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B3" s="88"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="25" t="s">
         <v>174</v>
       </c>
@@ -5841,7 +5885,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="90" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -5862,7 +5906,7 @@
       <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="90"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
@@ -5907,7 +5951,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="90"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -5952,7 +5996,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="90"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
@@ -5997,7 +6041,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="90"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
@@ -6042,7 +6086,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
@@ -6087,7 +6131,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="90"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
@@ -6132,7 +6176,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="90"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
@@ -6177,7 +6221,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="90"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
@@ -6222,7 +6266,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="90"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
@@ -6241,7 +6285,7 @@
       <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="90"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
@@ -6286,7 +6330,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="90"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
@@ -6331,7 +6375,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="90"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
@@ -6376,7 +6420,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="90"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
@@ -6421,7 +6465,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="90"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
@@ -6466,7 +6510,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="90"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
@@ -6511,7 +6555,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="90"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -6556,7 +6600,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="90"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
@@ -6601,7 +6645,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="90"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
@@ -6646,7 +6690,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="90"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
@@ -6665,7 +6709,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="90"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
@@ -6710,7 +6754,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="90"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
@@ -6755,7 +6799,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="90"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
@@ -6774,7 +6818,7 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="90"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
@@ -6793,7 +6837,7 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="90"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
@@ -6812,7 +6856,7 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="90"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="18" t="s">
         <v>36</v>
       </c>
@@ -6831,7 +6875,7 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="90"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
@@ -6850,7 +6894,7 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="90"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
@@ -6869,7 +6913,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="90"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
@@ -6888,7 +6932,7 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="90"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
@@ -6907,7 +6951,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="90"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
@@ -6926,7 +6970,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="90"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
@@ -6945,7 +6989,7 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="90"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
@@ -6964,7 +7008,7 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="90"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="18" t="s">
         <v>44</v>
       </c>
@@ -6983,7 +7027,7 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="90"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
@@ -7002,7 +7046,7 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="90"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
@@ -7021,7 +7065,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="90"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
@@ -7040,7 +7084,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="90"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="18" t="s">
         <v>48</v>
       </c>
@@ -7059,7 +7103,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="90"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="18" t="s">
         <v>49</v>
       </c>
@@ -7078,7 +7122,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="90"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
@@ -7097,7 +7141,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="90"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="18" t="s">
         <v>51</v>
       </c>
@@ -7116,7 +7160,7 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="90"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="18" t="s">
         <v>52</v>
       </c>
@@ -7135,7 +7179,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="90"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
@@ -7154,7 +7198,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="90"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="18" t="s">
         <v>54</v>
       </c>
@@ -7173,7 +7217,7 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="90"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="18" t="s">
         <v>55</v>
       </c>
@@ -7192,7 +7236,7 @@
       <c r="O48" s="56"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="90"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="18" t="s">
         <v>56</v>
       </c>
@@ -7237,7 +7281,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="90"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="18" t="s">
         <v>57</v>
       </c>
@@ -7282,7 +7326,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="90"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
@@ -7327,7 +7371,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="90"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
@@ -7372,7 +7416,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="90"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="18" t="s">
         <v>60</v>
       </c>
@@ -7417,7 +7461,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="90"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
@@ -7462,7 +7506,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="90"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="18" t="s">
         <v>62</v>
       </c>
@@ -7481,7 +7525,7 @@
       <c r="O55" s="56"/>
     </row>
     <row r="56" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="90"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="18" t="s">
         <v>63</v>
       </c>
@@ -7526,7 +7570,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="90"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
@@ -7571,7 +7615,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="90"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="18" t="s">
         <v>65</v>
       </c>
@@ -7616,7 +7660,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="90"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="18" t="s">
         <v>66</v>
       </c>
@@ -7661,7 +7705,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="90"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="18" t="s">
         <v>67</v>
       </c>
@@ -7706,7 +7750,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="90"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="18" t="s">
         <v>68</v>
       </c>
@@ -7751,7 +7795,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="90"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="18" t="s">
         <v>69</v>
       </c>
@@ -7770,7 +7814,7 @@
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="90"/>
+      <c r="A63" s="91"/>
       <c r="B63" s="18" t="s">
         <v>70</v>
       </c>
@@ -7789,7 +7833,7 @@
       <c r="O63" s="14"/>
     </row>
     <row r="64" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="90"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="18" t="s">
         <v>71</v>
       </c>
@@ -7834,7 +7878,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="90"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="18" t="s">
         <v>72</v>
       </c>
@@ -7879,7 +7923,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="90"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="18" t="s">
         <v>73</v>
       </c>
@@ -7924,7 +7968,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="90"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="18" t="s">
         <v>74</v>
       </c>
@@ -7969,7 +8013,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="90"/>
+      <c r="A68" s="91"/>
       <c r="B68" s="18" t="s">
         <v>75</v>
       </c>
@@ -8014,7 +8058,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="90"/>
+      <c r="A69" s="91"/>
       <c r="B69" s="19" t="s">
         <v>76</v>
       </c>
@@ -8059,7 +8103,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="90"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="19" t="s">
         <v>77</v>
       </c>
@@ -8104,7 +8148,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="90"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="19" t="s">
         <v>78</v>
       </c>
@@ -8125,7 +8169,7 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="90"/>
+      <c r="A72" s="91"/>
       <c r="B72" s="19" t="s">
         <v>79</v>
       </c>
@@ -8146,7 +8190,7 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="90"/>
+      <c r="A73" s="91"/>
       <c r="B73" s="19" t="s">
         <v>80</v>
       </c>
@@ -8167,7 +8211,7 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="90"/>
+      <c r="A74" s="91"/>
       <c r="B74" s="19" t="s">
         <v>81</v>
       </c>
@@ -8188,7 +8232,7 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="90"/>
+      <c r="A75" s="91"/>
       <c r="B75" s="19" t="s">
         <v>82</v>
       </c>
@@ -8207,7 +8251,7 @@
       <c r="O75" s="14"/>
     </row>
     <row r="76" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="90"/>
+      <c r="A76" s="91"/>
       <c r="B76" s="19" t="s">
         <v>83</v>
       </c>
@@ -8226,7 +8270,7 @@
       <c r="O76" s="14"/>
     </row>
     <row r="77" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="90"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="19" t="s">
         <v>84</v>
       </c>
@@ -8245,7 +8289,7 @@
       <c r="O77" s="14"/>
     </row>
     <row r="78" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="90"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="19" t="s">
         <v>85</v>
       </c>
@@ -8264,7 +8308,7 @@
       <c r="O78" s="14"/>
     </row>
     <row r="79" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="90"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="19" t="s">
         <v>86</v>
       </c>
@@ -8283,7 +8327,7 @@
       <c r="O79" s="14"/>
     </row>
     <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="90"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="19" t="s">
         <v>87</v>
       </c>
@@ -8304,7 +8348,7 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="90"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="19" t="s">
         <v>88</v>
       </c>
@@ -8325,7 +8369,7 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="90"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="19" t="s">
         <v>89</v>
       </c>
@@ -8346,7 +8390,7 @@
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="90"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="19" t="s">
         <v>90</v>
       </c>
@@ -8369,7 +8413,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="90"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="19" t="s">
         <v>91</v>
       </c>
@@ -8390,7 +8434,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="90"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="19" t="s">
         <v>92</v>
       </c>
@@ -8413,7 +8457,7 @@
       <c r="O85" s="3"/>
     </row>
     <row r="86" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="90"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="19" t="s">
         <v>93</v>
       </c>
@@ -8432,7 +8476,7 @@
       <c r="O86" s="14"/>
     </row>
     <row r="87" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="90"/>
+      <c r="A87" s="91"/>
       <c r="B87" s="19" t="s">
         <v>94</v>
       </c>
@@ -8459,7 +8503,7 @@
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="90"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="19" t="s">
         <v>95</v>
       </c>
@@ -8482,7 +8526,7 @@
       <c r="O88" s="3"/>
     </row>
     <row r="89" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="90"/>
+      <c r="A89" s="91"/>
       <c r="B89" s="19" t="s">
         <v>96</v>
       </c>
@@ -8505,7 +8549,7 @@
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="90"/>
+      <c r="A90" s="91"/>
       <c r="B90" s="19" t="s">
         <v>97</v>
       </c>
@@ -8524,7 +8568,7 @@
       <c r="O90" s="14"/>
     </row>
     <row r="91" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="90"/>
+      <c r="A91" s="91"/>
       <c r="B91" s="19" t="s">
         <v>98</v>
       </c>
@@ -8545,7 +8589,7 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="90"/>
+      <c r="A92" s="91"/>
       <c r="B92" s="19" t="s">
         <v>99</v>
       </c>
@@ -8566,7 +8610,7 @@
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="90"/>
+      <c r="A93" s="91"/>
       <c r="B93" s="19" t="s">
         <v>100</v>
       </c>
@@ -8589,7 +8633,7 @@
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="90"/>
+      <c r="A94" s="91"/>
       <c r="B94" s="19" t="s">
         <v>101</v>
       </c>
@@ -8612,7 +8656,7 @@
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="90"/>
+      <c r="A95" s="91"/>
       <c r="B95" s="19" t="s">
         <v>102</v>
       </c>
@@ -8633,7 +8677,7 @@
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="90"/>
+      <c r="A96" s="91"/>
       <c r="B96" s="19" t="s">
         <v>103</v>
       </c>
@@ -8654,7 +8698,7 @@
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="90"/>
+      <c r="A97" s="91"/>
       <c r="B97" s="19" t="s">
         <v>104</v>
       </c>
@@ -8679,7 +8723,7 @@
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="90"/>
+      <c r="A98" s="91"/>
       <c r="B98" s="19" t="s">
         <v>105</v>
       </c>
@@ -8702,7 +8746,7 @@
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="90"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="19" t="s">
         <v>106</v>
       </c>
@@ -8725,7 +8769,7 @@
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="90"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="19" t="s">
         <v>107</v>
       </c>
@@ -8750,7 +8794,7 @@
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="90"/>
+      <c r="A101" s="91"/>
       <c r="B101" s="19" t="s">
         <v>108</v>
       </c>
@@ -8779,7 +8823,7 @@
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="90"/>
+      <c r="A102" s="91"/>
       <c r="B102" s="19" t="s">
         <v>109</v>
       </c>
@@ -8800,7 +8844,7 @@
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="90"/>
+      <c r="A103" s="91"/>
       <c r="B103" s="19" t="s">
         <v>110</v>
       </c>
@@ -8821,7 +8865,7 @@
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="90"/>
+      <c r="A104" s="91"/>
       <c r="B104" s="19" t="s">
         <v>111</v>
       </c>
@@ -8842,26 +8886,26 @@
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="90"/>
+      <c r="A105" s="91"/>
       <c r="B105" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="123"/>
-      <c r="D105" s="123"/>
-      <c r="E105" s="123"/>
-      <c r="F105" s="123"/>
-      <c r="G105" s="123"/>
-      <c r="H105" s="123"/>
-      <c r="I105" s="123"/>
-      <c r="J105" s="123"/>
-      <c r="K105" s="123"/>
-      <c r="L105" s="123"/>
-      <c r="M105" s="123"/>
-      <c r="N105" s="123"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="65"/>
+      <c r="M105" s="65"/>
+      <c r="N105" s="65"/>
       <c r="O105" s="14"/>
     </row>
     <row r="106" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="90"/>
+      <c r="A106" s="91"/>
       <c r="B106" s="19" t="s">
         <v>113</v>
       </c>
@@ -8882,7 +8926,7 @@
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="90"/>
+      <c r="A107" s="91"/>
       <c r="B107" s="19" t="s">
         <v>114</v>
       </c>
@@ -8901,7 +8945,7 @@
       <c r="O107" s="14"/>
     </row>
     <row r="108" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="90"/>
+      <c r="A108" s="91"/>
       <c r="B108" s="19" t="s">
         <v>115</v>
       </c>
@@ -8920,7 +8964,7 @@
       <c r="O108" s="14"/>
     </row>
     <row r="109" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="90"/>
+      <c r="A109" s="91"/>
       <c r="B109" s="19" t="s">
         <v>116</v>
       </c>
@@ -8939,7 +8983,7 @@
       <c r="O109" s="14"/>
     </row>
     <row r="110" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="90"/>
+      <c r="A110" s="91"/>
       <c r="B110" s="19" t="s">
         <v>117</v>
       </c>
@@ -8958,7 +9002,7 @@
       <c r="O110" s="14"/>
     </row>
     <row r="111" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="90"/>
+      <c r="A111" s="91"/>
       <c r="B111" s="19" t="s">
         <v>118</v>
       </c>
@@ -8977,7 +9021,7 @@
       <c r="O111" s="14"/>
     </row>
     <row r="112" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="90"/>
+      <c r="A112" s="91"/>
       <c r="B112" s="19" t="s">
         <v>119</v>
       </c>
@@ -8996,7 +9040,7 @@
       <c r="O112" s="14"/>
     </row>
     <row r="113" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="90"/>
+      <c r="A113" s="91"/>
       <c r="B113" s="19" t="s">
         <v>120</v>
       </c>
@@ -9015,7 +9059,7 @@
       <c r="O113" s="14"/>
     </row>
     <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="90"/>
+      <c r="A114" s="91"/>
       <c r="B114" s="19" t="s">
         <v>121</v>
       </c>
@@ -9034,7 +9078,7 @@
       <c r="O114" s="14"/>
     </row>
     <row r="115" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="90"/>
+      <c r="A115" s="91"/>
       <c r="B115" s="19" t="s">
         <v>122</v>
       </c>
@@ -9053,7 +9097,7 @@
       <c r="O115" s="14"/>
     </row>
     <row r="116" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="90"/>
+      <c r="A116" s="91"/>
       <c r="B116" s="19" t="s">
         <v>123</v>
       </c>
@@ -9072,7 +9116,7 @@
       <c r="O116" s="14"/>
     </row>
     <row r="117" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="90"/>
+      <c r="A117" s="91"/>
       <c r="B117" s="19" t="s">
         <v>124</v>
       </c>
@@ -9091,7 +9135,7 @@
       <c r="O117" s="14"/>
     </row>
     <row r="118" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="90"/>
+      <c r="A118" s="91"/>
       <c r="B118" s="19" t="s">
         <v>125</v>
       </c>
@@ -9136,7 +9180,7 @@
       </c>
     </row>
     <row r="119" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="90"/>
+      <c r="A119" s="91"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
@@ -9155,7 +9199,7 @@
       <c r="O119" s="14"/>
     </row>
     <row r="120" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="90"/>
+      <c r="A120" s="91"/>
       <c r="B120" s="19" t="s">
         <v>127</v>
       </c>
@@ -9200,7 +9244,7 @@
       </c>
     </row>
     <row r="121" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="90"/>
+      <c r="A121" s="91"/>
       <c r="B121" s="19" t="s">
         <v>128</v>
       </c>
@@ -9245,7 +9289,7 @@
       </c>
     </row>
     <row r="122" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="90"/>
+      <c r="A122" s="91"/>
       <c r="B122" s="19" t="s">
         <v>129</v>
       </c>
@@ -9264,7 +9308,7 @@
       <c r="O122" s="14"/>
     </row>
     <row r="123" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="90"/>
+      <c r="A123" s="91"/>
       <c r="B123" s="21" t="s">
         <v>130</v>
       </c>
@@ -9283,7 +9327,7 @@
       <c r="O123" s="14"/>
     </row>
     <row r="124" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="91"/>
+      <c r="A124" s="92"/>
       <c r="B124" s="19" t="s">
         <v>131</v>
       </c>
@@ -9351,50 +9395,50 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="4.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="107" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="110" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="112" t="s">
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115"/>
       <c r="AG1" s="52"/>
       <c r="AH1" s="52"/>
       <c r="AI1" s="52"/>
@@ -9853,7 +9897,7 @@
       </c>
     </row>
     <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="106" t="s">
         <v>198</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -9982,7 +10026,7 @@
       <c r="DS3" s="3"/>
     </row>
     <row r="4" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="106"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="50" t="s">
         <v>140</v>
       </c>
@@ -10109,7 +10153,7 @@
       <c r="DS4" s="3"/>
     </row>
     <row r="5" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="106"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="50" t="s">
         <v>141</v>
       </c>
@@ -10236,7 +10280,7 @@
       <c r="DS5" s="3"/>
     </row>
     <row r="6" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="106"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="50" t="s">
         <v>142</v>
       </c>
@@ -10363,7 +10407,7 @@
       <c r="DS6" s="3"/>
     </row>
     <row r="7" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="106"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="50" t="s">
         <v>143</v>
       </c>
@@ -10704,7 +10748,7 @@
       </c>
     </row>
     <row r="8" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="106"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="50" t="s">
         <v>144</v>
       </c>
@@ -11045,7 +11089,7 @@
       </c>
     </row>
     <row r="9" spans="1:123" s="61" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="106"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="50" t="s">
         <v>145</v>
       </c>
@@ -11386,7 +11430,7 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="106"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="50" t="s">
         <v>146</v>
       </c>
@@ -11513,7 +11557,7 @@
       <c r="DS10" s="3"/>
     </row>
     <row r="11" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="106"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="50" t="s">
         <v>147</v>
       </c>
@@ -11640,7 +11684,7 @@
       <c r="DS11" s="3"/>
     </row>
     <row r="12" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="106"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="50" t="s">
         <v>148</v>
       </c>
@@ -11981,7 +12025,7 @@
       </c>
     </row>
     <row r="13" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="106"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="50" t="s">
         <v>149</v>
       </c>
@@ -12322,7 +12366,7 @@
       </c>
     </row>
     <row r="14" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="106"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="50" t="s">
         <v>150</v>
       </c>
@@ -12449,7 +12493,7 @@
       <c r="DS14" s="3"/>
     </row>
     <row r="15" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="106"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
@@ -12576,7 +12620,7 @@
       <c r="DS15" s="3"/>
     </row>
     <row r="16" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="50" t="s">
         <v>152</v>
       </c>
@@ -12703,7 +12747,7 @@
       <c r="DS16" s="3"/>
     </row>
     <row r="17" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="106"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="50" t="s">
         <v>153</v>
       </c>
@@ -12830,7 +12874,7 @@
       <c r="DS17" s="3"/>
     </row>
     <row r="18" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="106"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="50" t="s">
         <v>154</v>
       </c>
@@ -12957,7 +13001,7 @@
       <c r="DS18" s="3"/>
     </row>
     <row r="19" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="106"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="50" t="s">
         <v>155</v>
       </c>
@@ -13084,7 +13128,7 @@
       <c r="DS19" s="3"/>
     </row>
     <row r="20" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="106"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="50" t="s">
         <v>156</v>
       </c>
@@ -13211,7 +13255,7 @@
       <c r="DS20" s="3"/>
     </row>
     <row r="21" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="106"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="50" t="s">
         <v>157</v>
       </c>
@@ -13338,7 +13382,7 @@
       <c r="DS21" s="3"/>
     </row>
     <row r="22" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="106"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="50" t="s">
         <v>158</v>
       </c>
@@ -13465,7 +13509,7 @@
       <c r="DS22" s="3"/>
     </row>
     <row r="23" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="106"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="50" t="s">
         <v>159</v>
       </c>
@@ -13594,7 +13638,7 @@
       <c r="DS23" s="3"/>
     </row>
     <row r="24" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="106"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="50" t="s">
         <v>160</v>
       </c>
@@ -13729,7 +13773,7 @@
       </c>
     </row>
     <row r="25" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="106"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="50" t="s">
         <v>161</v>
       </c>
@@ -13858,7 +13902,7 @@
       <c r="DS25" s="3"/>
     </row>
     <row r="26" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="106"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="50" t="s">
         <v>162</v>
       </c>
@@ -13993,7 +14037,7 @@
       </c>
     </row>
     <row r="27" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="106"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="50" t="s">
         <v>163</v>
       </c>
@@ -14122,7 +14166,7 @@
       <c r="DS27" s="3"/>
     </row>
     <row r="28" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="106"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="50" t="s">
         <v>164</v>
       </c>
@@ -14255,7 +14299,7 @@
       <c r="DS28" s="3"/>
     </row>
     <row r="29" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="106"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="50" t="s">
         <v>165</v>
       </c>
@@ -14382,7 +14426,7 @@
       <c r="DS29" s="3"/>
     </row>
     <row r="30" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="106"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="50" t="s">
         <v>166</v>
       </c>
@@ -14509,7 +14553,7 @@
       <c r="DS30" s="3"/>
     </row>
     <row r="31" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="106"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="50" t="s">
         <v>167</v>
       </c>
@@ -14688,7 +14732,7 @@
       <c r="DS31" s="3"/>
     </row>
     <row r="32" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="106"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="51" t="s">
         <v>168</v>
       </c>
@@ -14913,7 +14957,7 @@
       <c r="DS32" s="3"/>
     </row>
     <row r="33" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="106"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="51" t="s">
         <v>169</v>
       </c>
@@ -15054,7 +15098,7 @@
       <c r="DS33" s="3"/>
     </row>
     <row r="34" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="106"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="51" t="s">
         <v>170</v>
       </c>
@@ -15203,7 +15247,7 @@
       <c r="DS34" s="3"/>
     </row>
     <row r="35" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="106"/>
+      <c r="A35" s="107"/>
       <c r="B35" s="51" t="s">
         <v>171</v>
       </c>
@@ -15685,7 +15729,7 @@
       <selection activeCell="B122" sqref="B122:F123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
@@ -15695,24 +15739,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="121"/>
-      <c r="B1" s="118" t="s">
+      <c r="A1" s="122"/>
+      <c r="B1" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="122"/>
-      <c r="B2" s="120" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A3" s="36"/>
@@ -16964,13 +17008,13 @@
     </row>
     <row r="126" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
       <c r="A126" s="32"/>
-      <c r="B126" s="115" t="s">
+      <c r="B126" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="116"/>
-      <c r="D126" s="116"/>
-      <c r="E126" s="116"/>
-      <c r="F126" s="117"/>
+      <c r="C126" s="117"/>
+      <c r="D126" s="117"/>
+      <c r="E126" s="117"/>
+      <c r="F126" s="118"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A127" s="31" t="s">
